--- a/test_files/outputs/UPbOutput.xlsx
+++ b/test_files/outputs/UPbOutput.xlsx
@@ -9,18 +9,21 @@
   <sheets>
     <sheet name="Ratios raw" sheetId="1" r:id="rId1"/>
     <sheet name="Ages raw" sheetId="2" r:id="rId2"/>
-    <sheet name="STDGJ" sheetId="3" r:id="rId3"/>
-    <sheet name="91500" sheetId="4" r:id="rId4"/>
-    <sheet name="MT" sheetId="5" r:id="rId5"/>
-    <sheet name="INT1" sheetId="6" r:id="rId6"/>
-    <sheet name="INT2" sheetId="7" r:id="rId7"/>
+    <sheet name="ToBeCommonLeadCorrected" sheetId="3" r:id="rId3"/>
+    <sheet name="Control Report" sheetId="4" r:id="rId4"/>
+    <sheet name="Normalized Report" sheetId="5" r:id="rId5"/>
+    <sheet name="STDGJ" sheetId="6" r:id="rId6"/>
+    <sheet name="91500" sheetId="7" r:id="rId7"/>
+    <sheet name="MT" sheetId="8" r:id="rId8"/>
+    <sheet name="INT1" sheetId="9" r:id="rId9"/>
+    <sheet name="INT2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="90">
   <si>
     <t>Analysis_#</t>
   </si>
@@ -253,6 +256,21 @@
     <t>STDGJ-10</t>
   </si>
   <si>
+    <t>Pb206</t>
+  </si>
+  <si>
+    <t>Pb207</t>
+  </si>
+  <si>
+    <t>Pb208</t>
+  </si>
+  <si>
+    <t>Th232</t>
+  </si>
+  <si>
+    <t>U238</t>
+  </si>
+  <si>
     <t>Ratios</t>
   </si>
   <si>
@@ -260,12 +278,6 @@
   </si>
   <si>
     <t>Concentrations</t>
-  </si>
-  <si>
-    <t>Th232</t>
-  </si>
-  <si>
-    <t>U238</t>
   </si>
   <si>
     <t>Zircon number</t>
@@ -2885,6 +2897,1457 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>0.11247832</v>
+      </c>
+      <c r="C3">
+        <v>0.00333784</v>
+      </c>
+      <c r="D3">
+        <v>0.3338429</v>
+      </c>
+      <c r="E3">
+        <v>0.00787066</v>
+      </c>
+      <c r="F3">
+        <v>5.17700768</v>
+      </c>
+      <c r="G3">
+        <v>0.15702172</v>
+      </c>
+      <c r="H3">
+        <v>0.09503457999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.0042883</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>63359</v>
+      </c>
+      <c r="M3">
+        <v>129292</v>
+      </c>
+      <c r="N3">
+        <v>61</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3">
+        <v>1839.8</v>
+      </c>
+      <c r="S3">
+        <v>53.26</v>
+      </c>
+      <c r="T3">
+        <v>1857</v>
+      </c>
+      <c r="U3">
+        <v>38.04</v>
+      </c>
+      <c r="V3">
+        <v>1848.8</v>
+      </c>
+      <c r="W3">
+        <v>25.82</v>
+      </c>
+      <c r="X3">
+        <v>1835</v>
+      </c>
+      <c r="Y3">
+        <v>79.16</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3">
+        <v>0.00214415</v>
+      </c>
+      <c r="AC3">
+        <v>0.09503457999999999</v>
+      </c>
+      <c r="AD3">
+        <v>0.07851086</v>
+      </c>
+      <c r="AE3">
+        <v>5.17700768</v>
+      </c>
+      <c r="AF3">
+        <v>1.487724719999442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>0.11168011</v>
+      </c>
+      <c r="C4">
+        <v>0.00726042</v>
+      </c>
+      <c r="D4">
+        <v>0.33359912</v>
+      </c>
+      <c r="E4">
+        <v>0.01219898</v>
+      </c>
+      <c r="F4">
+        <v>5.13700056</v>
+      </c>
+      <c r="G4">
+        <v>0.32126972</v>
+      </c>
+      <c r="H4">
+        <v>0.08542246000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.0069987</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4">
+        <v>26697</v>
+      </c>
+      <c r="M4">
+        <v>31391</v>
+      </c>
+      <c r="N4">
+        <v>62</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4">
+        <v>1826.9</v>
+      </c>
+      <c r="S4">
+        <v>115.62</v>
+      </c>
+      <c r="T4">
+        <v>1855.8</v>
+      </c>
+      <c r="U4">
+        <v>58.96</v>
+      </c>
+      <c r="V4">
+        <v>1842.2</v>
+      </c>
+      <c r="W4">
+        <v>53.16</v>
+      </c>
+      <c r="X4">
+        <v>1656.8</v>
+      </c>
+      <c r="Y4">
+        <v>130.32</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4">
+        <v>0.00349935</v>
+      </c>
+      <c r="AC4">
+        <v>0.08542246000000001</v>
+      </c>
+      <c r="AD4">
+        <v>0.16063486</v>
+      </c>
+      <c r="AE4">
+        <v>5.13700056</v>
+      </c>
+      <c r="AF4">
+        <v>1.310041706315903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>0.18385829</v>
+      </c>
+      <c r="C5">
+        <v>0.009171500000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.51385707</v>
+      </c>
+      <c r="E5">
+        <v>0.0163552</v>
+      </c>
+      <c r="F5">
+        <v>13.02418423</v>
+      </c>
+      <c r="G5">
+        <v>0.62648028</v>
+      </c>
+      <c r="H5">
+        <v>0.13973019</v>
+      </c>
+      <c r="I5">
+        <v>0.00996086</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5">
+        <v>46237</v>
+      </c>
+      <c r="M5">
+        <v>17314</v>
+      </c>
+      <c r="N5">
+        <v>63</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5">
+        <v>2688</v>
+      </c>
+      <c r="S5">
+        <v>81.28</v>
+      </c>
+      <c r="T5">
+        <v>2673.1</v>
+      </c>
+      <c r="U5">
+        <v>69.64</v>
+      </c>
+      <c r="V5">
+        <v>2681.4</v>
+      </c>
+      <c r="W5">
+        <v>45.36</v>
+      </c>
+      <c r="X5">
+        <v>2643.6</v>
+      </c>
+      <c r="Y5">
+        <v>176.64</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5">
+        <v>0.00498043</v>
+      </c>
+      <c r="AC5">
+        <v>0.13973019</v>
+      </c>
+      <c r="AD5">
+        <v>0.31324014</v>
+      </c>
+      <c r="AE5">
+        <v>13.02418423</v>
+      </c>
+      <c r="AF5">
+        <v>1.48200514803498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>0.11540873</v>
+      </c>
+      <c r="C6">
+        <v>0.00376114</v>
+      </c>
+      <c r="D6">
+        <v>0.33280069</v>
+      </c>
+      <c r="E6">
+        <v>0.00811914</v>
+      </c>
+      <c r="F6">
+        <v>5.2953105</v>
+      </c>
+      <c r="G6">
+        <v>0.17402976</v>
+      </c>
+      <c r="H6">
+        <v>0.09952312000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.004693</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6">
+        <v>71346</v>
+      </c>
+      <c r="M6">
+        <v>65233</v>
+      </c>
+      <c r="N6">
+        <v>64</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6">
+        <v>1886.3</v>
+      </c>
+      <c r="S6">
+        <v>58.1</v>
+      </c>
+      <c r="T6">
+        <v>1851.9</v>
+      </c>
+      <c r="U6">
+        <v>39.28</v>
+      </c>
+      <c r="V6">
+        <v>1868.1</v>
+      </c>
+      <c r="W6">
+        <v>28.06</v>
+      </c>
+      <c r="X6">
+        <v>1917.7</v>
+      </c>
+      <c r="Y6">
+        <v>86.28</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6">
+        <v>0.0023465</v>
+      </c>
+      <c r="AC6">
+        <v>0.09952312000000001</v>
+      </c>
+      <c r="AD6">
+        <v>0.08701488</v>
+      </c>
+      <c r="AE6">
+        <v>5.2953105</v>
+      </c>
+      <c r="AF6">
+        <v>1.434810285579771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>0.05713838</v>
+      </c>
+      <c r="C7">
+        <v>0.00324074</v>
+      </c>
+      <c r="D7">
+        <v>0.08036897</v>
+      </c>
+      <c r="E7">
+        <v>0.00226334</v>
+      </c>
+      <c r="F7">
+        <v>0.63304847</v>
+      </c>
+      <c r="G7">
+        <v>0.03495256</v>
+      </c>
+      <c r="H7">
+        <v>0.0264909</v>
+      </c>
+      <c r="I7">
+        <v>0.00227306</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7">
+        <v>219352</v>
+      </c>
+      <c r="M7">
+        <v>352706</v>
+      </c>
+      <c r="N7">
+        <v>65</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7">
+        <v>496.3</v>
+      </c>
+      <c r="S7">
+        <v>123.7</v>
+      </c>
+      <c r="T7">
+        <v>498.3</v>
+      </c>
+      <c r="U7">
+        <v>13.5</v>
+      </c>
+      <c r="V7">
+        <v>498</v>
+      </c>
+      <c r="W7">
+        <v>21.74</v>
+      </c>
+      <c r="X7">
+        <v>528.5</v>
+      </c>
+      <c r="Y7">
+        <v>44.76</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB7">
+        <v>0.00113653</v>
+      </c>
+      <c r="AC7">
+        <v>0.0264909</v>
+      </c>
+      <c r="AD7">
+        <v>0.01747628</v>
+      </c>
+      <c r="AE7">
+        <v>0.63304847</v>
+      </c>
+      <c r="AF7">
+        <v>1.554075664883719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>0.11511456</v>
+      </c>
+      <c r="C8">
+        <v>0.00356612</v>
+      </c>
+      <c r="D8">
+        <v>0.33271149</v>
+      </c>
+      <c r="E8">
+        <v>0.00789696</v>
+      </c>
+      <c r="F8">
+        <v>5.28034306</v>
+      </c>
+      <c r="G8">
+        <v>0.16713804</v>
+      </c>
+      <c r="H8">
+        <v>0.09435288</v>
+      </c>
+      <c r="I8">
+        <v>0.0048741</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8">
+        <v>188077</v>
+      </c>
+      <c r="M8">
+        <v>467969</v>
+      </c>
+      <c r="N8">
+        <v>66</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8">
+        <v>1881.7</v>
+      </c>
+      <c r="S8">
+        <v>55.3</v>
+      </c>
+      <c r="T8">
+        <v>1851.5</v>
+      </c>
+      <c r="U8">
+        <v>38.2</v>
+      </c>
+      <c r="V8">
+        <v>1865.7</v>
+      </c>
+      <c r="W8">
+        <v>27.02</v>
+      </c>
+      <c r="X8">
+        <v>1822.4</v>
+      </c>
+      <c r="Y8">
+        <v>90.02</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB8">
+        <v>0.00243705</v>
+      </c>
+      <c r="AC8">
+        <v>0.09435288</v>
+      </c>
+      <c r="AD8">
+        <v>0.08356901999999999</v>
+      </c>
+      <c r="AE8">
+        <v>5.28034306</v>
+      </c>
+      <c r="AF8">
+        <v>1.632022374473374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>0.1514342</v>
+      </c>
+      <c r="C9">
+        <v>0.008435099999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.42633954</v>
+      </c>
+      <c r="E9">
+        <v>0.0131813</v>
+      </c>
+      <c r="F9">
+        <v>8.9004879</v>
+      </c>
+      <c r="G9">
+        <v>0.48560892</v>
+      </c>
+      <c r="H9">
+        <v>0.10002673</v>
+      </c>
+      <c r="I9">
+        <v>0.01023324</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9">
+        <v>408923</v>
+      </c>
+      <c r="M9">
+        <v>568883</v>
+      </c>
+      <c r="N9">
+        <v>67</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9">
+        <v>2362.2</v>
+      </c>
+      <c r="S9">
+        <v>93.56</v>
+      </c>
+      <c r="T9">
+        <v>2289.2</v>
+      </c>
+      <c r="U9">
+        <v>59.58</v>
+      </c>
+      <c r="V9">
+        <v>2327.9</v>
+      </c>
+      <c r="W9">
+        <v>49.8</v>
+      </c>
+      <c r="X9">
+        <v>1926.9</v>
+      </c>
+      <c r="Y9">
+        <v>188.02</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB9">
+        <v>0.00511662</v>
+      </c>
+      <c r="AC9">
+        <v>0.10002673</v>
+      </c>
+      <c r="AD9">
+        <v>0.24280446</v>
+      </c>
+      <c r="AE9">
+        <v>8.9004879</v>
+      </c>
+      <c r="AF9">
+        <v>1.875099192950983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>0.06818251</v>
+      </c>
+      <c r="C10">
+        <v>0.00375248</v>
+      </c>
+      <c r="D10">
+        <v>0.09997316000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.002967</v>
+      </c>
+      <c r="F10">
+        <v>0.93976551</v>
+      </c>
+      <c r="G10">
+        <v>0.05050966</v>
+      </c>
+      <c r="H10">
+        <v>0.02738062</v>
+      </c>
+      <c r="I10">
+        <v>0.00230274</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10">
+        <v>367488</v>
+      </c>
+      <c r="M10">
+        <v>418174</v>
+      </c>
+      <c r="N10">
+        <v>68</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10">
+        <v>874.1</v>
+      </c>
+      <c r="S10">
+        <v>111.94</v>
+      </c>
+      <c r="T10">
+        <v>614.3</v>
+      </c>
+      <c r="U10">
+        <v>17.38</v>
+      </c>
+      <c r="V10">
+        <v>672.8</v>
+      </c>
+      <c r="W10">
+        <v>26.44</v>
+      </c>
+      <c r="X10">
+        <v>546</v>
+      </c>
+      <c r="Y10">
+        <v>45.3</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10">
+        <v>0.00115137</v>
+      </c>
+      <c r="AC10">
+        <v>0.02738062</v>
+      </c>
+      <c r="AD10">
+        <v>0.02525483</v>
+      </c>
+      <c r="AE10">
+        <v>0.93976551</v>
+      </c>
+      <c r="AF10">
+        <v>1.564756210710159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>0.05497244</v>
+      </c>
+      <c r="C11">
+        <v>0.00419424</v>
+      </c>
+      <c r="D11">
+        <v>0.05948197</v>
+      </c>
+      <c r="E11">
+        <v>0.00200418</v>
+      </c>
+      <c r="F11">
+        <v>0.45080668</v>
+      </c>
+      <c r="G11">
+        <v>0.03318798</v>
+      </c>
+      <c r="H11">
+        <v>0.01779495</v>
+      </c>
+      <c r="I11">
+        <v>0.00154446</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11">
+        <v>247701</v>
+      </c>
+      <c r="M11">
+        <v>210067</v>
+      </c>
+      <c r="N11">
+        <v>69</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11">
+        <v>411.1</v>
+      </c>
+      <c r="S11">
+        <v>165.16</v>
+      </c>
+      <c r="T11">
+        <v>372.5</v>
+      </c>
+      <c r="U11">
+        <v>12.2</v>
+      </c>
+      <c r="V11">
+        <v>377.8</v>
+      </c>
+      <c r="W11">
+        <v>23.22</v>
+      </c>
+      <c r="X11">
+        <v>356.5</v>
+      </c>
+      <c r="Y11">
+        <v>30.68</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB11">
+        <v>0.0007722300000000001</v>
+      </c>
+      <c r="AC11">
+        <v>0.01779495</v>
+      </c>
+      <c r="AD11">
+        <v>0.01659399</v>
+      </c>
+      <c r="AE11">
+        <v>0.45080668</v>
+      </c>
+      <c r="AF11">
+        <v>1.178933791505549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>0.05383626</v>
+      </c>
+      <c r="C12">
+        <v>0.00380342</v>
+      </c>
+      <c r="D12">
+        <v>0.0563283</v>
+      </c>
+      <c r="E12">
+        <v>0.00181508</v>
+      </c>
+      <c r="F12">
+        <v>0.41807088</v>
+      </c>
+      <c r="G12">
+        <v>0.02854286</v>
+      </c>
+      <c r="H12">
+        <v>0.01376718</v>
+      </c>
+      <c r="I12">
+        <v>0.00122488</v>
+      </c>
+      <c r="K12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12">
+        <v>364876</v>
+      </c>
+      <c r="M12">
+        <v>301068</v>
+      </c>
+      <c r="N12">
+        <v>70</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12">
+        <v>364.1</v>
+      </c>
+      <c r="S12">
+        <v>155.12</v>
+      </c>
+      <c r="T12">
+        <v>353.3</v>
+      </c>
+      <c r="U12">
+        <v>11.08</v>
+      </c>
+      <c r="V12">
+        <v>354.7</v>
+      </c>
+      <c r="W12">
+        <v>20.44</v>
+      </c>
+      <c r="X12">
+        <v>276.4</v>
+      </c>
+      <c r="Y12">
+        <v>24.42</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB12">
+        <v>0.00061244</v>
+      </c>
+      <c r="AC12">
+        <v>0.01376718</v>
+      </c>
+      <c r="AD12">
+        <v>0.01427143</v>
+      </c>
+      <c r="AE12">
+        <v>0.41807088</v>
+      </c>
+      <c r="AF12">
+        <v>1.303169731235245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>0.17937024</v>
+      </c>
+      <c r="C13">
+        <v>0.00875542</v>
+      </c>
+      <c r="D13">
+        <v>0.48978382</v>
+      </c>
+      <c r="E13">
+        <v>0.0142455</v>
+      </c>
+      <c r="F13">
+        <v>12.11128712</v>
+      </c>
+      <c r="G13">
+        <v>0.57803852</v>
+      </c>
+      <c r="H13">
+        <v>0.12799101</v>
+      </c>
+      <c r="I13">
+        <v>0.01119902</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13">
+        <v>113850</v>
+      </c>
+      <c r="M13">
+        <v>128890</v>
+      </c>
+      <c r="N13">
+        <v>71</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13">
+        <v>2647.1</v>
+      </c>
+      <c r="S13">
+        <v>79.88</v>
+      </c>
+      <c r="T13">
+        <v>2569.7</v>
+      </c>
+      <c r="U13">
+        <v>61.64</v>
+      </c>
+      <c r="V13">
+        <v>2613.1</v>
+      </c>
+      <c r="W13">
+        <v>44.76</v>
+      </c>
+      <c r="X13">
+        <v>2434.3</v>
+      </c>
+      <c r="Y13">
+        <v>200.68</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB13">
+        <v>0.00559951</v>
+      </c>
+      <c r="AC13">
+        <v>0.12799101</v>
+      </c>
+      <c r="AD13">
+        <v>0.28901926</v>
+      </c>
+      <c r="AE13">
+        <v>12.11128712</v>
+      </c>
+      <c r="AF13">
+        <v>1.833302259306927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14">
+        <v>0.12159556</v>
+      </c>
+      <c r="C14">
+        <v>0.00539292</v>
+      </c>
+      <c r="D14">
+        <v>0.34821829</v>
+      </c>
+      <c r="E14">
+        <v>0.009363059999999999</v>
+      </c>
+      <c r="F14">
+        <v>5.83740377</v>
+      </c>
+      <c r="G14">
+        <v>0.25509782</v>
+      </c>
+      <c r="H14">
+        <v>0.1039528</v>
+      </c>
+      <c r="I14">
+        <v>0.00825774</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14">
+        <v>121071</v>
+      </c>
+      <c r="M14">
+        <v>153510</v>
+      </c>
+      <c r="N14">
+        <v>72</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14">
+        <v>1979.7</v>
+      </c>
+      <c r="S14">
+        <v>77.95999999999999</v>
+      </c>
+      <c r="T14">
+        <v>1926.1</v>
+      </c>
+      <c r="U14">
+        <v>44.76</v>
+      </c>
+      <c r="V14">
+        <v>1952</v>
+      </c>
+      <c r="W14">
+        <v>37.88</v>
+      </c>
+      <c r="X14">
+        <v>1998.9</v>
+      </c>
+      <c r="Y14">
+        <v>151.2</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB14">
+        <v>0.00412887</v>
+      </c>
+      <c r="AC14">
+        <v>0.1039528</v>
+      </c>
+      <c r="AD14">
+        <v>0.12754891</v>
+      </c>
+      <c r="AE14">
+        <v>5.83740377</v>
+      </c>
+      <c r="AF14">
+        <v>1.817766100669908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>0.05693299</v>
+      </c>
+      <c r="C15">
+        <v>0.00324924</v>
+      </c>
+      <c r="D15">
+        <v>0.08152818000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.00231628</v>
+      </c>
+      <c r="F15">
+        <v>0.63992387</v>
+      </c>
+      <c r="G15">
+        <v>0.03552302</v>
+      </c>
+      <c r="H15">
+        <v>0.0265804</v>
+      </c>
+      <c r="I15">
+        <v>0.00200344</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15">
+        <v>37492</v>
+      </c>
+      <c r="M15">
+        <v>104339</v>
+      </c>
+      <c r="N15">
+        <v>73</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15">
+        <v>488.3</v>
+      </c>
+      <c r="S15">
+        <v>124.78</v>
+      </c>
+      <c r="T15">
+        <v>505.2</v>
+      </c>
+      <c r="U15">
+        <v>13.8</v>
+      </c>
+      <c r="V15">
+        <v>502.3</v>
+      </c>
+      <c r="W15">
+        <v>22</v>
+      </c>
+      <c r="X15">
+        <v>530.2</v>
+      </c>
+      <c r="Y15">
+        <v>39.44</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB15">
+        <v>0.00100172</v>
+      </c>
+      <c r="AC15">
+        <v>0.0265804</v>
+      </c>
+      <c r="AD15">
+        <v>0.01776151</v>
+      </c>
+      <c r="AE15">
+        <v>0.63992387</v>
+      </c>
+      <c r="AF15">
+        <v>1.357792039525215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>0.1159955</v>
+      </c>
+      <c r="C16">
+        <v>0.00539836</v>
+      </c>
+      <c r="D16">
+        <v>0.34151149</v>
+      </c>
+      <c r="E16">
+        <v>0.00956338</v>
+      </c>
+      <c r="F16">
+        <v>5.46056604</v>
+      </c>
+      <c r="G16">
+        <v>0.2494159</v>
+      </c>
+      <c r="H16">
+        <v>0.09774176</v>
+      </c>
+      <c r="I16">
+        <v>0.007928940000000001</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16">
+        <v>46638</v>
+      </c>
+      <c r="M16">
+        <v>111335</v>
+      </c>
+      <c r="N16">
+        <v>74</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16">
+        <v>1895.4</v>
+      </c>
+      <c r="S16">
+        <v>82.54000000000001</v>
+      </c>
+      <c r="T16">
+        <v>1893.9</v>
+      </c>
+      <c r="U16">
+        <v>45.96</v>
+      </c>
+      <c r="V16">
+        <v>1894.4</v>
+      </c>
+      <c r="W16">
+        <v>39.2</v>
+      </c>
+      <c r="X16">
+        <v>1884.9</v>
+      </c>
+      <c r="Y16">
+        <v>146</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB16">
+        <v>0.00396447</v>
+      </c>
+      <c r="AC16">
+        <v>0.09774176</v>
+      </c>
+      <c r="AD16">
+        <v>0.12470795</v>
+      </c>
+      <c r="AE16">
+        <v>5.46056604</v>
+      </c>
+      <c r="AF16">
+        <v>1.776022667890149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>0.11538436</v>
+      </c>
+      <c r="C17">
+        <v>0.00433644</v>
+      </c>
+      <c r="D17">
+        <v>0.3123807</v>
+      </c>
+      <c r="E17">
+        <v>0.00791888</v>
+      </c>
+      <c r="F17">
+        <v>4.96930408</v>
+      </c>
+      <c r="G17">
+        <v>0.18634642</v>
+      </c>
+      <c r="H17">
+        <v>0.09330571</v>
+      </c>
+      <c r="I17">
+        <v>0.00584588</v>
+      </c>
+      <c r="K17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17">
+        <v>47360</v>
+      </c>
+      <c r="M17">
+        <v>92675</v>
+      </c>
+      <c r="N17">
+        <v>75</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17">
+        <v>1885.9</v>
+      </c>
+      <c r="S17">
+        <v>66.92</v>
+      </c>
+      <c r="T17">
+        <v>1752.4</v>
+      </c>
+      <c r="U17">
+        <v>38.9</v>
+      </c>
+      <c r="V17">
+        <v>1814.1</v>
+      </c>
+      <c r="W17">
+        <v>31.7</v>
+      </c>
+      <c r="X17">
+        <v>1803</v>
+      </c>
+      <c r="Y17">
+        <v>108.08</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB17">
+        <v>0.00292294</v>
+      </c>
+      <c r="AC17">
+        <v>0.09330571</v>
+      </c>
+      <c r="AD17">
+        <v>0.09317321000000001</v>
+      </c>
+      <c r="AE17">
+        <v>4.96930408</v>
+      </c>
+      <c r="AF17">
+        <v>1.670768171788287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I78"/>
@@ -5162,6 +6625,5652 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:N81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.05925549</v>
+      </c>
+      <c r="C5">
+        <v>0.00095706</v>
+      </c>
+      <c r="D5">
+        <v>0.09762741</v>
+      </c>
+      <c r="E5">
+        <v>0.00115974</v>
+      </c>
+      <c r="F5">
+        <v>0.79753673</v>
+      </c>
+      <c r="G5">
+        <v>0.01305311</v>
+      </c>
+      <c r="H5">
+        <v>0.02956459</v>
+      </c>
+      <c r="I5">
+        <v>0.0008474999999999999</v>
+      </c>
+      <c r="J5">
+        <v>22169</v>
+      </c>
+      <c r="K5">
+        <v>1312</v>
+      </c>
+      <c r="L5">
+        <v>422</v>
+      </c>
+      <c r="M5">
+        <v>15020</v>
+      </c>
+      <c r="N5">
+        <v>251382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.06102176</v>
+      </c>
+      <c r="C6">
+        <v>0.00102202</v>
+      </c>
+      <c r="D6">
+        <v>0.09776538</v>
+      </c>
+      <c r="E6">
+        <v>0.00114977</v>
+      </c>
+      <c r="F6">
+        <v>0.82252294</v>
+      </c>
+      <c r="G6">
+        <v>0.01379256</v>
+      </c>
+      <c r="H6">
+        <v>0.03230873</v>
+      </c>
+      <c r="I6">
+        <v>0.00096777</v>
+      </c>
+      <c r="J6">
+        <v>19913</v>
+      </c>
+      <c r="K6">
+        <v>1200</v>
+      </c>
+      <c r="L6">
+        <v>404</v>
+      </c>
+      <c r="M6">
+        <v>13138</v>
+      </c>
+      <c r="N6">
+        <v>220856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.07356002</v>
+      </c>
+      <c r="C7">
+        <v>0.00129452</v>
+      </c>
+      <c r="D7">
+        <v>0.1761913</v>
+      </c>
+      <c r="E7">
+        <v>0.00213131</v>
+      </c>
+      <c r="F7">
+        <v>1.78690434</v>
+      </c>
+      <c r="G7">
+        <v>0.03128593</v>
+      </c>
+      <c r="H7">
+        <v>0.054222</v>
+      </c>
+      <c r="I7">
+        <v>0.00124256</v>
+      </c>
+      <c r="J7">
+        <v>13553</v>
+      </c>
+      <c r="K7">
+        <v>984</v>
+      </c>
+      <c r="L7">
+        <v>1460</v>
+      </c>
+      <c r="M7">
+        <v>28182</v>
+      </c>
+      <c r="N7">
+        <v>83484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.06426057</v>
+      </c>
+      <c r="C8">
+        <v>0.0012023</v>
+      </c>
+      <c r="D8">
+        <v>0.11813725</v>
+      </c>
+      <c r="E8">
+        <v>0.00147579</v>
+      </c>
+      <c r="F8">
+        <v>1.04662633</v>
+      </c>
+      <c r="G8">
+        <v>0.0195741</v>
+      </c>
+      <c r="H8">
+        <v>0.03630736</v>
+      </c>
+      <c r="I8">
+        <v>0.00076258</v>
+      </c>
+      <c r="J8">
+        <v>11360</v>
+      </c>
+      <c r="K8">
+        <v>732</v>
+      </c>
+      <c r="L8">
+        <v>3144</v>
+      </c>
+      <c r="M8">
+        <v>89939</v>
+      </c>
+      <c r="N8">
+        <v>107525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.14002734</v>
+      </c>
+      <c r="C9">
+        <v>0.00202965</v>
+      </c>
+      <c r="D9">
+        <v>0.4267382</v>
+      </c>
+      <c r="E9">
+        <v>0.00509699</v>
+      </c>
+      <c r="F9">
+        <v>8.23819447</v>
+      </c>
+      <c r="G9">
+        <v>0.12225675</v>
+      </c>
+      <c r="H9">
+        <v>0.12521042</v>
+      </c>
+      <c r="I9">
+        <v>0.00274793</v>
+      </c>
+      <c r="J9">
+        <v>28631</v>
+      </c>
+      <c r="K9">
+        <v>4013</v>
+      </c>
+      <c r="L9">
+        <v>3654</v>
+      </c>
+      <c r="M9">
+        <v>30549</v>
+      </c>
+      <c r="N9">
+        <v>74205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.07467622</v>
+      </c>
+      <c r="C10">
+        <v>0.00182117</v>
+      </c>
+      <c r="D10">
+        <v>0.0632067</v>
+      </c>
+      <c r="E10">
+        <v>0.00086021</v>
+      </c>
+      <c r="F10">
+        <v>0.65076309</v>
+      </c>
+      <c r="G10">
+        <v>0.01535627</v>
+      </c>
+      <c r="H10">
+        <v>0.01979949</v>
+      </c>
+      <c r="I10">
+        <v>0.00044462</v>
+      </c>
+      <c r="J10">
+        <v>5287</v>
+      </c>
+      <c r="K10">
+        <v>393</v>
+      </c>
+      <c r="L10">
+        <v>11009</v>
+      </c>
+      <c r="M10">
+        <v>580715</v>
+      </c>
+      <c r="N10">
+        <v>91499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.10839629</v>
+      </c>
+      <c r="C11">
+        <v>0.00179585</v>
+      </c>
+      <c r="D11">
+        <v>0.29725766</v>
+      </c>
+      <c r="E11">
+        <v>0.00361408</v>
+      </c>
+      <c r="F11">
+        <v>4.44251394</v>
+      </c>
+      <c r="G11">
+        <v>0.07365235000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.08825705</v>
+      </c>
+      <c r="I11">
+        <v>0.00212575</v>
+      </c>
+      <c r="J11">
+        <v>20312</v>
+      </c>
+      <c r="K11">
+        <v>2186</v>
+      </c>
+      <c r="L11">
+        <v>4118</v>
+      </c>
+      <c r="M11">
+        <v>48582</v>
+      </c>
+      <c r="N11">
+        <v>74606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.06233726</v>
+      </c>
+      <c r="C12">
+        <v>0.00172683</v>
+      </c>
+      <c r="D12">
+        <v>0.08146672000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.00115038</v>
+      </c>
+      <c r="F12">
+        <v>0.70016521</v>
+      </c>
+      <c r="G12">
+        <v>0.01880147</v>
+      </c>
+      <c r="H12">
+        <v>0.02771389</v>
+      </c>
+      <c r="I12">
+        <v>0.0008110599999999999</v>
+      </c>
+      <c r="J12">
+        <v>5431</v>
+      </c>
+      <c r="K12">
+        <v>337</v>
+      </c>
+      <c r="L12">
+        <v>1099</v>
+      </c>
+      <c r="M12">
+        <v>41444</v>
+      </c>
+      <c r="N12">
+        <v>73272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.17508344</v>
+      </c>
+      <c r="C13">
+        <v>0.0034998</v>
+      </c>
+      <c r="D13">
+        <v>0.44849381</v>
+      </c>
+      <c r="E13">
+        <v>0.00593731</v>
+      </c>
+      <c r="F13">
+        <v>10.82270527</v>
+      </c>
+      <c r="G13">
+        <v>0.21751702</v>
+      </c>
+      <c r="H13">
+        <v>0.13104485</v>
+      </c>
+      <c r="I13">
+        <v>0.00487851</v>
+      </c>
+      <c r="J13">
+        <v>291334</v>
+      </c>
+      <c r="K13">
+        <v>51762</v>
+      </c>
+      <c r="L13">
+        <v>17949</v>
+      </c>
+      <c r="M13">
+        <v>145089</v>
+      </c>
+      <c r="N13">
+        <v>760321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.17388043</v>
+      </c>
+      <c r="C14">
+        <v>0.00422406</v>
+      </c>
+      <c r="D14">
+        <v>0.47403106</v>
+      </c>
+      <c r="E14">
+        <v>0.00709189</v>
+      </c>
+      <c r="F14">
+        <v>11.36583042</v>
+      </c>
+      <c r="G14">
+        <v>0.27610224</v>
+      </c>
+      <c r="H14">
+        <v>0.09755125000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0050431</v>
+      </c>
+      <c r="J14">
+        <v>122923</v>
+      </c>
+      <c r="K14">
+        <v>22223</v>
+      </c>
+      <c r="L14">
+        <v>2992</v>
+      </c>
+      <c r="M14">
+        <v>35058</v>
+      </c>
+      <c r="N14">
+        <v>321059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.17100489</v>
+      </c>
+      <c r="C15">
+        <v>0.00295209</v>
+      </c>
+      <c r="D15">
+        <v>0.49699029</v>
+      </c>
+      <c r="E15">
+        <v>0.00616109</v>
+      </c>
+      <c r="F15">
+        <v>11.71724606</v>
+      </c>
+      <c r="G15">
+        <v>0.20248808</v>
+      </c>
+      <c r="H15">
+        <v>0.13523741</v>
+      </c>
+      <c r="I15">
+        <v>0.00397501</v>
+      </c>
+      <c r="J15">
+        <v>37106</v>
+      </c>
+      <c r="K15">
+        <v>6345</v>
+      </c>
+      <c r="L15">
+        <v>6321</v>
+      </c>
+      <c r="M15">
+        <v>48869</v>
+      </c>
+      <c r="N15">
+        <v>82163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.05722805</v>
+      </c>
+      <c r="C16">
+        <v>0.00178174</v>
+      </c>
+      <c r="D16">
+        <v>0.05942357</v>
+      </c>
+      <c r="E16">
+        <v>0.00088212</v>
+      </c>
+      <c r="F16">
+        <v>0.46886104</v>
+      </c>
+      <c r="G16">
+        <v>0.01416581</v>
+      </c>
+      <c r="H16">
+        <v>0.01924586</v>
+      </c>
+      <c r="I16">
+        <v>0.00063171</v>
+      </c>
+      <c r="J16">
+        <v>5685</v>
+      </c>
+      <c r="K16">
+        <v>328</v>
+      </c>
+      <c r="L16">
+        <v>2252</v>
+      </c>
+      <c r="M16">
+        <v>124733</v>
+      </c>
+      <c r="N16">
+        <v>107292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.10390117</v>
+      </c>
+      <c r="C17">
+        <v>0.00210558</v>
+      </c>
+      <c r="D17">
+        <v>0.27769876</v>
+      </c>
+      <c r="E17">
+        <v>0.00369108</v>
+      </c>
+      <c r="F17">
+        <v>3.97823405</v>
+      </c>
+      <c r="G17">
+        <v>0.08095206000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.08092102</v>
+      </c>
+      <c r="I17">
+        <v>0.00299898</v>
+      </c>
+      <c r="J17">
+        <v>106027</v>
+      </c>
+      <c r="K17">
+        <v>11283</v>
+      </c>
+      <c r="L17">
+        <v>15147</v>
+      </c>
+      <c r="M17">
+        <v>196756</v>
+      </c>
+      <c r="N17">
+        <v>444532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.05225151</v>
+      </c>
+      <c r="C18">
+        <v>0.00121183</v>
+      </c>
+      <c r="D18">
+        <v>0.05925776</v>
+      </c>
+      <c r="E18">
+        <v>0.00077642</v>
+      </c>
+      <c r="F18">
+        <v>0.42689079</v>
+      </c>
+      <c r="G18">
+        <v>0.009725900000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.01824271</v>
+      </c>
+      <c r="I18">
+        <v>0.00068231</v>
+      </c>
+      <c r="J18">
+        <v>31958</v>
+      </c>
+      <c r="K18">
+        <v>1688</v>
+      </c>
+      <c r="L18">
+        <v>6366</v>
+      </c>
+      <c r="M18">
+        <v>362840</v>
+      </c>
+      <c r="N18">
+        <v>595162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.06037111</v>
+      </c>
+      <c r="C19">
+        <v>0.0012294</v>
+      </c>
+      <c r="D19">
+        <v>0.09778125</v>
+      </c>
+      <c r="E19">
+        <v>0.00121853</v>
+      </c>
+      <c r="F19">
+        <v>0.81387657</v>
+      </c>
+      <c r="G19">
+        <v>0.01635747</v>
+      </c>
+      <c r="H19">
+        <v>0.03283451</v>
+      </c>
+      <c r="I19">
+        <v>0.00123317</v>
+      </c>
+      <c r="J19">
+        <v>17741</v>
+      </c>
+      <c r="K19">
+        <v>1066</v>
+      </c>
+      <c r="L19">
+        <v>379</v>
+      </c>
+      <c r="M19">
+        <v>11754</v>
+      </c>
+      <c r="N19">
+        <v>197733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.05983654</v>
+      </c>
+      <c r="C20">
+        <v>0.00123614</v>
+      </c>
+      <c r="D20">
+        <v>0.0974489</v>
+      </c>
+      <c r="E20">
+        <v>0.00121967</v>
+      </c>
+      <c r="F20">
+        <v>0.80392814</v>
+      </c>
+      <c r="G20">
+        <v>0.01638236</v>
+      </c>
+      <c r="H20">
+        <v>0.02899833</v>
+      </c>
+      <c r="I20">
+        <v>0.00112888</v>
+      </c>
+      <c r="J20">
+        <v>18220</v>
+      </c>
+      <c r="K20">
+        <v>1084</v>
+      </c>
+      <c r="L20">
+        <v>345</v>
+      </c>
+      <c r="M20">
+        <v>12085</v>
+      </c>
+      <c r="N20">
+        <v>203798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.06028967</v>
+      </c>
+      <c r="C21">
+        <v>0.00103829</v>
+      </c>
+      <c r="D21">
+        <v>0.09783884</v>
+      </c>
+      <c r="E21">
+        <v>0.00117964</v>
+      </c>
+      <c r="F21">
+        <v>0.8132582900000001</v>
+      </c>
+      <c r="G21">
+        <v>0.01407914</v>
+      </c>
+      <c r="H21">
+        <v>0.03248931</v>
+      </c>
+      <c r="I21">
+        <v>0.0009927499999999999</v>
+      </c>
+      <c r="J21">
+        <v>18245</v>
+      </c>
+      <c r="K21">
+        <v>1103</v>
+      </c>
+      <c r="L21">
+        <v>388</v>
+      </c>
+      <c r="M21">
+        <v>12270</v>
+      </c>
+      <c r="N21">
+        <v>206360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.05991495</v>
+      </c>
+      <c r="C22">
+        <v>0.00103784</v>
+      </c>
+      <c r="D22">
+        <v>0.09724594</v>
+      </c>
+      <c r="E22">
+        <v>0.00115992</v>
+      </c>
+      <c r="F22">
+        <v>0.80331069</v>
+      </c>
+      <c r="G22">
+        <v>0.01392749</v>
+      </c>
+      <c r="H22">
+        <v>0.02901073</v>
+      </c>
+      <c r="I22">
+        <v>0.00091216</v>
+      </c>
+      <c r="J22">
+        <v>18220</v>
+      </c>
+      <c r="K22">
+        <v>1084</v>
+      </c>
+      <c r="L22">
+        <v>345</v>
+      </c>
+      <c r="M22">
+        <v>12085</v>
+      </c>
+      <c r="N22">
+        <v>204743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.07490122</v>
+      </c>
+      <c r="C23">
+        <v>0.00160574</v>
+      </c>
+      <c r="D23">
+        <v>0.17836133</v>
+      </c>
+      <c r="E23">
+        <v>0.00230771</v>
+      </c>
+      <c r="F23">
+        <v>1.84209335</v>
+      </c>
+      <c r="G23">
+        <v>0.03862256</v>
+      </c>
+      <c r="H23">
+        <v>0.05490848</v>
+      </c>
+      <c r="I23">
+        <v>0.0015696</v>
+      </c>
+      <c r="J23">
+        <v>11039</v>
+      </c>
+      <c r="K23">
+        <v>827</v>
+      </c>
+      <c r="L23">
+        <v>1210</v>
+      </c>
+      <c r="M23">
+        <v>22354</v>
+      </c>
+      <c r="N23">
+        <v>67067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.06362816</v>
+      </c>
+      <c r="C24">
+        <v>0.00215729</v>
+      </c>
+      <c r="D24">
+        <v>0.12061665</v>
+      </c>
+      <c r="E24">
+        <v>0.00183151</v>
+      </c>
+      <c r="F24">
+        <v>1.05854285</v>
+      </c>
+      <c r="G24">
+        <v>0.03457375</v>
+      </c>
+      <c r="H24">
+        <v>0.03562337</v>
+      </c>
+      <c r="I24">
+        <v>0.00130316</v>
+      </c>
+      <c r="J24">
+        <v>7976</v>
+      </c>
+      <c r="K24">
+        <v>491</v>
+      </c>
+      <c r="L24">
+        <v>2080</v>
+      </c>
+      <c r="M24">
+        <v>56814</v>
+      </c>
+      <c r="N24">
+        <v>69883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.1215596</v>
+      </c>
+      <c r="C25">
+        <v>0.00183066</v>
+      </c>
+      <c r="D25">
+        <v>0.35263106</v>
+      </c>
+      <c r="E25">
+        <v>0.00430447</v>
+      </c>
+      <c r="F25">
+        <v>5.90975761</v>
+      </c>
+      <c r="G25">
+        <v>0.09170296</v>
+      </c>
+      <c r="H25">
+        <v>0.10399723</v>
+      </c>
+      <c r="I25">
+        <v>0.00240363</v>
+      </c>
+      <c r="J25">
+        <v>37405</v>
+      </c>
+      <c r="K25">
+        <v>4574</v>
+      </c>
+      <c r="L25">
+        <v>6182</v>
+      </c>
+      <c r="M25">
+        <v>62854</v>
+      </c>
+      <c r="N25">
+        <v>120159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.05556513</v>
+      </c>
+      <c r="C26">
+        <v>0.00107415</v>
+      </c>
+      <c r="D26">
+        <v>0.06587759</v>
+      </c>
+      <c r="E26">
+        <v>0.00082744</v>
+      </c>
+      <c r="F26">
+        <v>0.5046261</v>
+      </c>
+      <c r="G26">
+        <v>0.009775809999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.02049271</v>
+      </c>
+      <c r="I26">
+        <v>0.0005667</v>
+      </c>
+      <c r="J26">
+        <v>36306</v>
+      </c>
+      <c r="K26">
+        <v>2020</v>
+      </c>
+      <c r="L26">
+        <v>10445</v>
+      </c>
+      <c r="M26">
+        <v>545153</v>
+      </c>
+      <c r="N26">
+        <v>622028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.05490155</v>
+      </c>
+      <c r="C27">
+        <v>0.00101423</v>
+      </c>
+      <c r="D27">
+        <v>0.05940912</v>
+      </c>
+      <c r="E27">
+        <v>0.0007193600000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.44966462</v>
+      </c>
+      <c r="G27">
+        <v>0.008301970000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.01731452</v>
+      </c>
+      <c r="I27">
+        <v>0.00040787</v>
+      </c>
+      <c r="J27">
+        <v>16872</v>
+      </c>
+      <c r="K27">
+        <v>915</v>
+      </c>
+      <c r="L27">
+        <v>2752</v>
+      </c>
+      <c r="M27">
+        <v>164612</v>
+      </c>
+      <c r="N27">
+        <v>312642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.11058337</v>
+      </c>
+      <c r="C28">
+        <v>0.00251514</v>
+      </c>
+      <c r="D28">
+        <v>0.32139429</v>
+      </c>
+      <c r="E28">
+        <v>0.004345</v>
+      </c>
+      <c r="F28">
+        <v>4.9013834</v>
+      </c>
+      <c r="G28">
+        <v>0.1081541</v>
+      </c>
+      <c r="H28">
+        <v>0.09430452</v>
+      </c>
+      <c r="I28">
+        <v>0.00317649</v>
+      </c>
+      <c r="J28">
+        <v>14320</v>
+      </c>
+      <c r="K28">
+        <v>1536</v>
+      </c>
+      <c r="L28">
+        <v>3477</v>
+      </c>
+      <c r="M28">
+        <v>36518</v>
+      </c>
+      <c r="N28">
+        <v>47436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.11446285</v>
+      </c>
+      <c r="C29">
+        <v>0.00242298</v>
+      </c>
+      <c r="D29">
+        <v>0.31895921</v>
+      </c>
+      <c r="E29">
+        <v>0.00438916</v>
+      </c>
+      <c r="F29">
+        <v>5.0343132</v>
+      </c>
+      <c r="G29">
+        <v>0.10671499</v>
+      </c>
+      <c r="H29">
+        <v>0.09551901</v>
+      </c>
+      <c r="I29">
+        <v>0.00350067</v>
+      </c>
+      <c r="J29">
+        <v>46403</v>
+      </c>
+      <c r="K29">
+        <v>5323</v>
+      </c>
+      <c r="L29">
+        <v>6256</v>
+      </c>
+      <c r="M29">
+        <v>71004</v>
+      </c>
+      <c r="N29">
+        <v>170639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.15219173</v>
+      </c>
+      <c r="C30">
+        <v>0.00690585</v>
+      </c>
+      <c r="D30">
+        <v>0.06729259</v>
+      </c>
+      <c r="E30">
+        <v>0.00162789</v>
+      </c>
+      <c r="F30">
+        <v>1.41188121</v>
+      </c>
+      <c r="G30">
+        <v>0.0579316</v>
+      </c>
+      <c r="H30">
+        <v>0.02059189</v>
+      </c>
+      <c r="I30">
+        <v>0.0006094</v>
+      </c>
+      <c r="J30">
+        <v>957</v>
+      </c>
+      <c r="K30">
+        <v>145</v>
+      </c>
+      <c r="L30">
+        <v>2438</v>
+      </c>
+      <c r="M30">
+        <v>125374</v>
+      </c>
+      <c r="N30">
+        <v>16158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.17591637</v>
+      </c>
+      <c r="C31">
+        <v>0.00396296</v>
+      </c>
+      <c r="D31">
+        <v>0.45337144</v>
+      </c>
+      <c r="E31">
+        <v>0.00615009</v>
+      </c>
+      <c r="F31">
+        <v>10.99534512</v>
+      </c>
+      <c r="G31">
+        <v>0.24225868</v>
+      </c>
+      <c r="H31">
+        <v>0.12764712</v>
+      </c>
+      <c r="I31">
+        <v>0.00517516</v>
+      </c>
+      <c r="J31">
+        <v>48904</v>
+      </c>
+      <c r="K31">
+        <v>8648</v>
+      </c>
+      <c r="L31">
+        <v>7925</v>
+      </c>
+      <c r="M31">
+        <v>63898</v>
+      </c>
+      <c r="N31">
+        <v>118906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.16680987</v>
+      </c>
+      <c r="C32">
+        <v>0.00282379</v>
+      </c>
+      <c r="D32">
+        <v>0.4367891</v>
+      </c>
+      <c r="E32">
+        <v>0.0053252</v>
+      </c>
+      <c r="F32">
+        <v>10.04393387</v>
+      </c>
+      <c r="G32">
+        <v>0.17152968</v>
+      </c>
+      <c r="H32">
+        <v>0.12116589</v>
+      </c>
+      <c r="I32">
+        <v>0.00359752</v>
+      </c>
+      <c r="J32">
+        <v>67017</v>
+      </c>
+      <c r="K32">
+        <v>11056</v>
+      </c>
+      <c r="L32">
+        <v>5560</v>
+      </c>
+      <c r="M32">
+        <v>48123</v>
+      </c>
+      <c r="N32">
+        <v>169924</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.05381548</v>
+      </c>
+      <c r="C33">
+        <v>0.00121821</v>
+      </c>
+      <c r="D33">
+        <v>0.05933176</v>
+      </c>
+      <c r="E33">
+        <v>0.00076229</v>
+      </c>
+      <c r="F33">
+        <v>0.44018677</v>
+      </c>
+      <c r="G33">
+        <v>0.009819690000000001</v>
+      </c>
+      <c r="H33">
+        <v>0.01854042</v>
+      </c>
+      <c r="I33">
+        <v>0.00054204</v>
+      </c>
+      <c r="J33">
+        <v>11737</v>
+      </c>
+      <c r="K33">
+        <v>622</v>
+      </c>
+      <c r="L33">
+        <v>2793</v>
+      </c>
+      <c r="M33">
+        <v>157587</v>
+      </c>
+      <c r="N33">
+        <v>218287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.05417064</v>
+      </c>
+      <c r="C34">
+        <v>0.00105498</v>
+      </c>
+      <c r="D34">
+        <v>0.06099826</v>
+      </c>
+      <c r="E34">
+        <v>0.00075086</v>
+      </c>
+      <c r="F34">
+        <v>0.45553297</v>
+      </c>
+      <c r="G34">
+        <v>0.008839</v>
+      </c>
+      <c r="H34">
+        <v>0.01934309</v>
+      </c>
+      <c r="I34">
+        <v>0.00057744</v>
+      </c>
+      <c r="J34">
+        <v>25672</v>
+      </c>
+      <c r="K34">
+        <v>1367</v>
+      </c>
+      <c r="L34">
+        <v>2999</v>
+      </c>
+      <c r="M34">
+        <v>162448</v>
+      </c>
+      <c r="N34">
+        <v>464004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.115052</v>
+      </c>
+      <c r="C35">
+        <v>0.0021263</v>
+      </c>
+      <c r="D35">
+        <v>0.33738092</v>
+      </c>
+      <c r="E35">
+        <v>0.00426294</v>
+      </c>
+      <c r="F35">
+        <v>5.35088062</v>
+      </c>
+      <c r="G35">
+        <v>0.09956656</v>
+      </c>
+      <c r="H35">
+        <v>0.09396574000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.00293873</v>
+      </c>
+      <c r="J35">
+        <v>44096</v>
+      </c>
+      <c r="K35">
+        <v>5018</v>
+      </c>
+      <c r="L35">
+        <v>12618</v>
+      </c>
+      <c r="M35">
+        <v>141598</v>
+      </c>
+      <c r="N35">
+        <v>147168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.11392029</v>
+      </c>
+      <c r="C36">
+        <v>0.00222018</v>
+      </c>
+      <c r="D36">
+        <v>0.33117929</v>
+      </c>
+      <c r="E36">
+        <v>0.00423431</v>
+      </c>
+      <c r="F36">
+        <v>5.20094395</v>
+      </c>
+      <c r="G36">
+        <v>0.10186438</v>
+      </c>
+      <c r="H36">
+        <v>0.09053271</v>
+      </c>
+      <c r="I36">
+        <v>0.00313807</v>
+      </c>
+      <c r="J36">
+        <v>90923</v>
+      </c>
+      <c r="K36">
+        <v>10226</v>
+      </c>
+      <c r="L36">
+        <v>17545</v>
+      </c>
+      <c r="M36">
+        <v>206338</v>
+      </c>
+      <c r="N36">
+        <v>311623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.21313961</v>
+      </c>
+      <c r="C37">
+        <v>0.00370454</v>
+      </c>
+      <c r="D37">
+        <v>0.55079246</v>
+      </c>
+      <c r="E37">
+        <v>0.00667998</v>
+      </c>
+      <c r="F37">
+        <v>16.18409538</v>
+      </c>
+      <c r="G37">
+        <v>0.28299115</v>
+      </c>
+      <c r="H37">
+        <v>0.15494223</v>
+      </c>
+      <c r="I37">
+        <v>0.00481573</v>
+      </c>
+      <c r="J37">
+        <v>70813</v>
+      </c>
+      <c r="K37">
+        <v>14716</v>
+      </c>
+      <c r="L37">
+        <v>6287</v>
+      </c>
+      <c r="M37">
+        <v>42661</v>
+      </c>
+      <c r="N37">
+        <v>141329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.17071074</v>
+      </c>
+      <c r="C38">
+        <v>0.00319185</v>
+      </c>
+      <c r="D38">
+        <v>0.33106613</v>
+      </c>
+      <c r="E38">
+        <v>0.0040919</v>
+      </c>
+      <c r="F38">
+        <v>7.79119396</v>
+      </c>
+      <c r="G38">
+        <v>0.14631231</v>
+      </c>
+      <c r="H38">
+        <v>0.07913195000000001</v>
+      </c>
+      <c r="I38">
+        <v>0.00272143</v>
+      </c>
+      <c r="J38">
+        <v>199039</v>
+      </c>
+      <c r="K38">
+        <v>33247</v>
+      </c>
+      <c r="L38">
+        <v>14147</v>
+      </c>
+      <c r="M38">
+        <v>190009</v>
+      </c>
+      <c r="N38">
+        <v>668357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.05991508</v>
+      </c>
+      <c r="C39">
+        <v>0.00127101</v>
+      </c>
+      <c r="D39">
+        <v>0.09794469</v>
+      </c>
+      <c r="E39">
+        <v>0.00123767</v>
+      </c>
+      <c r="F39">
+        <v>0.80903924</v>
+      </c>
+      <c r="G39">
+        <v>0.01698432</v>
+      </c>
+      <c r="H39">
+        <v>0.03175987</v>
+      </c>
+      <c r="I39">
+        <v>0.00127495</v>
+      </c>
+      <c r="J39">
+        <v>17509</v>
+      </c>
+      <c r="K39">
+        <v>1021</v>
+      </c>
+      <c r="L39">
+        <v>349</v>
+      </c>
+      <c r="M39">
+        <v>11631</v>
+      </c>
+      <c r="N39">
+        <v>196435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.06031692</v>
+      </c>
+      <c r="C40">
+        <v>0.00129249</v>
+      </c>
+      <c r="D40">
+        <v>0.09735291</v>
+      </c>
+      <c r="E40">
+        <v>0.00123456</v>
+      </c>
+      <c r="F40">
+        <v>0.8095541000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.0171609</v>
+      </c>
+      <c r="H40">
+        <v>0.0299046</v>
+      </c>
+      <c r="I40">
+        <v>0.00123094</v>
+      </c>
+      <c r="J40">
+        <v>18149</v>
+      </c>
+      <c r="K40">
+        <v>1065</v>
+      </c>
+      <c r="L40">
+        <v>338</v>
+      </c>
+      <c r="M40">
+        <v>12008</v>
+      </c>
+      <c r="N40">
+        <v>204933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>0.05963452</v>
+      </c>
+      <c r="C41">
+        <v>0.00107101</v>
+      </c>
+      <c r="D41">
+        <v>0.09795207</v>
+      </c>
+      <c r="E41">
+        <v>0.00118215</v>
+      </c>
+      <c r="F41">
+        <v>0.80527788</v>
+      </c>
+      <c r="G41">
+        <v>0.01450291</v>
+      </c>
+      <c r="H41">
+        <v>0.03159827</v>
+      </c>
+      <c r="I41">
+        <v>0.00101091</v>
+      </c>
+      <c r="J41">
+        <v>17750</v>
+      </c>
+      <c r="K41">
+        <v>1028</v>
+      </c>
+      <c r="L41">
+        <v>353</v>
+      </c>
+      <c r="M41">
+        <v>11786</v>
+      </c>
+      <c r="N41">
+        <v>199439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>0.06020008</v>
+      </c>
+      <c r="C42">
+        <v>0.00105454</v>
+      </c>
+      <c r="D42">
+        <v>0.09724117</v>
+      </c>
+      <c r="E42">
+        <v>0.00116506</v>
+      </c>
+      <c r="F42">
+        <v>0.8070664400000001</v>
+      </c>
+      <c r="G42">
+        <v>0.01419273</v>
+      </c>
+      <c r="H42">
+        <v>0.02995238</v>
+      </c>
+      <c r="I42">
+        <v>0.0009481099999999999</v>
+      </c>
+      <c r="J42">
+        <v>18149</v>
+      </c>
+      <c r="K42">
+        <v>1065</v>
+      </c>
+      <c r="L42">
+        <v>341</v>
+      </c>
+      <c r="M42">
+        <v>12003</v>
+      </c>
+      <c r="N42">
+        <v>204933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>0.07681286</v>
+      </c>
+      <c r="C43">
+        <v>0.0014987</v>
+      </c>
+      <c r="D43">
+        <v>0.1784407</v>
+      </c>
+      <c r="E43">
+        <v>0.00227169</v>
+      </c>
+      <c r="F43">
+        <v>1.88966274</v>
+      </c>
+      <c r="G43">
+        <v>0.03664477</v>
+      </c>
+      <c r="H43">
+        <v>0.05469348</v>
+      </c>
+      <c r="I43">
+        <v>0.00142417</v>
+      </c>
+      <c r="J43">
+        <v>12313</v>
+      </c>
+      <c r="K43">
+        <v>925</v>
+      </c>
+      <c r="L43">
+        <v>1328</v>
+      </c>
+      <c r="M43">
+        <v>25754</v>
+      </c>
+      <c r="N43">
+        <v>76651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>0.16330543</v>
+      </c>
+      <c r="C44">
+        <v>0.00231793</v>
+      </c>
+      <c r="D44">
+        <v>0.44766384</v>
+      </c>
+      <c r="E44">
+        <v>0.0052936</v>
+      </c>
+      <c r="F44">
+        <v>10.07809448</v>
+      </c>
+      <c r="G44">
+        <v>0.14951037</v>
+      </c>
+      <c r="H44">
+        <v>0.12633729</v>
+      </c>
+      <c r="I44">
+        <v>0.0030079</v>
+      </c>
+      <c r="J44">
+        <v>252104</v>
+      </c>
+      <c r="K44">
+        <v>40477</v>
+      </c>
+      <c r="L44">
+        <v>5320</v>
+      </c>
+      <c r="M44">
+        <v>44482</v>
+      </c>
+      <c r="N44">
+        <v>635513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>0.12058843</v>
+      </c>
+      <c r="C45">
+        <v>0.00254442</v>
+      </c>
+      <c r="D45">
+        <v>0.37480021</v>
+      </c>
+      <c r="E45">
+        <v>0.00523004</v>
+      </c>
+      <c r="F45">
+        <v>6.23340034</v>
+      </c>
+      <c r="G45">
+        <v>0.13236764</v>
+      </c>
+      <c r="H45">
+        <v>0.10360395</v>
+      </c>
+      <c r="I45">
+        <v>0.00359562</v>
+      </c>
+      <c r="J45">
+        <v>48985</v>
+      </c>
+      <c r="K45">
+        <v>5838</v>
+      </c>
+      <c r="L45">
+        <v>15817</v>
+      </c>
+      <c r="M45">
+        <v>168499</v>
+      </c>
+      <c r="N45">
+        <v>155015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>0.12883869</v>
+      </c>
+      <c r="C46">
+        <v>0.00307945</v>
+      </c>
+      <c r="D46">
+        <v>0.2142458</v>
+      </c>
+      <c r="E46">
+        <v>0.00301393</v>
+      </c>
+      <c r="F46">
+        <v>3.80529809</v>
+      </c>
+      <c r="G46">
+        <v>0.08994521</v>
+      </c>
+      <c r="H46">
+        <v>0.03826614</v>
+      </c>
+      <c r="I46">
+        <v>0.0016692</v>
+      </c>
+      <c r="J46">
+        <v>88695</v>
+      </c>
+      <c r="K46">
+        <v>11150</v>
+      </c>
+      <c r="L46">
+        <v>13557</v>
+      </c>
+      <c r="M46">
+        <v>392935</v>
+      </c>
+      <c r="N46">
+        <v>479465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>0.12299637</v>
+      </c>
+      <c r="C47">
+        <v>0.00248782</v>
+      </c>
+      <c r="D47">
+        <v>0.32631573</v>
+      </c>
+      <c r="E47">
+        <v>0.00443783</v>
+      </c>
+      <c r="F47">
+        <v>5.53642273</v>
+      </c>
+      <c r="G47">
+        <v>0.11392299</v>
+      </c>
+      <c r="H47">
+        <v>0.06686316</v>
+      </c>
+      <c r="I47">
+        <v>0.00242398</v>
+      </c>
+      <c r="J47">
+        <v>163647</v>
+      </c>
+      <c r="K47">
+        <v>20018</v>
+      </c>
+      <c r="L47">
+        <v>18318</v>
+      </c>
+      <c r="M47">
+        <v>294284</v>
+      </c>
+      <c r="N47">
+        <v>603373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>0.13268897</v>
+      </c>
+      <c r="C48">
+        <v>0.00203862</v>
+      </c>
+      <c r="D48">
+        <v>0.36655265</v>
+      </c>
+      <c r="E48">
+        <v>0.00436533</v>
+      </c>
+      <c r="F48">
+        <v>6.70519447</v>
+      </c>
+      <c r="G48">
+        <v>0.10564994</v>
+      </c>
+      <c r="H48">
+        <v>0.10819405</v>
+      </c>
+      <c r="I48">
+        <v>0.00278888</v>
+      </c>
+      <c r="J48">
+        <v>115047</v>
+      </c>
+      <c r="K48">
+        <v>14986</v>
+      </c>
+      <c r="L48">
+        <v>8858</v>
+      </c>
+      <c r="M48">
+        <v>87138</v>
+      </c>
+      <c r="N48">
+        <v>349970</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>0.17493497</v>
+      </c>
+      <c r="C49">
+        <v>0.00265133</v>
+      </c>
+      <c r="D49">
+        <v>0.46346131</v>
+      </c>
+      <c r="E49">
+        <v>0.0054994</v>
+      </c>
+      <c r="F49">
+        <v>11.17781162</v>
+      </c>
+      <c r="G49">
+        <v>0.17249794</v>
+      </c>
+      <c r="H49">
+        <v>0.11932084</v>
+      </c>
+      <c r="I49">
+        <v>0.00290802</v>
+      </c>
+      <c r="J49">
+        <v>41135</v>
+      </c>
+      <c r="K49">
+        <v>7032</v>
+      </c>
+      <c r="L49">
+        <v>6332</v>
+      </c>
+      <c r="M49">
+        <v>56315</v>
+      </c>
+      <c r="N49">
+        <v>97458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>0.06117366</v>
+      </c>
+      <c r="C50">
+        <v>0.00142755</v>
+      </c>
+      <c r="D50">
+        <v>0.0703655</v>
+      </c>
+      <c r="E50">
+        <v>0.00093133</v>
+      </c>
+      <c r="F50">
+        <v>0.59342778</v>
+      </c>
+      <c r="G50">
+        <v>0.01362257</v>
+      </c>
+      <c r="H50">
+        <v>0.0242704</v>
+      </c>
+      <c r="I50">
+        <v>0.00068381</v>
+      </c>
+      <c r="J50">
+        <v>10377</v>
+      </c>
+      <c r="K50">
+        <v>623</v>
+      </c>
+      <c r="L50">
+        <v>3234</v>
+      </c>
+      <c r="M50">
+        <v>141918</v>
+      </c>
+      <c r="N50">
+        <v>164693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>0.05962247</v>
+      </c>
+      <c r="C51">
+        <v>0.00132273</v>
+      </c>
+      <c r="D51">
+        <v>0.07970360999999999</v>
+      </c>
+      <c r="E51">
+        <v>0.00102589</v>
+      </c>
+      <c r="F51">
+        <v>0.65515471</v>
+      </c>
+      <c r="G51">
+        <v>0.01432324</v>
+      </c>
+      <c r="H51">
+        <v>0.0248712</v>
+      </c>
+      <c r="I51">
+        <v>0.0006717</v>
+      </c>
+      <c r="J51">
+        <v>9656</v>
+      </c>
+      <c r="K51">
+        <v>562</v>
+      </c>
+      <c r="L51">
+        <v>2670</v>
+      </c>
+      <c r="M51">
+        <v>114186</v>
+      </c>
+      <c r="N51">
+        <v>133781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>0.11680959</v>
+      </c>
+      <c r="C52">
+        <v>0.00271675</v>
+      </c>
+      <c r="D52">
+        <v>0.33444476</v>
+      </c>
+      <c r="E52">
+        <v>0.00468941</v>
+      </c>
+      <c r="F52">
+        <v>5.38571978</v>
+      </c>
+      <c r="G52">
+        <v>0.12358516</v>
+      </c>
+      <c r="H52">
+        <v>0.0851449</v>
+      </c>
+      <c r="I52">
+        <v>0.00339514</v>
+      </c>
+      <c r="J52">
+        <v>31803</v>
+      </c>
+      <c r="K52">
+        <v>3641</v>
+      </c>
+      <c r="L52">
+        <v>6054</v>
+      </c>
+      <c r="M52">
+        <v>77537</v>
+      </c>
+      <c r="N52">
+        <v>108553</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>0.07178279</v>
+      </c>
+      <c r="C53">
+        <v>0.0017252</v>
+      </c>
+      <c r="D53">
+        <v>0.0747181</v>
+      </c>
+      <c r="E53">
+        <v>0.00104357</v>
+      </c>
+      <c r="F53">
+        <v>0.73946917</v>
+      </c>
+      <c r="G53">
+        <v>0.01756333</v>
+      </c>
+      <c r="H53">
+        <v>0.02106762</v>
+      </c>
+      <c r="I53">
+        <v>0.00074356</v>
+      </c>
+      <c r="J53">
+        <v>20573</v>
+      </c>
+      <c r="K53">
+        <v>1461</v>
+      </c>
+      <c r="L53">
+        <v>6345</v>
+      </c>
+      <c r="M53">
+        <v>322902</v>
+      </c>
+      <c r="N53">
+        <v>321463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>0.11659816</v>
+      </c>
+      <c r="C54">
+        <v>0.00198302</v>
+      </c>
+      <c r="D54">
+        <v>0.3374851</v>
+      </c>
+      <c r="E54">
+        <v>0.00409315</v>
+      </c>
+      <c r="F54">
+        <v>5.42515659</v>
+      </c>
+      <c r="G54">
+        <v>0.09269689</v>
+      </c>
+      <c r="H54">
+        <v>0.09958141</v>
+      </c>
+      <c r="I54">
+        <v>0.00281751</v>
+      </c>
+      <c r="J54">
+        <v>33430</v>
+      </c>
+      <c r="K54">
+        <v>3816</v>
+      </c>
+      <c r="L54">
+        <v>4963</v>
+      </c>
+      <c r="M54">
+        <v>53119</v>
+      </c>
+      <c r="N54">
+        <v>108810</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>0.11466347</v>
+      </c>
+      <c r="C55">
+        <v>0.00258814</v>
+      </c>
+      <c r="D55">
+        <v>0.32545274</v>
+      </c>
+      <c r="E55">
+        <v>0.00454564</v>
+      </c>
+      <c r="F55">
+        <v>5.14422464</v>
+      </c>
+      <c r="G55">
+        <v>0.11600349</v>
+      </c>
+      <c r="H55">
+        <v>0.08539285000000001</v>
+      </c>
+      <c r="I55">
+        <v>0.00350633</v>
+      </c>
+      <c r="J55">
+        <v>72520</v>
+      </c>
+      <c r="K55">
+        <v>8295</v>
+      </c>
+      <c r="L55">
+        <v>9386</v>
+      </c>
+      <c r="M55">
+        <v>117272</v>
+      </c>
+      <c r="N55">
+        <v>263975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>0.09473076</v>
+      </c>
+      <c r="C56">
+        <v>0.00321679</v>
+      </c>
+      <c r="D56">
+        <v>0.07798088</v>
+      </c>
+      <c r="E56">
+        <v>0.0013203</v>
+      </c>
+      <c r="F56">
+        <v>1.01842105</v>
+      </c>
+      <c r="G56">
+        <v>0.03297507</v>
+      </c>
+      <c r="H56">
+        <v>0.02422056</v>
+      </c>
+      <c r="I56">
+        <v>0.0009775000000000001</v>
+      </c>
+      <c r="J56">
+        <v>5304</v>
+      </c>
+      <c r="K56">
+        <v>493</v>
+      </c>
+      <c r="L56">
+        <v>11386</v>
+      </c>
+      <c r="M56">
+        <v>508278</v>
+      </c>
+      <c r="N56">
+        <v>77389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>0.06669851</v>
+      </c>
+      <c r="C57">
+        <v>0.00156113</v>
+      </c>
+      <c r="D57">
+        <v>0.13605298</v>
+      </c>
+      <c r="E57">
+        <v>0.00182421</v>
+      </c>
+      <c r="F57">
+        <v>1.25107896</v>
+      </c>
+      <c r="G57">
+        <v>0.02884082</v>
+      </c>
+      <c r="H57">
+        <v>0.04242052</v>
+      </c>
+      <c r="I57">
+        <v>0.0015424</v>
+      </c>
+      <c r="J57">
+        <v>14762</v>
+      </c>
+      <c r="K57">
+        <v>966</v>
+      </c>
+      <c r="L57">
+        <v>1719</v>
+      </c>
+      <c r="M57">
+        <v>43335</v>
+      </c>
+      <c r="N57">
+        <v>121549</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>0.05632528</v>
+      </c>
+      <c r="C58">
+        <v>0.00120608</v>
+      </c>
+      <c r="D58">
+        <v>0.08072696</v>
+      </c>
+      <c r="E58">
+        <v>0.00103923</v>
+      </c>
+      <c r="F58">
+        <v>0.62688375</v>
+      </c>
+      <c r="G58">
+        <v>0.0133345</v>
+      </c>
+      <c r="H58">
+        <v>0.02558704</v>
+      </c>
+      <c r="I58">
+        <v>0.00091409</v>
+      </c>
+      <c r="J58">
+        <v>30997</v>
+      </c>
+      <c r="K58">
+        <v>1718</v>
+      </c>
+      <c r="L58">
+        <v>3527</v>
+      </c>
+      <c r="M58">
+        <v>147652</v>
+      </c>
+      <c r="N58">
+        <v>430036</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>0.06006344</v>
+      </c>
+      <c r="C59">
+        <v>0.00127474</v>
+      </c>
+      <c r="D59">
+        <v>0.0977174</v>
+      </c>
+      <c r="E59">
+        <v>0.00124027</v>
+      </c>
+      <c r="F59">
+        <v>0.8091839</v>
+      </c>
+      <c r="G59">
+        <v>0.01696362</v>
+      </c>
+      <c r="H59">
+        <v>0.03195508</v>
+      </c>
+      <c r="I59">
+        <v>0.00129572</v>
+      </c>
+      <c r="J59">
+        <v>16638</v>
+      </c>
+      <c r="K59">
+        <v>981</v>
+      </c>
+      <c r="L59">
+        <v>328</v>
+      </c>
+      <c r="M59">
+        <v>11012</v>
+      </c>
+      <c r="N59">
+        <v>187364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>0.06023676</v>
+      </c>
+      <c r="C60">
+        <v>0.00129172</v>
+      </c>
+      <c r="D60">
+        <v>0.09751479</v>
+      </c>
+      <c r="E60">
+        <v>0.00124158</v>
+      </c>
+      <c r="F60">
+        <v>0.80983448</v>
+      </c>
+      <c r="G60">
+        <v>0.01714048</v>
+      </c>
+      <c r="H60">
+        <v>0.02978652</v>
+      </c>
+      <c r="I60">
+        <v>0.00123464</v>
+      </c>
+      <c r="J60">
+        <v>17168</v>
+      </c>
+      <c r="K60">
+        <v>1014</v>
+      </c>
+      <c r="L60">
+        <v>319</v>
+      </c>
+      <c r="M60">
+        <v>11506</v>
+      </c>
+      <c r="N60">
+        <v>193700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>0.06023009</v>
+      </c>
+      <c r="C61">
+        <v>0.001083</v>
+      </c>
+      <c r="D61">
+        <v>0.09768652</v>
+      </c>
+      <c r="E61">
+        <v>0.001179</v>
+      </c>
+      <c r="F61">
+        <v>0.81117648</v>
+      </c>
+      <c r="G61">
+        <v>0.01459117</v>
+      </c>
+      <c r="H61">
+        <v>0.0319346</v>
+      </c>
+      <c r="I61">
+        <v>0.00104124</v>
+      </c>
+      <c r="J61">
+        <v>16569</v>
+      </c>
+      <c r="K61">
+        <v>978</v>
+      </c>
+      <c r="L61">
+        <v>327</v>
+      </c>
+      <c r="M61">
+        <v>10932</v>
+      </c>
+      <c r="N61">
+        <v>186189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>0.06023022</v>
+      </c>
+      <c r="C62">
+        <v>0.00106811</v>
+      </c>
+      <c r="D62">
+        <v>0.09756062</v>
+      </c>
+      <c r="E62">
+        <v>0.00117632</v>
+      </c>
+      <c r="F62">
+        <v>0.81013072</v>
+      </c>
+      <c r="G62">
+        <v>0.01440507</v>
+      </c>
+      <c r="H62">
+        <v>0.02963333</v>
+      </c>
+      <c r="I62">
+        <v>0.00096207</v>
+      </c>
+      <c r="J62">
+        <v>17168</v>
+      </c>
+      <c r="K62">
+        <v>1014</v>
+      </c>
+      <c r="L62">
+        <v>319</v>
+      </c>
+      <c r="M62">
+        <v>11506</v>
+      </c>
+      <c r="N62">
+        <v>193700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63">
+        <v>0.07588055</v>
+      </c>
+      <c r="C63">
+        <v>0.00151692</v>
+      </c>
+      <c r="D63">
+        <v>0.17756175</v>
+      </c>
+      <c r="E63">
+        <v>0.0022882</v>
+      </c>
+      <c r="F63">
+        <v>1.85756671</v>
+      </c>
+      <c r="G63">
+        <v>0.03684847</v>
+      </c>
+      <c r="H63">
+        <v>0.05509407</v>
+      </c>
+      <c r="I63">
+        <v>0.00147119</v>
+      </c>
+      <c r="J63">
+        <v>11709</v>
+      </c>
+      <c r="K63">
+        <v>877</v>
+      </c>
+      <c r="L63">
+        <v>1267</v>
+      </c>
+      <c r="M63">
+        <v>24569</v>
+      </c>
+      <c r="N63">
+        <v>73623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64">
+        <v>0.05591814</v>
+      </c>
+      <c r="C64">
+        <v>0.00136867</v>
+      </c>
+      <c r="D64">
+        <v>0.06089099</v>
+      </c>
+      <c r="E64">
+        <v>0.00081047</v>
+      </c>
+      <c r="F64">
+        <v>0.46942955</v>
+      </c>
+      <c r="G64">
+        <v>0.01127488</v>
+      </c>
+      <c r="H64">
+        <v>0.02044878</v>
+      </c>
+      <c r="I64">
+        <v>0.00053818</v>
+      </c>
+      <c r="J64">
+        <v>8027</v>
+      </c>
+      <c r="K64">
+        <v>443</v>
+      </c>
+      <c r="L64">
+        <v>1538</v>
+      </c>
+      <c r="M64">
+        <v>80469</v>
+      </c>
+      <c r="N64">
+        <v>146936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>0.11247832</v>
+      </c>
+      <c r="C65">
+        <v>0.00166892</v>
+      </c>
+      <c r="D65">
+        <v>0.3338429</v>
+      </c>
+      <c r="E65">
+        <v>0.00393533</v>
+      </c>
+      <c r="F65">
+        <v>5.17700768</v>
+      </c>
+      <c r="G65">
+        <v>0.07851086</v>
+      </c>
+      <c r="H65">
+        <v>0.09503457999999999</v>
+      </c>
+      <c r="I65">
+        <v>0.00214415</v>
+      </c>
+      <c r="J65">
+        <v>39193</v>
+      </c>
+      <c r="K65">
+        <v>4332</v>
+      </c>
+      <c r="L65">
+        <v>5654</v>
+      </c>
+      <c r="M65">
+        <v>63359</v>
+      </c>
+      <c r="N65">
+        <v>129292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>0.11168011</v>
+      </c>
+      <c r="C66">
+        <v>0.00363021</v>
+      </c>
+      <c r="D66">
+        <v>0.33359912</v>
+      </c>
+      <c r="E66">
+        <v>0.00609949</v>
+      </c>
+      <c r="F66">
+        <v>5.13700056</v>
+      </c>
+      <c r="G66">
+        <v>0.16063486</v>
+      </c>
+      <c r="H66">
+        <v>0.08542246000000001</v>
+      </c>
+      <c r="I66">
+        <v>0.00349935</v>
+      </c>
+      <c r="J66">
+        <v>8756</v>
+      </c>
+      <c r="K66">
+        <v>983</v>
+      </c>
+      <c r="L66">
+        <v>2180</v>
+      </c>
+      <c r="M66">
+        <v>26697</v>
+      </c>
+      <c r="N66">
+        <v>31391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67">
+        <v>0.18385829</v>
+      </c>
+      <c r="C67">
+        <v>0.00458575</v>
+      </c>
+      <c r="D67">
+        <v>0.51385707</v>
+      </c>
+      <c r="E67">
+        <v>0.0081776</v>
+      </c>
+      <c r="F67">
+        <v>13.02418423</v>
+      </c>
+      <c r="G67">
+        <v>0.31324014</v>
+      </c>
+      <c r="H67">
+        <v>0.13973019</v>
+      </c>
+      <c r="I67">
+        <v>0.00498043</v>
+      </c>
+      <c r="J67">
+        <v>8225</v>
+      </c>
+      <c r="K67">
+        <v>1493</v>
+      </c>
+      <c r="L67">
+        <v>6174</v>
+      </c>
+      <c r="M67">
+        <v>46237</v>
+      </c>
+      <c r="N67">
+        <v>17314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>0.11540873</v>
+      </c>
+      <c r="C68">
+        <v>0.00188057</v>
+      </c>
+      <c r="D68">
+        <v>0.33280069</v>
+      </c>
+      <c r="E68">
+        <v>0.00405957</v>
+      </c>
+      <c r="F68">
+        <v>5.2953105</v>
+      </c>
+      <c r="G68">
+        <v>0.08701488</v>
+      </c>
+      <c r="H68">
+        <v>0.09952312000000001</v>
+      </c>
+      <c r="I68">
+        <v>0.0023465</v>
+      </c>
+      <c r="J68">
+        <v>19693</v>
+      </c>
+      <c r="K68">
+        <v>2236</v>
+      </c>
+      <c r="L68">
+        <v>6690</v>
+      </c>
+      <c r="M68">
+        <v>71346</v>
+      </c>
+      <c r="N68">
+        <v>65233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>0.05713838</v>
+      </c>
+      <c r="C69">
+        <v>0.00162037</v>
+      </c>
+      <c r="D69">
+        <v>0.08036897</v>
+      </c>
+      <c r="E69">
+        <v>0.00113167</v>
+      </c>
+      <c r="F69">
+        <v>0.63304847</v>
+      </c>
+      <c r="G69">
+        <v>0.01747628</v>
+      </c>
+      <c r="H69">
+        <v>0.0264909</v>
+      </c>
+      <c r="I69">
+        <v>0.00113653</v>
+      </c>
+      <c r="J69">
+        <v>25848</v>
+      </c>
+      <c r="K69">
+        <v>1435</v>
+      </c>
+      <c r="L69">
+        <v>5461</v>
+      </c>
+      <c r="M69">
+        <v>219352</v>
+      </c>
+      <c r="N69">
+        <v>352706</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>0.11511456</v>
+      </c>
+      <c r="C70">
+        <v>0.00178306</v>
+      </c>
+      <c r="D70">
+        <v>0.33271149</v>
+      </c>
+      <c r="E70">
+        <v>0.00394848</v>
+      </c>
+      <c r="F70">
+        <v>5.28034306</v>
+      </c>
+      <c r="G70">
+        <v>0.08356901999999999</v>
+      </c>
+      <c r="H70">
+        <v>0.09435288</v>
+      </c>
+      <c r="I70">
+        <v>0.00243705</v>
+      </c>
+      <c r="J70">
+        <v>140014</v>
+      </c>
+      <c r="K70">
+        <v>15871</v>
+      </c>
+      <c r="L70">
+        <v>16767</v>
+      </c>
+      <c r="M70">
+        <v>188077</v>
+      </c>
+      <c r="N70">
+        <v>467969</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71">
+        <v>0.1514342</v>
+      </c>
+      <c r="C71">
+        <v>0.00421755</v>
+      </c>
+      <c r="D71">
+        <v>0.42633954</v>
+      </c>
+      <c r="E71">
+        <v>0.00659065</v>
+      </c>
+      <c r="F71">
+        <v>8.9004879</v>
+      </c>
+      <c r="G71">
+        <v>0.24280446</v>
+      </c>
+      <c r="H71">
+        <v>0.10002673</v>
+      </c>
+      <c r="I71">
+        <v>0.00511662</v>
+      </c>
+      <c r="J71">
+        <v>196596</v>
+      </c>
+      <c r="K71">
+        <v>30087</v>
+      </c>
+      <c r="L71">
+        <v>41158</v>
+      </c>
+      <c r="M71">
+        <v>408923</v>
+      </c>
+      <c r="N71">
+        <v>568883</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <v>0.06818251</v>
+      </c>
+      <c r="C72">
+        <v>0.00187624</v>
+      </c>
+      <c r="D72">
+        <v>0.09997316000000001</v>
+      </c>
+      <c r="E72">
+        <v>0.0014835</v>
+      </c>
+      <c r="F72">
+        <v>0.93976551</v>
+      </c>
+      <c r="G72">
+        <v>0.02525483</v>
+      </c>
+      <c r="H72">
+        <v>0.02738062</v>
+      </c>
+      <c r="I72">
+        <v>0.00115137</v>
+      </c>
+      <c r="J72">
+        <v>35070</v>
+      </c>
+      <c r="K72">
+        <v>2385</v>
+      </c>
+      <c r="L72">
+        <v>9855</v>
+      </c>
+      <c r="M72">
+        <v>367488</v>
+      </c>
+      <c r="N72">
+        <v>418174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73">
+        <v>0.05497244</v>
+      </c>
+      <c r="C73">
+        <v>0.00209712</v>
+      </c>
+      <c r="D73">
+        <v>0.05948197</v>
+      </c>
+      <c r="E73">
+        <v>0.00100209</v>
+      </c>
+      <c r="F73">
+        <v>0.45080668</v>
+      </c>
+      <c r="G73">
+        <v>0.01659399</v>
+      </c>
+      <c r="H73">
+        <v>0.01779495</v>
+      </c>
+      <c r="I73">
+        <v>0.0007722300000000001</v>
+      </c>
+      <c r="J73">
+        <v>10588</v>
+      </c>
+      <c r="K73">
+        <v>583</v>
+      </c>
+      <c r="L73">
+        <v>4259</v>
+      </c>
+      <c r="M73">
+        <v>247701</v>
+      </c>
+      <c r="N73">
+        <v>210067</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74">
+        <v>0.05383626</v>
+      </c>
+      <c r="C74">
+        <v>0.00190171</v>
+      </c>
+      <c r="D74">
+        <v>0.0563283</v>
+      </c>
+      <c r="E74">
+        <v>0.00090754</v>
+      </c>
+      <c r="F74">
+        <v>0.41807088</v>
+      </c>
+      <c r="G74">
+        <v>0.01427143</v>
+      </c>
+      <c r="H74">
+        <v>0.01376718</v>
+      </c>
+      <c r="I74">
+        <v>0.00061244</v>
+      </c>
+      <c r="J74">
+        <v>14408</v>
+      </c>
+      <c r="K74">
+        <v>775</v>
+      </c>
+      <c r="L74">
+        <v>4855</v>
+      </c>
+      <c r="M74">
+        <v>364876</v>
+      </c>
+      <c r="N74">
+        <v>301068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75">
+        <v>0.17937024</v>
+      </c>
+      <c r="C75">
+        <v>0.00437771</v>
+      </c>
+      <c r="D75">
+        <v>0.48978382</v>
+      </c>
+      <c r="E75">
+        <v>0.00712275</v>
+      </c>
+      <c r="F75">
+        <v>12.11128712</v>
+      </c>
+      <c r="G75">
+        <v>0.28901926</v>
+      </c>
+      <c r="H75">
+        <v>0.12799101</v>
+      </c>
+      <c r="I75">
+        <v>0.00559951</v>
+      </c>
+      <c r="J75">
+        <v>53662</v>
+      </c>
+      <c r="K75">
+        <v>9619</v>
+      </c>
+      <c r="L75">
+        <v>14038</v>
+      </c>
+      <c r="M75">
+        <v>113850</v>
+      </c>
+      <c r="N75">
+        <v>128890</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76">
+        <v>0.12159556</v>
+      </c>
+      <c r="C76">
+        <v>0.00269646</v>
+      </c>
+      <c r="D76">
+        <v>0.34821829</v>
+      </c>
+      <c r="E76">
+        <v>0.00468153</v>
+      </c>
+      <c r="F76">
+        <v>5.83740377</v>
+      </c>
+      <c r="G76">
+        <v>0.12754891</v>
+      </c>
+      <c r="H76">
+        <v>0.1039528</v>
+      </c>
+      <c r="I76">
+        <v>0.00412887</v>
+      </c>
+      <c r="J76">
+        <v>47405</v>
+      </c>
+      <c r="K76">
+        <v>5682</v>
+      </c>
+      <c r="L76">
+        <v>11583</v>
+      </c>
+      <c r="M76">
+        <v>121071</v>
+      </c>
+      <c r="N76">
+        <v>153510</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77">
+        <v>0.05693299</v>
+      </c>
+      <c r="C77">
+        <v>0.00162462</v>
+      </c>
+      <c r="D77">
+        <v>0.08152818000000001</v>
+      </c>
+      <c r="E77">
+        <v>0.00115814</v>
+      </c>
+      <c r="F77">
+        <v>0.63992387</v>
+      </c>
+      <c r="G77">
+        <v>0.01776151</v>
+      </c>
+      <c r="H77">
+        <v>0.0265804</v>
+      </c>
+      <c r="I77">
+        <v>0.00100172</v>
+      </c>
+      <c r="J77">
+        <v>7637</v>
+      </c>
+      <c r="K77">
+        <v>428</v>
+      </c>
+      <c r="L77">
+        <v>934</v>
+      </c>
+      <c r="M77">
+        <v>37492</v>
+      </c>
+      <c r="N77">
+        <v>104339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78">
+        <v>0.1159955</v>
+      </c>
+      <c r="C78">
+        <v>0.00269918</v>
+      </c>
+      <c r="D78">
+        <v>0.34151149</v>
+      </c>
+      <c r="E78">
+        <v>0.00478169</v>
+      </c>
+      <c r="F78">
+        <v>5.46056604</v>
+      </c>
+      <c r="G78">
+        <v>0.12470795</v>
+      </c>
+      <c r="H78">
+        <v>0.09774176</v>
+      </c>
+      <c r="I78">
+        <v>0.00396447</v>
+      </c>
+      <c r="J78">
+        <v>32877</v>
+      </c>
+      <c r="K78">
+        <v>3790</v>
+      </c>
+      <c r="L78">
+        <v>4374</v>
+      </c>
+      <c r="M78">
+        <v>46638</v>
+      </c>
+      <c r="N78">
+        <v>111335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79">
+        <v>0.11538436</v>
+      </c>
+      <c r="C79">
+        <v>0.00216822</v>
+      </c>
+      <c r="D79">
+        <v>0.3123807</v>
+      </c>
+      <c r="E79">
+        <v>0.00395944</v>
+      </c>
+      <c r="F79">
+        <v>4.96930408</v>
+      </c>
+      <c r="G79">
+        <v>0.09317321000000001</v>
+      </c>
+      <c r="H79">
+        <v>0.09330571</v>
+      </c>
+      <c r="I79">
+        <v>0.00292294</v>
+      </c>
+      <c r="J79">
+        <v>25877</v>
+      </c>
+      <c r="K79">
+        <v>2950</v>
+      </c>
+      <c r="L79">
+        <v>4253</v>
+      </c>
+      <c r="M79">
+        <v>47360</v>
+      </c>
+      <c r="N79">
+        <v>92675</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80">
+        <v>0.05950226</v>
+      </c>
+      <c r="C80">
+        <v>0.00126124</v>
+      </c>
+      <c r="D80">
+        <v>0.09753357999999999</v>
+      </c>
+      <c r="E80">
+        <v>0.00124167</v>
+      </c>
+      <c r="F80">
+        <v>0.80012286</v>
+      </c>
+      <c r="G80">
+        <v>0.01676968</v>
+      </c>
+      <c r="H80">
+        <v>0.03057252</v>
+      </c>
+      <c r="I80">
+        <v>0.00121863</v>
+      </c>
+      <c r="J80">
+        <v>17024</v>
+      </c>
+      <c r="K80">
+        <v>1000</v>
+      </c>
+      <c r="L80">
+        <v>337</v>
+      </c>
+      <c r="M80">
+        <v>11629</v>
+      </c>
+      <c r="N80">
+        <v>192801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81">
+        <v>0.06070474</v>
+      </c>
+      <c r="C81">
+        <v>0.00129115</v>
+      </c>
+      <c r="D81">
+        <v>0.09767724999999999</v>
+      </c>
+      <c r="E81">
+        <v>0.00124608</v>
+      </c>
+      <c r="F81">
+        <v>0.81749368</v>
+      </c>
+      <c r="G81">
+        <v>0.01718672</v>
+      </c>
+      <c r="H81">
+        <v>0.03096477</v>
+      </c>
+      <c r="I81">
+        <v>0.00124138</v>
+      </c>
+      <c r="J81">
+        <v>17968</v>
+      </c>
+      <c r="K81">
+        <v>1077</v>
+      </c>
+      <c r="L81">
+        <v>357</v>
+      </c>
+      <c r="M81">
+        <v>12145</v>
+      </c>
+      <c r="N81">
+        <v>203213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.05925549</v>
+      </c>
+      <c r="C2">
+        <v>0.00095706</v>
+      </c>
+      <c r="D2">
+        <v>0.09762741</v>
+      </c>
+      <c r="E2">
+        <v>0.00115974</v>
+      </c>
+      <c r="F2">
+        <v>0.79753673</v>
+      </c>
+      <c r="G2">
+        <v>0.01305311</v>
+      </c>
+      <c r="H2">
+        <v>0.02956459</v>
+      </c>
+      <c r="I2">
+        <v>0.0008474999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.06102176</v>
+      </c>
+      <c r="C3">
+        <v>0.00102202</v>
+      </c>
+      <c r="D3">
+        <v>0.09776538</v>
+      </c>
+      <c r="E3">
+        <v>0.00114977</v>
+      </c>
+      <c r="F3">
+        <v>0.82252294</v>
+      </c>
+      <c r="G3">
+        <v>0.01379256</v>
+      </c>
+      <c r="H3">
+        <v>0.03230873</v>
+      </c>
+      <c r="I3">
+        <v>0.00096777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.14002734</v>
+      </c>
+      <c r="C4">
+        <v>0.00202965</v>
+      </c>
+      <c r="D4">
+        <v>0.4267382</v>
+      </c>
+      <c r="E4">
+        <v>0.00509699</v>
+      </c>
+      <c r="F4">
+        <v>8.23819447</v>
+      </c>
+      <c r="G4">
+        <v>0.12225675</v>
+      </c>
+      <c r="H4">
+        <v>0.12521042</v>
+      </c>
+      <c r="I4">
+        <v>0.00274793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.07467622</v>
+      </c>
+      <c r="C5">
+        <v>0.00182117</v>
+      </c>
+      <c r="D5">
+        <v>0.0632067</v>
+      </c>
+      <c r="E5">
+        <v>0.00086021</v>
+      </c>
+      <c r="F5">
+        <v>0.65076309</v>
+      </c>
+      <c r="G5">
+        <v>0.01535627</v>
+      </c>
+      <c r="H5">
+        <v>0.01979949</v>
+      </c>
+      <c r="I5">
+        <v>0.00044462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.10839629</v>
+      </c>
+      <c r="C6">
+        <v>0.00179585</v>
+      </c>
+      <c r="D6">
+        <v>0.29725766</v>
+      </c>
+      <c r="E6">
+        <v>0.00361408</v>
+      </c>
+      <c r="F6">
+        <v>4.44251394</v>
+      </c>
+      <c r="G6">
+        <v>0.07365235000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.08825705</v>
+      </c>
+      <c r="I6">
+        <v>0.00212575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.06233726</v>
+      </c>
+      <c r="C7">
+        <v>0.00172683</v>
+      </c>
+      <c r="D7">
+        <v>0.08146672000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.00115038</v>
+      </c>
+      <c r="F7">
+        <v>0.70016521</v>
+      </c>
+      <c r="G7">
+        <v>0.01880147</v>
+      </c>
+      <c r="H7">
+        <v>0.02771389</v>
+      </c>
+      <c r="I7">
+        <v>0.0008110599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.17508344</v>
+      </c>
+      <c r="C8">
+        <v>0.0034998</v>
+      </c>
+      <c r="D8">
+        <v>0.44849381</v>
+      </c>
+      <c r="E8">
+        <v>0.00593731</v>
+      </c>
+      <c r="F8">
+        <v>10.82270527</v>
+      </c>
+      <c r="G8">
+        <v>0.21751702</v>
+      </c>
+      <c r="H8">
+        <v>0.13104485</v>
+      </c>
+      <c r="I8">
+        <v>0.00487851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.17388043</v>
+      </c>
+      <c r="C9">
+        <v>0.00422406</v>
+      </c>
+      <c r="D9">
+        <v>0.47403106</v>
+      </c>
+      <c r="E9">
+        <v>0.00709189</v>
+      </c>
+      <c r="F9">
+        <v>11.36583042</v>
+      </c>
+      <c r="G9">
+        <v>0.27610224</v>
+      </c>
+      <c r="H9">
+        <v>0.09755125000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.0050431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.17100489</v>
+      </c>
+      <c r="C10">
+        <v>0.00295209</v>
+      </c>
+      <c r="D10">
+        <v>0.49699029</v>
+      </c>
+      <c r="E10">
+        <v>0.00616109</v>
+      </c>
+      <c r="F10">
+        <v>11.71724606</v>
+      </c>
+      <c r="G10">
+        <v>0.20248808</v>
+      </c>
+      <c r="H10">
+        <v>0.13523741</v>
+      </c>
+      <c r="I10">
+        <v>0.00397501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.05722805</v>
+      </c>
+      <c r="C11">
+        <v>0.00178174</v>
+      </c>
+      <c r="D11">
+        <v>0.05942357</v>
+      </c>
+      <c r="E11">
+        <v>0.00088212</v>
+      </c>
+      <c r="F11">
+        <v>0.46886104</v>
+      </c>
+      <c r="G11">
+        <v>0.01416581</v>
+      </c>
+      <c r="H11">
+        <v>0.01924586</v>
+      </c>
+      <c r="I11">
+        <v>0.00063171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>0.10390117</v>
+      </c>
+      <c r="C12">
+        <v>0.00210558</v>
+      </c>
+      <c r="D12">
+        <v>0.27769876</v>
+      </c>
+      <c r="E12">
+        <v>0.00369108</v>
+      </c>
+      <c r="F12">
+        <v>3.97823405</v>
+      </c>
+      <c r="G12">
+        <v>0.08095206000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.08092102</v>
+      </c>
+      <c r="I12">
+        <v>0.00299898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.05225151</v>
+      </c>
+      <c r="C13">
+        <v>0.00121183</v>
+      </c>
+      <c r="D13">
+        <v>0.05925776</v>
+      </c>
+      <c r="E13">
+        <v>0.00077642</v>
+      </c>
+      <c r="F13">
+        <v>0.42689079</v>
+      </c>
+      <c r="G13">
+        <v>0.009725900000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.01824271</v>
+      </c>
+      <c r="I13">
+        <v>0.00068231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0.06037111</v>
+      </c>
+      <c r="C14">
+        <v>0.0012294</v>
+      </c>
+      <c r="D14">
+        <v>0.09778125</v>
+      </c>
+      <c r="E14">
+        <v>0.00121853</v>
+      </c>
+      <c r="F14">
+        <v>0.81387657</v>
+      </c>
+      <c r="G14">
+        <v>0.01635747</v>
+      </c>
+      <c r="H14">
+        <v>0.03283451</v>
+      </c>
+      <c r="I14">
+        <v>0.00123317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0.05983654</v>
+      </c>
+      <c r="C15">
+        <v>0.00123614</v>
+      </c>
+      <c r="D15">
+        <v>0.0974489</v>
+      </c>
+      <c r="E15">
+        <v>0.00121967</v>
+      </c>
+      <c r="F15">
+        <v>0.80392814</v>
+      </c>
+      <c r="G15">
+        <v>0.01638236</v>
+      </c>
+      <c r="H15">
+        <v>0.02899833</v>
+      </c>
+      <c r="I15">
+        <v>0.00112888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.06028967</v>
+      </c>
+      <c r="C16">
+        <v>0.00103829</v>
+      </c>
+      <c r="D16">
+        <v>0.09783884</v>
+      </c>
+      <c r="E16">
+        <v>0.00117964</v>
+      </c>
+      <c r="F16">
+        <v>0.8132582900000001</v>
+      </c>
+      <c r="G16">
+        <v>0.01407914</v>
+      </c>
+      <c r="H16">
+        <v>0.03248931</v>
+      </c>
+      <c r="I16">
+        <v>0.0009927499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0.05991495</v>
+      </c>
+      <c r="C17">
+        <v>0.00103784</v>
+      </c>
+      <c r="D17">
+        <v>0.09724594</v>
+      </c>
+      <c r="E17">
+        <v>0.00115992</v>
+      </c>
+      <c r="F17">
+        <v>0.80331069</v>
+      </c>
+      <c r="G17">
+        <v>0.01392749</v>
+      </c>
+      <c r="H17">
+        <v>0.02901073</v>
+      </c>
+      <c r="I17">
+        <v>0.00091216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0.1215596</v>
+      </c>
+      <c r="C18">
+        <v>0.00183066</v>
+      </c>
+      <c r="D18">
+        <v>0.35263106</v>
+      </c>
+      <c r="E18">
+        <v>0.00430447</v>
+      </c>
+      <c r="F18">
+        <v>5.90975761</v>
+      </c>
+      <c r="G18">
+        <v>0.09170296</v>
+      </c>
+      <c r="H18">
+        <v>0.10399723</v>
+      </c>
+      <c r="I18">
+        <v>0.00240363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>0.05556513</v>
+      </c>
+      <c r="C19">
+        <v>0.00107415</v>
+      </c>
+      <c r="D19">
+        <v>0.06587759</v>
+      </c>
+      <c r="E19">
+        <v>0.00082744</v>
+      </c>
+      <c r="F19">
+        <v>0.5046261</v>
+      </c>
+      <c r="G19">
+        <v>0.009775809999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.02049271</v>
+      </c>
+      <c r="I19">
+        <v>0.0005667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0.05490155</v>
+      </c>
+      <c r="C20">
+        <v>0.00101423</v>
+      </c>
+      <c r="D20">
+        <v>0.05940912</v>
+      </c>
+      <c r="E20">
+        <v>0.0007193600000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.44966462</v>
+      </c>
+      <c r="G20">
+        <v>0.008301970000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.01731452</v>
+      </c>
+      <c r="I20">
+        <v>0.00040787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0.11058337</v>
+      </c>
+      <c r="C21">
+        <v>0.00251514</v>
+      </c>
+      <c r="D21">
+        <v>0.32139429</v>
+      </c>
+      <c r="E21">
+        <v>0.004345</v>
+      </c>
+      <c r="F21">
+        <v>4.9013834</v>
+      </c>
+      <c r="G21">
+        <v>0.1081541</v>
+      </c>
+      <c r="H21">
+        <v>0.09430452</v>
+      </c>
+      <c r="I21">
+        <v>0.00317649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>0.11446285</v>
+      </c>
+      <c r="C22">
+        <v>0.00242298</v>
+      </c>
+      <c r="D22">
+        <v>0.31895921</v>
+      </c>
+      <c r="E22">
+        <v>0.00438916</v>
+      </c>
+      <c r="F22">
+        <v>5.0343132</v>
+      </c>
+      <c r="G22">
+        <v>0.10671499</v>
+      </c>
+      <c r="H22">
+        <v>0.09551901</v>
+      </c>
+      <c r="I22">
+        <v>0.00350067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>0.15219173</v>
+      </c>
+      <c r="C23">
+        <v>0.00690585</v>
+      </c>
+      <c r="D23">
+        <v>0.06729259</v>
+      </c>
+      <c r="E23">
+        <v>0.00162789</v>
+      </c>
+      <c r="F23">
+        <v>1.41188121</v>
+      </c>
+      <c r="G23">
+        <v>0.0579316</v>
+      </c>
+      <c r="H23">
+        <v>0.02059189</v>
+      </c>
+      <c r="I23">
+        <v>0.0006094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>0.17591637</v>
+      </c>
+      <c r="C24">
+        <v>0.00396296</v>
+      </c>
+      <c r="D24">
+        <v>0.45337144</v>
+      </c>
+      <c r="E24">
+        <v>0.00615009</v>
+      </c>
+      <c r="F24">
+        <v>10.99534512</v>
+      </c>
+      <c r="G24">
+        <v>0.24225868</v>
+      </c>
+      <c r="H24">
+        <v>0.12764712</v>
+      </c>
+      <c r="I24">
+        <v>0.00517516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>0.16680987</v>
+      </c>
+      <c r="C25">
+        <v>0.00282379</v>
+      </c>
+      <c r="D25">
+        <v>0.4367891</v>
+      </c>
+      <c r="E25">
+        <v>0.0053252</v>
+      </c>
+      <c r="F25">
+        <v>10.04393387</v>
+      </c>
+      <c r="G25">
+        <v>0.17152968</v>
+      </c>
+      <c r="H25">
+        <v>0.12116589</v>
+      </c>
+      <c r="I25">
+        <v>0.00359752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>0.05381548</v>
+      </c>
+      <c r="C26">
+        <v>0.00121821</v>
+      </c>
+      <c r="D26">
+        <v>0.05933176</v>
+      </c>
+      <c r="E26">
+        <v>0.00076229</v>
+      </c>
+      <c r="F26">
+        <v>0.44018677</v>
+      </c>
+      <c r="G26">
+        <v>0.009819690000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.01854042</v>
+      </c>
+      <c r="I26">
+        <v>0.00054204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>0.05417064</v>
+      </c>
+      <c r="C27">
+        <v>0.00105498</v>
+      </c>
+      <c r="D27">
+        <v>0.06099826</v>
+      </c>
+      <c r="E27">
+        <v>0.00075086</v>
+      </c>
+      <c r="F27">
+        <v>0.45553297</v>
+      </c>
+      <c r="G27">
+        <v>0.008839</v>
+      </c>
+      <c r="H27">
+        <v>0.01934309</v>
+      </c>
+      <c r="I27">
+        <v>0.00057744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>0.115052</v>
+      </c>
+      <c r="C28">
+        <v>0.0021263</v>
+      </c>
+      <c r="D28">
+        <v>0.33738092</v>
+      </c>
+      <c r="E28">
+        <v>0.00426294</v>
+      </c>
+      <c r="F28">
+        <v>5.35088062</v>
+      </c>
+      <c r="G28">
+        <v>0.09956656</v>
+      </c>
+      <c r="H28">
+        <v>0.09396574000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.00293873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>0.11392029</v>
+      </c>
+      <c r="C29">
+        <v>0.00222018</v>
+      </c>
+      <c r="D29">
+        <v>0.33117929</v>
+      </c>
+      <c r="E29">
+        <v>0.00423431</v>
+      </c>
+      <c r="F29">
+        <v>5.20094395</v>
+      </c>
+      <c r="G29">
+        <v>0.10186438</v>
+      </c>
+      <c r="H29">
+        <v>0.09053271</v>
+      </c>
+      <c r="I29">
+        <v>0.00313807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>0.21313961</v>
+      </c>
+      <c r="C30">
+        <v>0.00370454</v>
+      </c>
+      <c r="D30">
+        <v>0.55079246</v>
+      </c>
+      <c r="E30">
+        <v>0.00667998</v>
+      </c>
+      <c r="F30">
+        <v>16.18409538</v>
+      </c>
+      <c r="G30">
+        <v>0.28299115</v>
+      </c>
+      <c r="H30">
+        <v>0.15494223</v>
+      </c>
+      <c r="I30">
+        <v>0.00481573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>0.17071074</v>
+      </c>
+      <c r="C31">
+        <v>0.00319185</v>
+      </c>
+      <c r="D31">
+        <v>0.33106613</v>
+      </c>
+      <c r="E31">
+        <v>0.0040919</v>
+      </c>
+      <c r="F31">
+        <v>7.79119396</v>
+      </c>
+      <c r="G31">
+        <v>0.14631231</v>
+      </c>
+      <c r="H31">
+        <v>0.07913195000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.00272143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>0.05991508</v>
+      </c>
+      <c r="C32">
+        <v>0.00127101</v>
+      </c>
+      <c r="D32">
+        <v>0.09794469</v>
+      </c>
+      <c r="E32">
+        <v>0.00123767</v>
+      </c>
+      <c r="F32">
+        <v>0.80903924</v>
+      </c>
+      <c r="G32">
+        <v>0.01698432</v>
+      </c>
+      <c r="H32">
+        <v>0.03175987</v>
+      </c>
+      <c r="I32">
+        <v>0.00127495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>0.06031692</v>
+      </c>
+      <c r="C33">
+        <v>0.00129249</v>
+      </c>
+      <c r="D33">
+        <v>0.09735291</v>
+      </c>
+      <c r="E33">
+        <v>0.00123456</v>
+      </c>
+      <c r="F33">
+        <v>0.8095541000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.0171609</v>
+      </c>
+      <c r="H33">
+        <v>0.0299046</v>
+      </c>
+      <c r="I33">
+        <v>0.00123094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>0.05963452</v>
+      </c>
+      <c r="C34">
+        <v>0.00107101</v>
+      </c>
+      <c r="D34">
+        <v>0.09795207</v>
+      </c>
+      <c r="E34">
+        <v>0.00118215</v>
+      </c>
+      <c r="F34">
+        <v>0.80527788</v>
+      </c>
+      <c r="G34">
+        <v>0.01450291</v>
+      </c>
+      <c r="H34">
+        <v>0.03159827</v>
+      </c>
+      <c r="I34">
+        <v>0.00101091</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0.06020008</v>
+      </c>
+      <c r="C35">
+        <v>0.00105454</v>
+      </c>
+      <c r="D35">
+        <v>0.09724117</v>
+      </c>
+      <c r="E35">
+        <v>0.00116506</v>
+      </c>
+      <c r="F35">
+        <v>0.8070664400000001</v>
+      </c>
+      <c r="G35">
+        <v>0.01419273</v>
+      </c>
+      <c r="H35">
+        <v>0.02995238</v>
+      </c>
+      <c r="I35">
+        <v>0.0009481099999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.16330543</v>
+      </c>
+      <c r="C36">
+        <v>0.00231793</v>
+      </c>
+      <c r="D36">
+        <v>0.44766384</v>
+      </c>
+      <c r="E36">
+        <v>0.0052936</v>
+      </c>
+      <c r="F36">
+        <v>10.07809448</v>
+      </c>
+      <c r="G36">
+        <v>0.14951037</v>
+      </c>
+      <c r="H36">
+        <v>0.12633729</v>
+      </c>
+      <c r="I36">
+        <v>0.0030079</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.12058843</v>
+      </c>
+      <c r="C37">
+        <v>0.00254442</v>
+      </c>
+      <c r="D37">
+        <v>0.37480021</v>
+      </c>
+      <c r="E37">
+        <v>0.00523004</v>
+      </c>
+      <c r="F37">
+        <v>6.23340034</v>
+      </c>
+      <c r="G37">
+        <v>0.13236764</v>
+      </c>
+      <c r="H37">
+        <v>0.10360395</v>
+      </c>
+      <c r="I37">
+        <v>0.00359562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.12883869</v>
+      </c>
+      <c r="C38">
+        <v>0.00307945</v>
+      </c>
+      <c r="D38">
+        <v>0.2142458</v>
+      </c>
+      <c r="E38">
+        <v>0.00301393</v>
+      </c>
+      <c r="F38">
+        <v>3.80529809</v>
+      </c>
+      <c r="G38">
+        <v>0.08994521</v>
+      </c>
+      <c r="H38">
+        <v>0.03826614</v>
+      </c>
+      <c r="I38">
+        <v>0.0016692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.12299637</v>
+      </c>
+      <c r="C39">
+        <v>0.00248782</v>
+      </c>
+      <c r="D39">
+        <v>0.32631573</v>
+      </c>
+      <c r="E39">
+        <v>0.00443783</v>
+      </c>
+      <c r="F39">
+        <v>5.53642273</v>
+      </c>
+      <c r="G39">
+        <v>0.11392299</v>
+      </c>
+      <c r="H39">
+        <v>0.06686316</v>
+      </c>
+      <c r="I39">
+        <v>0.00242398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.13268897</v>
+      </c>
+      <c r="C40">
+        <v>0.00203862</v>
+      </c>
+      <c r="D40">
+        <v>0.36655265</v>
+      </c>
+      <c r="E40">
+        <v>0.00436533</v>
+      </c>
+      <c r="F40">
+        <v>6.70519447</v>
+      </c>
+      <c r="G40">
+        <v>0.10564994</v>
+      </c>
+      <c r="H40">
+        <v>0.10819405</v>
+      </c>
+      <c r="I40">
+        <v>0.00278888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.17493497</v>
+      </c>
+      <c r="C41">
+        <v>0.00265133</v>
+      </c>
+      <c r="D41">
+        <v>0.46346131</v>
+      </c>
+      <c r="E41">
+        <v>0.0054994</v>
+      </c>
+      <c r="F41">
+        <v>11.17781162</v>
+      </c>
+      <c r="G41">
+        <v>0.17249794</v>
+      </c>
+      <c r="H41">
+        <v>0.11932084</v>
+      </c>
+      <c r="I41">
+        <v>0.00290802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.06117366</v>
+      </c>
+      <c r="C42">
+        <v>0.00142755</v>
+      </c>
+      <c r="D42">
+        <v>0.0703655</v>
+      </c>
+      <c r="E42">
+        <v>0.00093133</v>
+      </c>
+      <c r="F42">
+        <v>0.59342778</v>
+      </c>
+      <c r="G42">
+        <v>0.01362257</v>
+      </c>
+      <c r="H42">
+        <v>0.0242704</v>
+      </c>
+      <c r="I42">
+        <v>0.00068381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.05962247</v>
+      </c>
+      <c r="C43">
+        <v>0.00132273</v>
+      </c>
+      <c r="D43">
+        <v>0.07970360999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.00102589</v>
+      </c>
+      <c r="F43">
+        <v>0.65515471</v>
+      </c>
+      <c r="G43">
+        <v>0.01432324</v>
+      </c>
+      <c r="H43">
+        <v>0.0248712</v>
+      </c>
+      <c r="I43">
+        <v>0.0006717</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.11680959</v>
+      </c>
+      <c r="C44">
+        <v>0.00271675</v>
+      </c>
+      <c r="D44">
+        <v>0.33444476</v>
+      </c>
+      <c r="E44">
+        <v>0.00468941</v>
+      </c>
+      <c r="F44">
+        <v>5.38571978</v>
+      </c>
+      <c r="G44">
+        <v>0.12358516</v>
+      </c>
+      <c r="H44">
+        <v>0.0851449</v>
+      </c>
+      <c r="I44">
+        <v>0.00339514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.07178279</v>
+      </c>
+      <c r="C45">
+        <v>0.0017252</v>
+      </c>
+      <c r="D45">
+        <v>0.0747181</v>
+      </c>
+      <c r="E45">
+        <v>0.00104357</v>
+      </c>
+      <c r="F45">
+        <v>0.73946917</v>
+      </c>
+      <c r="G45">
+        <v>0.01756333</v>
+      </c>
+      <c r="H45">
+        <v>0.02106762</v>
+      </c>
+      <c r="I45">
+        <v>0.00074356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.11659816</v>
+      </c>
+      <c r="C46">
+        <v>0.00198302</v>
+      </c>
+      <c r="D46">
+        <v>0.3374851</v>
+      </c>
+      <c r="E46">
+        <v>0.00409315</v>
+      </c>
+      <c r="F46">
+        <v>5.42515659</v>
+      </c>
+      <c r="G46">
+        <v>0.09269689</v>
+      </c>
+      <c r="H46">
+        <v>0.09958141</v>
+      </c>
+      <c r="I46">
+        <v>0.00281751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.11466347</v>
+      </c>
+      <c r="C47">
+        <v>0.00258814</v>
+      </c>
+      <c r="D47">
+        <v>0.32545274</v>
+      </c>
+      <c r="E47">
+        <v>0.00454564</v>
+      </c>
+      <c r="F47">
+        <v>5.14422464</v>
+      </c>
+      <c r="G47">
+        <v>0.11600349</v>
+      </c>
+      <c r="H47">
+        <v>0.08539285000000001</v>
+      </c>
+      <c r="I47">
+        <v>0.00350633</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.09473076</v>
+      </c>
+      <c r="C48">
+        <v>0.00321679</v>
+      </c>
+      <c r="D48">
+        <v>0.07798088</v>
+      </c>
+      <c r="E48">
+        <v>0.0013203</v>
+      </c>
+      <c r="F48">
+        <v>1.01842105</v>
+      </c>
+      <c r="G48">
+        <v>0.03297507</v>
+      </c>
+      <c r="H48">
+        <v>0.02422056</v>
+      </c>
+      <c r="I48">
+        <v>0.0009775000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.06669851</v>
+      </c>
+      <c r="C49">
+        <v>0.00156113</v>
+      </c>
+      <c r="D49">
+        <v>0.13605298</v>
+      </c>
+      <c r="E49">
+        <v>0.00182421</v>
+      </c>
+      <c r="F49">
+        <v>1.25107896</v>
+      </c>
+      <c r="G49">
+        <v>0.02884082</v>
+      </c>
+      <c r="H49">
+        <v>0.04242052</v>
+      </c>
+      <c r="I49">
+        <v>0.0015424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.05632528</v>
+      </c>
+      <c r="C50">
+        <v>0.00120608</v>
+      </c>
+      <c r="D50">
+        <v>0.08072696</v>
+      </c>
+      <c r="E50">
+        <v>0.00103923</v>
+      </c>
+      <c r="F50">
+        <v>0.62688375</v>
+      </c>
+      <c r="G50">
+        <v>0.0133345</v>
+      </c>
+      <c r="H50">
+        <v>0.02558704</v>
+      </c>
+      <c r="I50">
+        <v>0.00091409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.06006344</v>
+      </c>
+      <c r="C51">
+        <v>0.00127474</v>
+      </c>
+      <c r="D51">
+        <v>0.0977174</v>
+      </c>
+      <c r="E51">
+        <v>0.00124027</v>
+      </c>
+      <c r="F51">
+        <v>0.8091839</v>
+      </c>
+      <c r="G51">
+        <v>0.01696362</v>
+      </c>
+      <c r="H51">
+        <v>0.03195508</v>
+      </c>
+      <c r="I51">
+        <v>0.00129572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.06023676</v>
+      </c>
+      <c r="C52">
+        <v>0.00129172</v>
+      </c>
+      <c r="D52">
+        <v>0.09751479</v>
+      </c>
+      <c r="E52">
+        <v>0.00124158</v>
+      </c>
+      <c r="F52">
+        <v>0.80983448</v>
+      </c>
+      <c r="G52">
+        <v>0.01714048</v>
+      </c>
+      <c r="H52">
+        <v>0.02978652</v>
+      </c>
+      <c r="I52">
+        <v>0.00123464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>0.06023009</v>
+      </c>
+      <c r="C53">
+        <v>0.001083</v>
+      </c>
+      <c r="D53">
+        <v>0.09768652</v>
+      </c>
+      <c r="E53">
+        <v>0.001179</v>
+      </c>
+      <c r="F53">
+        <v>0.81117648</v>
+      </c>
+      <c r="G53">
+        <v>0.01459117</v>
+      </c>
+      <c r="H53">
+        <v>0.0319346</v>
+      </c>
+      <c r="I53">
+        <v>0.00104124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>0.06023022</v>
+      </c>
+      <c r="C54">
+        <v>0.00106811</v>
+      </c>
+      <c r="D54">
+        <v>0.09756062</v>
+      </c>
+      <c r="E54">
+        <v>0.00117632</v>
+      </c>
+      <c r="F54">
+        <v>0.81013072</v>
+      </c>
+      <c r="G54">
+        <v>0.01440507</v>
+      </c>
+      <c r="H54">
+        <v>0.02963333</v>
+      </c>
+      <c r="I54">
+        <v>0.00096207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>0.05591814</v>
+      </c>
+      <c r="C55">
+        <v>0.00136867</v>
+      </c>
+      <c r="D55">
+        <v>0.06089099</v>
+      </c>
+      <c r="E55">
+        <v>0.00081047</v>
+      </c>
+      <c r="F55">
+        <v>0.46942955</v>
+      </c>
+      <c r="G55">
+        <v>0.01127488</v>
+      </c>
+      <c r="H55">
+        <v>0.02044878</v>
+      </c>
+      <c r="I55">
+        <v>0.00053818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56">
+        <v>0.05950226</v>
+      </c>
+      <c r="C56">
+        <v>0.00126124</v>
+      </c>
+      <c r="D56">
+        <v>0.09753357999999999</v>
+      </c>
+      <c r="E56">
+        <v>0.00124167</v>
+      </c>
+      <c r="F56">
+        <v>0.80012286</v>
+      </c>
+      <c r="G56">
+        <v>0.01676968</v>
+      </c>
+      <c r="H56">
+        <v>0.03057252</v>
+      </c>
+      <c r="I56">
+        <v>0.00121863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>0.06070474</v>
+      </c>
+      <c r="C57">
+        <v>0.00129115</v>
+      </c>
+      <c r="D57">
+        <v>0.09767724999999999</v>
+      </c>
+      <c r="E57">
+        <v>0.00124608</v>
+      </c>
+      <c r="F57">
+        <v>0.81749368</v>
+      </c>
+      <c r="G57">
+        <v>0.01718672</v>
+      </c>
+      <c r="H57">
+        <v>0.03096477</v>
+      </c>
+      <c r="I57">
+        <v>0.00124138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.06426057</v>
+      </c>
+      <c r="C2">
+        <v>0.0012023</v>
+      </c>
+      <c r="D2">
+        <v>0.11813725</v>
+      </c>
+      <c r="E2">
+        <v>0.00147579</v>
+      </c>
+      <c r="F2">
+        <v>1.04662633</v>
+      </c>
+      <c r="G2">
+        <v>0.0195741</v>
+      </c>
+      <c r="H2">
+        <v>0.03630736</v>
+      </c>
+      <c r="I2">
+        <v>0.00076258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0.06362816</v>
+      </c>
+      <c r="C3">
+        <v>0.00215729</v>
+      </c>
+      <c r="D3">
+        <v>0.12061665</v>
+      </c>
+      <c r="E3">
+        <v>0.00183151</v>
+      </c>
+      <c r="F3">
+        <v>1.05854285</v>
+      </c>
+      <c r="G3">
+        <v>0.03457375</v>
+      </c>
+      <c r="H3">
+        <v>0.03562337</v>
+      </c>
+      <c r="I3">
+        <v>0.00130316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>0.11247832</v>
+      </c>
+      <c r="C4">
+        <v>0.00166892</v>
+      </c>
+      <c r="D4">
+        <v>0.3338429</v>
+      </c>
+      <c r="E4">
+        <v>0.00393533</v>
+      </c>
+      <c r="F4">
+        <v>5.17700768</v>
+      </c>
+      <c r="G4">
+        <v>0.07851086</v>
+      </c>
+      <c r="H4">
+        <v>0.09503457999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.00214415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>0.11168011</v>
+      </c>
+      <c r="C5">
+        <v>0.00363021</v>
+      </c>
+      <c r="D5">
+        <v>0.33359912</v>
+      </c>
+      <c r="E5">
+        <v>0.00609949</v>
+      </c>
+      <c r="F5">
+        <v>5.13700056</v>
+      </c>
+      <c r="G5">
+        <v>0.16063486</v>
+      </c>
+      <c r="H5">
+        <v>0.08542246000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.00349935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>0.18385829</v>
+      </c>
+      <c r="C6">
+        <v>0.00458575</v>
+      </c>
+      <c r="D6">
+        <v>0.51385707</v>
+      </c>
+      <c r="E6">
+        <v>0.0081776</v>
+      </c>
+      <c r="F6">
+        <v>13.02418423</v>
+      </c>
+      <c r="G6">
+        <v>0.31324014</v>
+      </c>
+      <c r="H6">
+        <v>0.13973019</v>
+      </c>
+      <c r="I6">
+        <v>0.00498043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>0.11540873</v>
+      </c>
+      <c r="C7">
+        <v>0.00188057</v>
+      </c>
+      <c r="D7">
+        <v>0.33280069</v>
+      </c>
+      <c r="E7">
+        <v>0.00405957</v>
+      </c>
+      <c r="F7">
+        <v>5.2953105</v>
+      </c>
+      <c r="G7">
+        <v>0.08701488</v>
+      </c>
+      <c r="H7">
+        <v>0.09952312000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.0023465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>0.05713838</v>
+      </c>
+      <c r="C8">
+        <v>0.00162037</v>
+      </c>
+      <c r="D8">
+        <v>0.08036897</v>
+      </c>
+      <c r="E8">
+        <v>0.00113167</v>
+      </c>
+      <c r="F8">
+        <v>0.63304847</v>
+      </c>
+      <c r="G8">
+        <v>0.01747628</v>
+      </c>
+      <c r="H8">
+        <v>0.0264909</v>
+      </c>
+      <c r="I8">
+        <v>0.00113653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>0.11511456</v>
+      </c>
+      <c r="C9">
+        <v>0.00178306</v>
+      </c>
+      <c r="D9">
+        <v>0.33271149</v>
+      </c>
+      <c r="E9">
+        <v>0.00394848</v>
+      </c>
+      <c r="F9">
+        <v>5.28034306</v>
+      </c>
+      <c r="G9">
+        <v>0.08356901999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.09435288</v>
+      </c>
+      <c r="I9">
+        <v>0.00243705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>0.1514342</v>
+      </c>
+      <c r="C10">
+        <v>0.00421755</v>
+      </c>
+      <c r="D10">
+        <v>0.42633954</v>
+      </c>
+      <c r="E10">
+        <v>0.00659065</v>
+      </c>
+      <c r="F10">
+        <v>8.9004879</v>
+      </c>
+      <c r="G10">
+        <v>0.24280446</v>
+      </c>
+      <c r="H10">
+        <v>0.10002673</v>
+      </c>
+      <c r="I10">
+        <v>0.00511662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>0.06818251</v>
+      </c>
+      <c r="C11">
+        <v>0.00187624</v>
+      </c>
+      <c r="D11">
+        <v>0.09997316000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.0014835</v>
+      </c>
+      <c r="F11">
+        <v>0.93976551</v>
+      </c>
+      <c r="G11">
+        <v>0.02525483</v>
+      </c>
+      <c r="H11">
+        <v>0.02738062</v>
+      </c>
+      <c r="I11">
+        <v>0.00115137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>0.05497244</v>
+      </c>
+      <c r="C12">
+        <v>0.00209712</v>
+      </c>
+      <c r="D12">
+        <v>0.05948197</v>
+      </c>
+      <c r="E12">
+        <v>0.00100209</v>
+      </c>
+      <c r="F12">
+        <v>0.45080668</v>
+      </c>
+      <c r="G12">
+        <v>0.01659399</v>
+      </c>
+      <c r="H12">
+        <v>0.01779495</v>
+      </c>
+      <c r="I12">
+        <v>0.0007722300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>0.05383626</v>
+      </c>
+      <c r="C13">
+        <v>0.00190171</v>
+      </c>
+      <c r="D13">
+        <v>0.0563283</v>
+      </c>
+      <c r="E13">
+        <v>0.00090754</v>
+      </c>
+      <c r="F13">
+        <v>0.41807088</v>
+      </c>
+      <c r="G13">
+        <v>0.01427143</v>
+      </c>
+      <c r="H13">
+        <v>0.01376718</v>
+      </c>
+      <c r="I13">
+        <v>0.00061244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>0.17937024</v>
+      </c>
+      <c r="C14">
+        <v>0.00437771</v>
+      </c>
+      <c r="D14">
+        <v>0.48978382</v>
+      </c>
+      <c r="E14">
+        <v>0.00712275</v>
+      </c>
+      <c r="F14">
+        <v>12.11128712</v>
+      </c>
+      <c r="G14">
+        <v>0.28901926</v>
+      </c>
+      <c r="H14">
+        <v>0.12799101</v>
+      </c>
+      <c r="I14">
+        <v>0.00559951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>0.12159556</v>
+      </c>
+      <c r="C15">
+        <v>0.00269646</v>
+      </c>
+      <c r="D15">
+        <v>0.34821829</v>
+      </c>
+      <c r="E15">
+        <v>0.00468153</v>
+      </c>
+      <c r="F15">
+        <v>5.83740377</v>
+      </c>
+      <c r="G15">
+        <v>0.12754891</v>
+      </c>
+      <c r="H15">
+        <v>0.1039528</v>
+      </c>
+      <c r="I15">
+        <v>0.00412887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>0.05693299</v>
+      </c>
+      <c r="C16">
+        <v>0.00162462</v>
+      </c>
+      <c r="D16">
+        <v>0.08152818000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.00115814</v>
+      </c>
+      <c r="F16">
+        <v>0.63992387</v>
+      </c>
+      <c r="G16">
+        <v>0.01776151</v>
+      </c>
+      <c r="H16">
+        <v>0.0265804</v>
+      </c>
+      <c r="I16">
+        <v>0.00100172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>0.1159955</v>
+      </c>
+      <c r="C17">
+        <v>0.00269918</v>
+      </c>
+      <c r="D17">
+        <v>0.34151149</v>
+      </c>
+      <c r="E17">
+        <v>0.00478169</v>
+      </c>
+      <c r="F17">
+        <v>5.46056604</v>
+      </c>
+      <c r="G17">
+        <v>0.12470795</v>
+      </c>
+      <c r="H17">
+        <v>0.09774176</v>
+      </c>
+      <c r="I17">
+        <v>0.00396447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>0.11538436</v>
+      </c>
+      <c r="C18">
+        <v>0.00216822</v>
+      </c>
+      <c r="D18">
+        <v>0.3123807</v>
+      </c>
+      <c r="E18">
+        <v>0.00395944</v>
+      </c>
+      <c r="F18">
+        <v>4.96930408</v>
+      </c>
+      <c r="G18">
+        <v>0.09317321000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.09330571</v>
+      </c>
+      <c r="I18">
+        <v>0.00292294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5170,16 +12279,16 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -5190,25 +12299,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -5220,10 +12329,10 @@
         <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -5232,25 +12341,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
@@ -5268,7 +12377,7 @@
         <v>4</v>
       </c>
       <c r="AF2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -6700,7 +13809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF6"/>
   <sheetViews>
@@ -6710,16 +13819,16 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -6730,25 +13839,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -6760,10 +13869,10 @@
         <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -6772,25 +13881,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
@@ -6808,7 +13917,7 @@
         <v>4</v>
       </c>
       <c r="AF2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -7172,7 +14281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF4"/>
   <sheetViews>
@@ -7182,16 +14291,16 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -7202,25 +14311,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -7232,10 +14341,10 @@
         <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -7244,25 +14353,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
@@ -7280,7 +14389,7 @@
         <v>4</v>
       </c>
       <c r="AF2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -7466,7 +14575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF42"/>
   <sheetViews>
@@ -7476,16 +14585,16 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -7496,25 +14605,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -7526,10 +14635,10 @@
         <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -7538,25 +14647,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
@@ -7574,7 +14683,7 @@
         <v>4</v>
       </c>
       <c r="AF2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -11135,1457 +18244,6 @@
       </c>
       <c r="AF42">
         <v>1.095768086832881</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <v>0.11247832</v>
-      </c>
-      <c r="C3">
-        <v>0.00333784</v>
-      </c>
-      <c r="D3">
-        <v>0.3338429</v>
-      </c>
-      <c r="E3">
-        <v>0.00787066</v>
-      </c>
-      <c r="F3">
-        <v>5.17700768</v>
-      </c>
-      <c r="G3">
-        <v>0.15702172</v>
-      </c>
-      <c r="H3">
-        <v>0.09503457999999999</v>
-      </c>
-      <c r="I3">
-        <v>0.0042883</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3">
-        <v>63359</v>
-      </c>
-      <c r="M3">
-        <v>129292</v>
-      </c>
-      <c r="N3">
-        <v>61</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3">
-        <v>1839.8</v>
-      </c>
-      <c r="S3">
-        <v>53.26</v>
-      </c>
-      <c r="T3">
-        <v>1857</v>
-      </c>
-      <c r="U3">
-        <v>38.04</v>
-      </c>
-      <c r="V3">
-        <v>1848.8</v>
-      </c>
-      <c r="W3">
-        <v>25.82</v>
-      </c>
-      <c r="X3">
-        <v>1835</v>
-      </c>
-      <c r="Y3">
-        <v>79.16</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB3">
-        <v>0.00214415</v>
-      </c>
-      <c r="AC3">
-        <v>0.09503457999999999</v>
-      </c>
-      <c r="AD3">
-        <v>0.07851086</v>
-      </c>
-      <c r="AE3">
-        <v>5.17700768</v>
-      </c>
-      <c r="AF3">
-        <v>1.487724719999442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4">
-        <v>0.11168011</v>
-      </c>
-      <c r="C4">
-        <v>0.00726042</v>
-      </c>
-      <c r="D4">
-        <v>0.33359912</v>
-      </c>
-      <c r="E4">
-        <v>0.01219898</v>
-      </c>
-      <c r="F4">
-        <v>5.13700056</v>
-      </c>
-      <c r="G4">
-        <v>0.32126972</v>
-      </c>
-      <c r="H4">
-        <v>0.08542246000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.0069987</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4">
-        <v>26697</v>
-      </c>
-      <c r="M4">
-        <v>31391</v>
-      </c>
-      <c r="N4">
-        <v>62</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4">
-        <v>1826.9</v>
-      </c>
-      <c r="S4">
-        <v>115.62</v>
-      </c>
-      <c r="T4">
-        <v>1855.8</v>
-      </c>
-      <c r="U4">
-        <v>58.96</v>
-      </c>
-      <c r="V4">
-        <v>1842.2</v>
-      </c>
-      <c r="W4">
-        <v>53.16</v>
-      </c>
-      <c r="X4">
-        <v>1656.8</v>
-      </c>
-      <c r="Y4">
-        <v>130.32</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB4">
-        <v>0.00349935</v>
-      </c>
-      <c r="AC4">
-        <v>0.08542246000000001</v>
-      </c>
-      <c r="AD4">
-        <v>0.16063486</v>
-      </c>
-      <c r="AE4">
-        <v>5.13700056</v>
-      </c>
-      <c r="AF4">
-        <v>1.310041706315903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5">
-        <v>0.18385829</v>
-      </c>
-      <c r="C5">
-        <v>0.009171500000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.51385707</v>
-      </c>
-      <c r="E5">
-        <v>0.0163552</v>
-      </c>
-      <c r="F5">
-        <v>13.02418423</v>
-      </c>
-      <c r="G5">
-        <v>0.62648028</v>
-      </c>
-      <c r="H5">
-        <v>0.13973019</v>
-      </c>
-      <c r="I5">
-        <v>0.00996086</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5">
-        <v>46237</v>
-      </c>
-      <c r="M5">
-        <v>17314</v>
-      </c>
-      <c r="N5">
-        <v>63</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5">
-        <v>2688</v>
-      </c>
-      <c r="S5">
-        <v>81.28</v>
-      </c>
-      <c r="T5">
-        <v>2673.1</v>
-      </c>
-      <c r="U5">
-        <v>69.64</v>
-      </c>
-      <c r="V5">
-        <v>2681.4</v>
-      </c>
-      <c r="W5">
-        <v>45.36</v>
-      </c>
-      <c r="X5">
-        <v>2643.6</v>
-      </c>
-      <c r="Y5">
-        <v>176.64</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB5">
-        <v>0.00498043</v>
-      </c>
-      <c r="AC5">
-        <v>0.13973019</v>
-      </c>
-      <c r="AD5">
-        <v>0.31324014</v>
-      </c>
-      <c r="AE5">
-        <v>13.02418423</v>
-      </c>
-      <c r="AF5">
-        <v>1.48200514803498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6">
-        <v>0.11540873</v>
-      </c>
-      <c r="C6">
-        <v>0.00376114</v>
-      </c>
-      <c r="D6">
-        <v>0.33280069</v>
-      </c>
-      <c r="E6">
-        <v>0.00811914</v>
-      </c>
-      <c r="F6">
-        <v>5.2953105</v>
-      </c>
-      <c r="G6">
-        <v>0.17402976</v>
-      </c>
-      <c r="H6">
-        <v>0.09952312000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.004693</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6">
-        <v>71346</v>
-      </c>
-      <c r="M6">
-        <v>65233</v>
-      </c>
-      <c r="N6">
-        <v>64</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6">
-        <v>1886.3</v>
-      </c>
-      <c r="S6">
-        <v>58.1</v>
-      </c>
-      <c r="T6">
-        <v>1851.9</v>
-      </c>
-      <c r="U6">
-        <v>39.28</v>
-      </c>
-      <c r="V6">
-        <v>1868.1</v>
-      </c>
-      <c r="W6">
-        <v>28.06</v>
-      </c>
-      <c r="X6">
-        <v>1917.7</v>
-      </c>
-      <c r="Y6">
-        <v>86.28</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB6">
-        <v>0.0023465</v>
-      </c>
-      <c r="AC6">
-        <v>0.09952312000000001</v>
-      </c>
-      <c r="AD6">
-        <v>0.08701488</v>
-      </c>
-      <c r="AE6">
-        <v>5.2953105</v>
-      </c>
-      <c r="AF6">
-        <v>1.434810285579771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>0.05713838</v>
-      </c>
-      <c r="C7">
-        <v>0.00324074</v>
-      </c>
-      <c r="D7">
-        <v>0.08036897</v>
-      </c>
-      <c r="E7">
-        <v>0.00226334</v>
-      </c>
-      <c r="F7">
-        <v>0.63304847</v>
-      </c>
-      <c r="G7">
-        <v>0.03495256</v>
-      </c>
-      <c r="H7">
-        <v>0.0264909</v>
-      </c>
-      <c r="I7">
-        <v>0.00227306</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7">
-        <v>219352</v>
-      </c>
-      <c r="M7">
-        <v>352706</v>
-      </c>
-      <c r="N7">
-        <v>65</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7">
-        <v>496.3</v>
-      </c>
-      <c r="S7">
-        <v>123.7</v>
-      </c>
-      <c r="T7">
-        <v>498.3</v>
-      </c>
-      <c r="U7">
-        <v>13.5</v>
-      </c>
-      <c r="V7">
-        <v>498</v>
-      </c>
-      <c r="W7">
-        <v>21.74</v>
-      </c>
-      <c r="X7">
-        <v>528.5</v>
-      </c>
-      <c r="Y7">
-        <v>44.76</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB7">
-        <v>0.00113653</v>
-      </c>
-      <c r="AC7">
-        <v>0.0264909</v>
-      </c>
-      <c r="AD7">
-        <v>0.01747628</v>
-      </c>
-      <c r="AE7">
-        <v>0.63304847</v>
-      </c>
-      <c r="AF7">
-        <v>1.554075664883719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8">
-        <v>0.11511456</v>
-      </c>
-      <c r="C8">
-        <v>0.00356612</v>
-      </c>
-      <c r="D8">
-        <v>0.33271149</v>
-      </c>
-      <c r="E8">
-        <v>0.00789696</v>
-      </c>
-      <c r="F8">
-        <v>5.28034306</v>
-      </c>
-      <c r="G8">
-        <v>0.16713804</v>
-      </c>
-      <c r="H8">
-        <v>0.09435288</v>
-      </c>
-      <c r="I8">
-        <v>0.0048741</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8">
-        <v>188077</v>
-      </c>
-      <c r="M8">
-        <v>467969</v>
-      </c>
-      <c r="N8">
-        <v>66</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8">
-        <v>1881.7</v>
-      </c>
-      <c r="S8">
-        <v>55.3</v>
-      </c>
-      <c r="T8">
-        <v>1851.5</v>
-      </c>
-      <c r="U8">
-        <v>38.2</v>
-      </c>
-      <c r="V8">
-        <v>1865.7</v>
-      </c>
-      <c r="W8">
-        <v>27.02</v>
-      </c>
-      <c r="X8">
-        <v>1822.4</v>
-      </c>
-      <c r="Y8">
-        <v>90.02</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB8">
-        <v>0.00243705</v>
-      </c>
-      <c r="AC8">
-        <v>0.09435288</v>
-      </c>
-      <c r="AD8">
-        <v>0.08356901999999999</v>
-      </c>
-      <c r="AE8">
-        <v>5.28034306</v>
-      </c>
-      <c r="AF8">
-        <v>1.632022374473374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9">
-        <v>0.1514342</v>
-      </c>
-      <c r="C9">
-        <v>0.008435099999999999</v>
-      </c>
-      <c r="D9">
-        <v>0.42633954</v>
-      </c>
-      <c r="E9">
-        <v>0.0131813</v>
-      </c>
-      <c r="F9">
-        <v>8.9004879</v>
-      </c>
-      <c r="G9">
-        <v>0.48560892</v>
-      </c>
-      <c r="H9">
-        <v>0.10002673</v>
-      </c>
-      <c r="I9">
-        <v>0.01023324</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9">
-        <v>408923</v>
-      </c>
-      <c r="M9">
-        <v>568883</v>
-      </c>
-      <c r="N9">
-        <v>67</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9">
-        <v>2362.2</v>
-      </c>
-      <c r="S9">
-        <v>93.56</v>
-      </c>
-      <c r="T9">
-        <v>2289.2</v>
-      </c>
-      <c r="U9">
-        <v>59.58</v>
-      </c>
-      <c r="V9">
-        <v>2327.9</v>
-      </c>
-      <c r="W9">
-        <v>49.8</v>
-      </c>
-      <c r="X9">
-        <v>1926.9</v>
-      </c>
-      <c r="Y9">
-        <v>188.02</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB9">
-        <v>0.00511662</v>
-      </c>
-      <c r="AC9">
-        <v>0.10002673</v>
-      </c>
-      <c r="AD9">
-        <v>0.24280446</v>
-      </c>
-      <c r="AE9">
-        <v>8.9004879</v>
-      </c>
-      <c r="AF9">
-        <v>1.875099192950983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10">
-        <v>0.06818251</v>
-      </c>
-      <c r="C10">
-        <v>0.00375248</v>
-      </c>
-      <c r="D10">
-        <v>0.09997316000000001</v>
-      </c>
-      <c r="E10">
-        <v>0.002967</v>
-      </c>
-      <c r="F10">
-        <v>0.93976551</v>
-      </c>
-      <c r="G10">
-        <v>0.05050966</v>
-      </c>
-      <c r="H10">
-        <v>0.02738062</v>
-      </c>
-      <c r="I10">
-        <v>0.00230274</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10">
-        <v>367488</v>
-      </c>
-      <c r="M10">
-        <v>418174</v>
-      </c>
-      <c r="N10">
-        <v>68</v>
-      </c>
-      <c r="O10">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>67</v>
-      </c>
-      <c r="R10">
-        <v>874.1</v>
-      </c>
-      <c r="S10">
-        <v>111.94</v>
-      </c>
-      <c r="T10">
-        <v>614.3</v>
-      </c>
-      <c r="U10">
-        <v>17.38</v>
-      </c>
-      <c r="V10">
-        <v>672.8</v>
-      </c>
-      <c r="W10">
-        <v>26.44</v>
-      </c>
-      <c r="X10">
-        <v>546</v>
-      </c>
-      <c r="Y10">
-        <v>45.3</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB10">
-        <v>0.00115137</v>
-      </c>
-      <c r="AC10">
-        <v>0.02738062</v>
-      </c>
-      <c r="AD10">
-        <v>0.02525483</v>
-      </c>
-      <c r="AE10">
-        <v>0.93976551</v>
-      </c>
-      <c r="AF10">
-        <v>1.564756210710159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11">
-        <v>0.05497244</v>
-      </c>
-      <c r="C11">
-        <v>0.00419424</v>
-      </c>
-      <c r="D11">
-        <v>0.05948197</v>
-      </c>
-      <c r="E11">
-        <v>0.00200418</v>
-      </c>
-      <c r="F11">
-        <v>0.45080668</v>
-      </c>
-      <c r="G11">
-        <v>0.03318798</v>
-      </c>
-      <c r="H11">
-        <v>0.01779495</v>
-      </c>
-      <c r="I11">
-        <v>0.00154446</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11">
-        <v>247701</v>
-      </c>
-      <c r="M11">
-        <v>210067</v>
-      </c>
-      <c r="N11">
-        <v>69</v>
-      </c>
-      <c r="O11">
-        <v>9</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11">
-        <v>411.1</v>
-      </c>
-      <c r="S11">
-        <v>165.16</v>
-      </c>
-      <c r="T11">
-        <v>372.5</v>
-      </c>
-      <c r="U11">
-        <v>12.2</v>
-      </c>
-      <c r="V11">
-        <v>377.8</v>
-      </c>
-      <c r="W11">
-        <v>23.22</v>
-      </c>
-      <c r="X11">
-        <v>356.5</v>
-      </c>
-      <c r="Y11">
-        <v>30.68</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB11">
-        <v>0.0007722300000000001</v>
-      </c>
-      <c r="AC11">
-        <v>0.01779495</v>
-      </c>
-      <c r="AD11">
-        <v>0.01659399</v>
-      </c>
-      <c r="AE11">
-        <v>0.45080668</v>
-      </c>
-      <c r="AF11">
-        <v>1.178933791505549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12">
-        <v>0.05383626</v>
-      </c>
-      <c r="C12">
-        <v>0.00380342</v>
-      </c>
-      <c r="D12">
-        <v>0.0563283</v>
-      </c>
-      <c r="E12">
-        <v>0.00181508</v>
-      </c>
-      <c r="F12">
-        <v>0.41807088</v>
-      </c>
-      <c r="G12">
-        <v>0.02854286</v>
-      </c>
-      <c r="H12">
-        <v>0.01376718</v>
-      </c>
-      <c r="I12">
-        <v>0.00122488</v>
-      </c>
-      <c r="K12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12">
-        <v>364876</v>
-      </c>
-      <c r="M12">
-        <v>301068</v>
-      </c>
-      <c r="N12">
-        <v>70</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>69</v>
-      </c>
-      <c r="R12">
-        <v>364.1</v>
-      </c>
-      <c r="S12">
-        <v>155.12</v>
-      </c>
-      <c r="T12">
-        <v>353.3</v>
-      </c>
-      <c r="U12">
-        <v>11.08</v>
-      </c>
-      <c r="V12">
-        <v>354.7</v>
-      </c>
-      <c r="W12">
-        <v>20.44</v>
-      </c>
-      <c r="X12">
-        <v>276.4</v>
-      </c>
-      <c r="Y12">
-        <v>24.42</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB12">
-        <v>0.00061244</v>
-      </c>
-      <c r="AC12">
-        <v>0.01376718</v>
-      </c>
-      <c r="AD12">
-        <v>0.01427143</v>
-      </c>
-      <c r="AE12">
-        <v>0.41807088</v>
-      </c>
-      <c r="AF12">
-        <v>1.303169731235245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13">
-        <v>0.17937024</v>
-      </c>
-      <c r="C13">
-        <v>0.00875542</v>
-      </c>
-      <c r="D13">
-        <v>0.48978382</v>
-      </c>
-      <c r="E13">
-        <v>0.0142455</v>
-      </c>
-      <c r="F13">
-        <v>12.11128712</v>
-      </c>
-      <c r="G13">
-        <v>0.57803852</v>
-      </c>
-      <c r="H13">
-        <v>0.12799101</v>
-      </c>
-      <c r="I13">
-        <v>0.01119902</v>
-      </c>
-      <c r="K13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13">
-        <v>113850</v>
-      </c>
-      <c r="M13">
-        <v>128890</v>
-      </c>
-      <c r="N13">
-        <v>71</v>
-      </c>
-      <c r="O13">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>70</v>
-      </c>
-      <c r="R13">
-        <v>2647.1</v>
-      </c>
-      <c r="S13">
-        <v>79.88</v>
-      </c>
-      <c r="T13">
-        <v>2569.7</v>
-      </c>
-      <c r="U13">
-        <v>61.64</v>
-      </c>
-      <c r="V13">
-        <v>2613.1</v>
-      </c>
-      <c r="W13">
-        <v>44.76</v>
-      </c>
-      <c r="X13">
-        <v>2434.3</v>
-      </c>
-      <c r="Y13">
-        <v>200.68</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB13">
-        <v>0.00559951</v>
-      </c>
-      <c r="AC13">
-        <v>0.12799101</v>
-      </c>
-      <c r="AD13">
-        <v>0.28901926</v>
-      </c>
-      <c r="AE13">
-        <v>12.11128712</v>
-      </c>
-      <c r="AF13">
-        <v>1.833302259306927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14">
-        <v>0.12159556</v>
-      </c>
-      <c r="C14">
-        <v>0.00539292</v>
-      </c>
-      <c r="D14">
-        <v>0.34821829</v>
-      </c>
-      <c r="E14">
-        <v>0.009363059999999999</v>
-      </c>
-      <c r="F14">
-        <v>5.83740377</v>
-      </c>
-      <c r="G14">
-        <v>0.25509782</v>
-      </c>
-      <c r="H14">
-        <v>0.1039528</v>
-      </c>
-      <c r="I14">
-        <v>0.00825774</v>
-      </c>
-      <c r="K14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14">
-        <v>121071</v>
-      </c>
-      <c r="M14">
-        <v>153510</v>
-      </c>
-      <c r="N14">
-        <v>72</v>
-      </c>
-      <c r="O14">
-        <v>12</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>71</v>
-      </c>
-      <c r="R14">
-        <v>1979.7</v>
-      </c>
-      <c r="S14">
-        <v>77.95999999999999</v>
-      </c>
-      <c r="T14">
-        <v>1926.1</v>
-      </c>
-      <c r="U14">
-        <v>44.76</v>
-      </c>
-      <c r="V14">
-        <v>1952</v>
-      </c>
-      <c r="W14">
-        <v>37.88</v>
-      </c>
-      <c r="X14">
-        <v>1998.9</v>
-      </c>
-      <c r="Y14">
-        <v>151.2</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB14">
-        <v>0.00412887</v>
-      </c>
-      <c r="AC14">
-        <v>0.1039528</v>
-      </c>
-      <c r="AD14">
-        <v>0.12754891</v>
-      </c>
-      <c r="AE14">
-        <v>5.83740377</v>
-      </c>
-      <c r="AF14">
-        <v>1.817766100669908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15">
-        <v>0.05693299</v>
-      </c>
-      <c r="C15">
-        <v>0.00324924</v>
-      </c>
-      <c r="D15">
-        <v>0.08152818000000001</v>
-      </c>
-      <c r="E15">
-        <v>0.00231628</v>
-      </c>
-      <c r="F15">
-        <v>0.63992387</v>
-      </c>
-      <c r="G15">
-        <v>0.03552302</v>
-      </c>
-      <c r="H15">
-        <v>0.0265804</v>
-      </c>
-      <c r="I15">
-        <v>0.00200344</v>
-      </c>
-      <c r="K15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15">
-        <v>37492</v>
-      </c>
-      <c r="M15">
-        <v>104339</v>
-      </c>
-      <c r="N15">
-        <v>73</v>
-      </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15">
-        <v>488.3</v>
-      </c>
-      <c r="S15">
-        <v>124.78</v>
-      </c>
-      <c r="T15">
-        <v>505.2</v>
-      </c>
-      <c r="U15">
-        <v>13.8</v>
-      </c>
-      <c r="V15">
-        <v>502.3</v>
-      </c>
-      <c r="W15">
-        <v>22</v>
-      </c>
-      <c r="X15">
-        <v>530.2</v>
-      </c>
-      <c r="Y15">
-        <v>39.44</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB15">
-        <v>0.00100172</v>
-      </c>
-      <c r="AC15">
-        <v>0.0265804</v>
-      </c>
-      <c r="AD15">
-        <v>0.01776151</v>
-      </c>
-      <c r="AE15">
-        <v>0.63992387</v>
-      </c>
-      <c r="AF15">
-        <v>1.357792039525215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16">
-        <v>0.1159955</v>
-      </c>
-      <c r="C16">
-        <v>0.00539836</v>
-      </c>
-      <c r="D16">
-        <v>0.34151149</v>
-      </c>
-      <c r="E16">
-        <v>0.00956338</v>
-      </c>
-      <c r="F16">
-        <v>5.46056604</v>
-      </c>
-      <c r="G16">
-        <v>0.2494159</v>
-      </c>
-      <c r="H16">
-        <v>0.09774176</v>
-      </c>
-      <c r="I16">
-        <v>0.007928940000000001</v>
-      </c>
-      <c r="K16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16">
-        <v>46638</v>
-      </c>
-      <c r="M16">
-        <v>111335</v>
-      </c>
-      <c r="N16">
-        <v>74</v>
-      </c>
-      <c r="O16">
-        <v>14</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16">
-        <v>1895.4</v>
-      </c>
-      <c r="S16">
-        <v>82.54000000000001</v>
-      </c>
-      <c r="T16">
-        <v>1893.9</v>
-      </c>
-      <c r="U16">
-        <v>45.96</v>
-      </c>
-      <c r="V16">
-        <v>1894.4</v>
-      </c>
-      <c r="W16">
-        <v>39.2</v>
-      </c>
-      <c r="X16">
-        <v>1884.9</v>
-      </c>
-      <c r="Y16">
-        <v>146</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB16">
-        <v>0.00396447</v>
-      </c>
-      <c r="AC16">
-        <v>0.09774176</v>
-      </c>
-      <c r="AD16">
-        <v>0.12470795</v>
-      </c>
-      <c r="AE16">
-        <v>5.46056604</v>
-      </c>
-      <c r="AF16">
-        <v>1.776022667890149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17">
-        <v>0.11538436</v>
-      </c>
-      <c r="C17">
-        <v>0.00433644</v>
-      </c>
-      <c r="D17">
-        <v>0.3123807</v>
-      </c>
-      <c r="E17">
-        <v>0.00791888</v>
-      </c>
-      <c r="F17">
-        <v>4.96930408</v>
-      </c>
-      <c r="G17">
-        <v>0.18634642</v>
-      </c>
-      <c r="H17">
-        <v>0.09330571</v>
-      </c>
-      <c r="I17">
-        <v>0.00584588</v>
-      </c>
-      <c r="K17" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17">
-        <v>47360</v>
-      </c>
-      <c r="M17">
-        <v>92675</v>
-      </c>
-      <c r="N17">
-        <v>75</v>
-      </c>
-      <c r="O17">
-        <v>15</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17">
-        <v>1885.9</v>
-      </c>
-      <c r="S17">
-        <v>66.92</v>
-      </c>
-      <c r="T17">
-        <v>1752.4</v>
-      </c>
-      <c r="U17">
-        <v>38.9</v>
-      </c>
-      <c r="V17">
-        <v>1814.1</v>
-      </c>
-      <c r="W17">
-        <v>31.7</v>
-      </c>
-      <c r="X17">
-        <v>1803</v>
-      </c>
-      <c r="Y17">
-        <v>108.08</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB17">
-        <v>0.00292294</v>
-      </c>
-      <c r="AC17">
-        <v>0.09330571</v>
-      </c>
-      <c r="AD17">
-        <v>0.09317321000000001</v>
-      </c>
-      <c r="AE17">
-        <v>4.96930408</v>
-      </c>
-      <c r="AF17">
-        <v>1.670768171788287</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/outputs/UPbOutput.xlsx
+++ b/test_files/outputs/UPbOutput.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="90">
   <si>
     <t>Analysis_#</t>
   </si>
@@ -10070,7 +10070,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10107,1626 +10107,1597 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.05925549</v>
+        <v>0.14002734</v>
       </c>
       <c r="C2">
-        <v>0.00095706</v>
+        <v>0.00202965</v>
       </c>
       <c r="D2">
-        <v>0.09762741</v>
+        <v>0.4267382</v>
       </c>
       <c r="E2">
-        <v>0.00115974</v>
+        <v>0.00509699</v>
       </c>
       <c r="F2">
-        <v>0.79753673</v>
+        <v>8.23819447</v>
       </c>
       <c r="G2">
-        <v>0.01305311</v>
+        <v>0.12225675</v>
       </c>
       <c r="H2">
-        <v>0.02956459</v>
+        <v>0.12521042</v>
       </c>
       <c r="I2">
-        <v>0.0008474999999999999</v>
+        <v>0.00274793</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>0.06102176</v>
+        <v>0.07467622</v>
       </c>
       <c r="C3">
-        <v>0.00102202</v>
+        <v>0.00182117</v>
       </c>
       <c r="D3">
-        <v>0.09776538</v>
+        <v>0.0632067</v>
       </c>
       <c r="E3">
-        <v>0.00114977</v>
+        <v>0.00086021</v>
       </c>
       <c r="F3">
-        <v>0.82252294</v>
+        <v>0.65076309</v>
       </c>
       <c r="G3">
-        <v>0.01379256</v>
+        <v>0.01535627</v>
       </c>
       <c r="H3">
-        <v>0.03230873</v>
+        <v>0.01979949</v>
       </c>
       <c r="I3">
-        <v>0.00096777</v>
+        <v>0.00044462</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.14002734</v>
+        <v>0.10839629</v>
       </c>
       <c r="C4">
-        <v>0.00202965</v>
+        <v>0.00179585</v>
       </c>
       <c r="D4">
-        <v>0.4267382</v>
+        <v>0.29725766</v>
       </c>
       <c r="E4">
-        <v>0.00509699</v>
+        <v>0.00361408</v>
       </c>
       <c r="F4">
-        <v>8.23819447</v>
+        <v>4.44251394</v>
       </c>
       <c r="G4">
-        <v>0.12225675</v>
+        <v>0.07365235000000001</v>
       </c>
       <c r="H4">
-        <v>0.12521042</v>
+        <v>0.08825705</v>
       </c>
       <c r="I4">
-        <v>0.00274793</v>
+        <v>0.00212575</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>0.07467622</v>
+        <v>0.06233726</v>
       </c>
       <c r="C5">
-        <v>0.00182117</v>
+        <v>0.00172683</v>
       </c>
       <c r="D5">
-        <v>0.0632067</v>
+        <v>0.08146672000000001</v>
       </c>
       <c r="E5">
-        <v>0.00086021</v>
+        <v>0.00115038</v>
       </c>
       <c r="F5">
-        <v>0.65076309</v>
+        <v>0.70016521</v>
       </c>
       <c r="G5">
-        <v>0.01535627</v>
+        <v>0.01880147</v>
       </c>
       <c r="H5">
-        <v>0.01979949</v>
+        <v>0.02771389</v>
       </c>
       <c r="I5">
-        <v>0.00044462</v>
+        <v>0.0008110599999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.10839629</v>
+        <v>0.17508344</v>
       </c>
       <c r="C6">
-        <v>0.00179585</v>
+        <v>0.0034998</v>
       </c>
       <c r="D6">
-        <v>0.29725766</v>
+        <v>0.44849381</v>
       </c>
       <c r="E6">
-        <v>0.00361408</v>
+        <v>0.00593731</v>
       </c>
       <c r="F6">
-        <v>4.44251394</v>
+        <v>10.82270527</v>
       </c>
       <c r="G6">
-        <v>0.07365235000000001</v>
+        <v>0.21751702</v>
       </c>
       <c r="H6">
-        <v>0.08825705</v>
+        <v>0.13104485</v>
       </c>
       <c r="I6">
-        <v>0.00212575</v>
+        <v>0.00487851</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.06233726</v>
+        <v>0.17388043</v>
       </c>
       <c r="C7">
-        <v>0.00172683</v>
+        <v>0.00422406</v>
       </c>
       <c r="D7">
-        <v>0.08146672000000001</v>
+        <v>0.47403106</v>
       </c>
       <c r="E7">
-        <v>0.00115038</v>
+        <v>0.00709189</v>
       </c>
       <c r="F7">
-        <v>0.70016521</v>
+        <v>11.36583042</v>
       </c>
       <c r="G7">
-        <v>0.01880147</v>
+        <v>0.27610224</v>
       </c>
       <c r="H7">
-        <v>0.02771389</v>
+        <v>0.09755125000000001</v>
       </c>
       <c r="I7">
-        <v>0.0008110599999999999</v>
+        <v>0.0050431</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.17508344</v>
+        <v>0.17100489</v>
       </c>
       <c r="C8">
-        <v>0.0034998</v>
+        <v>0.00295209</v>
       </c>
       <c r="D8">
-        <v>0.44849381</v>
+        <v>0.49699029</v>
       </c>
       <c r="E8">
-        <v>0.00593731</v>
+        <v>0.00616109</v>
       </c>
       <c r="F8">
-        <v>10.82270527</v>
+        <v>11.71724606</v>
       </c>
       <c r="G8">
-        <v>0.21751702</v>
+        <v>0.20248808</v>
       </c>
       <c r="H8">
-        <v>0.13104485</v>
+        <v>0.13523741</v>
       </c>
       <c r="I8">
-        <v>0.00487851</v>
+        <v>0.00397501</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.17388043</v>
+        <v>0.05722805</v>
       </c>
       <c r="C9">
-        <v>0.00422406</v>
+        <v>0.00178174</v>
       </c>
       <c r="D9">
-        <v>0.47403106</v>
+        <v>0.05942357</v>
       </c>
       <c r="E9">
-        <v>0.00709189</v>
+        <v>0.00088212</v>
       </c>
       <c r="F9">
-        <v>11.36583042</v>
+        <v>0.46886104</v>
       </c>
       <c r="G9">
-        <v>0.27610224</v>
+        <v>0.01416581</v>
       </c>
       <c r="H9">
-        <v>0.09755125000000001</v>
+        <v>0.01924586</v>
       </c>
       <c r="I9">
-        <v>0.0050431</v>
+        <v>0.00063171</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.17100489</v>
+        <v>0.10390117</v>
       </c>
       <c r="C10">
-        <v>0.00295209</v>
+        <v>0.00210558</v>
       </c>
       <c r="D10">
-        <v>0.49699029</v>
+        <v>0.27769876</v>
       </c>
       <c r="E10">
-        <v>0.00616109</v>
+        <v>0.00369108</v>
       </c>
       <c r="F10">
-        <v>11.71724606</v>
+        <v>3.97823405</v>
       </c>
       <c r="G10">
-        <v>0.20248808</v>
+        <v>0.08095206000000001</v>
       </c>
       <c r="H10">
-        <v>0.13523741</v>
+        <v>0.08092102</v>
       </c>
       <c r="I10">
-        <v>0.00397501</v>
+        <v>0.00299898</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.05722805</v>
+        <v>0.05225151</v>
       </c>
       <c r="C11">
-        <v>0.00178174</v>
+        <v>0.00121183</v>
       </c>
       <c r="D11">
-        <v>0.05942357</v>
+        <v>0.05925776</v>
       </c>
       <c r="E11">
-        <v>0.00088212</v>
+        <v>0.00077642</v>
       </c>
       <c r="F11">
-        <v>0.46886104</v>
+        <v>0.42689079</v>
       </c>
       <c r="G11">
-        <v>0.01416581</v>
+        <v>0.009725900000000001</v>
       </c>
       <c r="H11">
-        <v>0.01924586</v>
+        <v>0.01824271</v>
       </c>
       <c r="I11">
-        <v>0.00063171</v>
+        <v>0.00068231</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>0.10390117</v>
+        <v>0.1215596</v>
       </c>
       <c r="C12">
-        <v>0.00210558</v>
+        <v>0.00183066</v>
       </c>
       <c r="D12">
-        <v>0.27769876</v>
+        <v>0.35263106</v>
       </c>
       <c r="E12">
-        <v>0.00369108</v>
+        <v>0.00430447</v>
       </c>
       <c r="F12">
-        <v>3.97823405</v>
+        <v>5.90975761</v>
       </c>
       <c r="G12">
-        <v>0.08095206000000001</v>
+        <v>0.09170296</v>
       </c>
       <c r="H12">
-        <v>0.08092102</v>
+        <v>0.10399723</v>
       </c>
       <c r="I12">
-        <v>0.00299898</v>
+        <v>0.00240363</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>0.05225151</v>
+        <v>0.05556513</v>
       </c>
       <c r="C13">
-        <v>0.00121183</v>
+        <v>0.00107415</v>
       </c>
       <c r="D13">
-        <v>0.05925776</v>
+        <v>0.06587759</v>
       </c>
       <c r="E13">
-        <v>0.00077642</v>
+        <v>0.00082744</v>
       </c>
       <c r="F13">
-        <v>0.42689079</v>
+        <v>0.5046261</v>
       </c>
       <c r="G13">
-        <v>0.009725900000000001</v>
+        <v>0.009775809999999999</v>
       </c>
       <c r="H13">
-        <v>0.01824271</v>
+        <v>0.02049271</v>
       </c>
       <c r="I13">
-        <v>0.00068231</v>
+        <v>0.0005667</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>0.06037111</v>
+        <v>0.05490155</v>
       </c>
       <c r="C14">
-        <v>0.0012294</v>
+        <v>0.00101423</v>
       </c>
       <c r="D14">
-        <v>0.09778125</v>
+        <v>0.05940912</v>
       </c>
       <c r="E14">
-        <v>0.00121853</v>
+        <v>0.0007193600000000001</v>
       </c>
       <c r="F14">
-        <v>0.81387657</v>
+        <v>0.44966462</v>
       </c>
       <c r="G14">
-        <v>0.01635747</v>
+        <v>0.008301970000000001</v>
       </c>
       <c r="H14">
-        <v>0.03283451</v>
+        <v>0.01731452</v>
       </c>
       <c r="I14">
-        <v>0.00123317</v>
+        <v>0.00040787</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>0.05983654</v>
+        <v>0.11058337</v>
       </c>
       <c r="C15">
-        <v>0.00123614</v>
+        <v>0.00251514</v>
       </c>
       <c r="D15">
-        <v>0.0974489</v>
+        <v>0.32139429</v>
       </c>
       <c r="E15">
-        <v>0.00121967</v>
+        <v>0.004345</v>
       </c>
       <c r="F15">
-        <v>0.80392814</v>
+        <v>4.9013834</v>
       </c>
       <c r="G15">
-        <v>0.01638236</v>
+        <v>0.1081541</v>
       </c>
       <c r="H15">
-        <v>0.02899833</v>
+        <v>0.09430452</v>
       </c>
       <c r="I15">
-        <v>0.00112888</v>
+        <v>0.00317649</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>0.06028967</v>
+        <v>0.11446285</v>
       </c>
       <c r="C16">
-        <v>0.00103829</v>
+        <v>0.00242298</v>
       </c>
       <c r="D16">
-        <v>0.09783884</v>
+        <v>0.31895921</v>
       </c>
       <c r="E16">
-        <v>0.00117964</v>
+        <v>0.00438916</v>
       </c>
       <c r="F16">
-        <v>0.8132582900000001</v>
+        <v>5.0343132</v>
       </c>
       <c r="G16">
-        <v>0.01407914</v>
+        <v>0.10671499</v>
       </c>
       <c r="H16">
-        <v>0.03248931</v>
+        <v>0.09551901</v>
       </c>
       <c r="I16">
-        <v>0.0009927499999999999</v>
+        <v>0.00350067</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>0.05991495</v>
+        <v>0.15219173</v>
       </c>
       <c r="C17">
-        <v>0.00103784</v>
+        <v>0.00690585</v>
       </c>
       <c r="D17">
-        <v>0.09724594</v>
+        <v>0.06729259</v>
       </c>
       <c r="E17">
-        <v>0.00115992</v>
+        <v>0.00162789</v>
       </c>
       <c r="F17">
-        <v>0.80331069</v>
+        <v>1.41188121</v>
       </c>
       <c r="G17">
-        <v>0.01392749</v>
+        <v>0.0579316</v>
       </c>
       <c r="H17">
-        <v>0.02901073</v>
+        <v>0.02059189</v>
       </c>
       <c r="I17">
-        <v>0.00091216</v>
+        <v>0.0006094</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>0.1215596</v>
+        <v>0.17591637</v>
       </c>
       <c r="C18">
-        <v>0.00183066</v>
+        <v>0.00396296</v>
       </c>
       <c r="D18">
-        <v>0.35263106</v>
+        <v>0.45337144</v>
       </c>
       <c r="E18">
-        <v>0.00430447</v>
+        <v>0.00615009</v>
       </c>
       <c r="F18">
-        <v>5.90975761</v>
+        <v>10.99534512</v>
       </c>
       <c r="G18">
-        <v>0.09170296</v>
+        <v>0.24225868</v>
       </c>
       <c r="H18">
-        <v>0.10399723</v>
+        <v>0.12764712</v>
       </c>
       <c r="I18">
-        <v>0.00240363</v>
+        <v>0.00517516</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>0.05556513</v>
+        <v>0.16680987</v>
       </c>
       <c r="C19">
-        <v>0.00107415</v>
+        <v>0.00282379</v>
       </c>
       <c r="D19">
-        <v>0.06587759</v>
+        <v>0.4367891</v>
       </c>
       <c r="E19">
-        <v>0.00082744</v>
+        <v>0.0053252</v>
       </c>
       <c r="F19">
-        <v>0.5046261</v>
+        <v>10.04393387</v>
       </c>
       <c r="G19">
-        <v>0.009775809999999999</v>
+        <v>0.17152968</v>
       </c>
       <c r="H19">
-        <v>0.02049271</v>
+        <v>0.12116589</v>
       </c>
       <c r="I19">
-        <v>0.0005667</v>
+        <v>0.00359752</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>0.05490155</v>
+        <v>0.05381548</v>
       </c>
       <c r="C20">
-        <v>0.00101423</v>
+        <v>0.00121821</v>
       </c>
       <c r="D20">
-        <v>0.05940912</v>
+        <v>0.05933176</v>
       </c>
       <c r="E20">
-        <v>0.0007193600000000001</v>
+        <v>0.00076229</v>
       </c>
       <c r="F20">
-        <v>0.44966462</v>
+        <v>0.44018677</v>
       </c>
       <c r="G20">
-        <v>0.008301970000000001</v>
+        <v>0.009819690000000001</v>
       </c>
       <c r="H20">
-        <v>0.01731452</v>
+        <v>0.01854042</v>
       </c>
       <c r="I20">
-        <v>0.00040787</v>
+        <v>0.00054204</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>0.11058337</v>
+        <v>0.05417064</v>
       </c>
       <c r="C21">
-        <v>0.00251514</v>
+        <v>0.00105498</v>
       </c>
       <c r="D21">
-        <v>0.32139429</v>
+        <v>0.06099826</v>
       </c>
       <c r="E21">
-        <v>0.004345</v>
+        <v>0.00075086</v>
       </c>
       <c r="F21">
-        <v>4.9013834</v>
+        <v>0.45553297</v>
       </c>
       <c r="G21">
-        <v>0.1081541</v>
+        <v>0.008839</v>
       </c>
       <c r="H21">
-        <v>0.09430452</v>
+        <v>0.01934309</v>
       </c>
       <c r="I21">
-        <v>0.00317649</v>
+        <v>0.00057744</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>0.11446285</v>
+        <v>0.115052</v>
       </c>
       <c r="C22">
-        <v>0.00242298</v>
+        <v>0.0021263</v>
       </c>
       <c r="D22">
-        <v>0.31895921</v>
+        <v>0.33738092</v>
       </c>
       <c r="E22">
-        <v>0.00438916</v>
+        <v>0.00426294</v>
       </c>
       <c r="F22">
-        <v>5.0343132</v>
+        <v>5.35088062</v>
       </c>
       <c r="G22">
-        <v>0.10671499</v>
+        <v>0.09956656</v>
       </c>
       <c r="H22">
-        <v>0.09551901</v>
+        <v>0.09396574000000001</v>
       </c>
       <c r="I22">
-        <v>0.00350067</v>
+        <v>0.00293873</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>0.15219173</v>
+        <v>0.11392029</v>
       </c>
       <c r="C23">
-        <v>0.00690585</v>
+        <v>0.00222018</v>
       </c>
       <c r="D23">
-        <v>0.06729259</v>
+        <v>0.33117929</v>
       </c>
       <c r="E23">
-        <v>0.00162789</v>
+        <v>0.00423431</v>
       </c>
       <c r="F23">
-        <v>1.41188121</v>
+        <v>5.20094395</v>
       </c>
       <c r="G23">
-        <v>0.0579316</v>
+        <v>0.10186438</v>
       </c>
       <c r="H23">
-        <v>0.02059189</v>
+        <v>0.09053271</v>
       </c>
       <c r="I23">
-        <v>0.0006094</v>
+        <v>0.00313807</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>0.17591637</v>
+        <v>0.21313961</v>
       </c>
       <c r="C24">
-        <v>0.00396296</v>
+        <v>0.00370454</v>
       </c>
       <c r="D24">
-        <v>0.45337144</v>
+        <v>0.55079246</v>
       </c>
       <c r="E24">
-        <v>0.00615009</v>
+        <v>0.00667998</v>
       </c>
       <c r="F24">
-        <v>10.99534512</v>
+        <v>16.18409538</v>
       </c>
       <c r="G24">
-        <v>0.24225868</v>
+        <v>0.28299115</v>
       </c>
       <c r="H24">
-        <v>0.12764712</v>
+        <v>0.15494223</v>
       </c>
       <c r="I24">
-        <v>0.00517516</v>
+        <v>0.00481573</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B25">
-        <v>0.16680987</v>
+        <v>0.17071074</v>
       </c>
       <c r="C25">
-        <v>0.00282379</v>
+        <v>0.00319185</v>
       </c>
       <c r="D25">
-        <v>0.4367891</v>
+        <v>0.33106613</v>
       </c>
       <c r="E25">
-        <v>0.0053252</v>
+        <v>0.0040919</v>
       </c>
       <c r="F25">
-        <v>10.04393387</v>
+        <v>7.79119396</v>
       </c>
       <c r="G25">
-        <v>0.17152968</v>
+        <v>0.14631231</v>
       </c>
       <c r="H25">
-        <v>0.12116589</v>
+        <v>0.07913195000000001</v>
       </c>
       <c r="I25">
-        <v>0.00359752</v>
+        <v>0.00272143</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B26">
-        <v>0.05381548</v>
+        <v>0.16330543</v>
       </c>
       <c r="C26">
-        <v>0.00121821</v>
+        <v>0.00231793</v>
       </c>
       <c r="D26">
-        <v>0.05933176</v>
+        <v>0.44766384</v>
       </c>
       <c r="E26">
-        <v>0.00076229</v>
+        <v>0.0052936</v>
       </c>
       <c r="F26">
-        <v>0.44018677</v>
+        <v>10.07809448</v>
       </c>
       <c r="G26">
-        <v>0.009819690000000001</v>
+        <v>0.14951037</v>
       </c>
       <c r="H26">
-        <v>0.01854042</v>
+        <v>0.12633729</v>
       </c>
       <c r="I26">
-        <v>0.00054204</v>
+        <v>0.0030079</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B27">
-        <v>0.05417064</v>
+        <v>0.12058843</v>
       </c>
       <c r="C27">
-        <v>0.00105498</v>
+        <v>0.00254442</v>
       </c>
       <c r="D27">
-        <v>0.06099826</v>
+        <v>0.37480021</v>
       </c>
       <c r="E27">
-        <v>0.00075086</v>
+        <v>0.00523004</v>
       </c>
       <c r="F27">
-        <v>0.45553297</v>
+        <v>6.23340034</v>
       </c>
       <c r="G27">
-        <v>0.008839</v>
+        <v>0.13236764</v>
       </c>
       <c r="H27">
-        <v>0.01934309</v>
+        <v>0.10360395</v>
       </c>
       <c r="I27">
-        <v>0.00057744</v>
+        <v>0.00359562</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B28">
-        <v>0.115052</v>
+        <v>0.12883869</v>
       </c>
       <c r="C28">
-        <v>0.0021263</v>
+        <v>0.00307945</v>
       </c>
       <c r="D28">
-        <v>0.33738092</v>
+        <v>0.2142458</v>
       </c>
       <c r="E28">
-        <v>0.00426294</v>
+        <v>0.00301393</v>
       </c>
       <c r="F28">
-        <v>5.35088062</v>
+        <v>3.80529809</v>
       </c>
       <c r="G28">
-        <v>0.09956656</v>
+        <v>0.08994521</v>
       </c>
       <c r="H28">
-        <v>0.09396574000000001</v>
+        <v>0.03826614</v>
       </c>
       <c r="I28">
-        <v>0.00293873</v>
+        <v>0.0016692</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <v>0.11392029</v>
+        <v>0.12299637</v>
       </c>
       <c r="C29">
-        <v>0.00222018</v>
+        <v>0.00248782</v>
       </c>
       <c r="D29">
-        <v>0.33117929</v>
+        <v>0.32631573</v>
       </c>
       <c r="E29">
-        <v>0.00423431</v>
+        <v>0.00443783</v>
       </c>
       <c r="F29">
-        <v>5.20094395</v>
+        <v>5.53642273</v>
       </c>
       <c r="G29">
-        <v>0.10186438</v>
+        <v>0.11392299</v>
       </c>
       <c r="H29">
-        <v>0.09053271</v>
+        <v>0.06686316</v>
       </c>
       <c r="I29">
-        <v>0.00313807</v>
+        <v>0.00242398</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B30">
-        <v>0.21313961</v>
+        <v>0.13268897</v>
       </c>
       <c r="C30">
-        <v>0.00370454</v>
+        <v>0.00203862</v>
       </c>
       <c r="D30">
-        <v>0.55079246</v>
+        <v>0.36655265</v>
       </c>
       <c r="E30">
-        <v>0.00667998</v>
+        <v>0.00436533</v>
       </c>
       <c r="F30">
-        <v>16.18409538</v>
+        <v>6.70519447</v>
       </c>
       <c r="G30">
-        <v>0.28299115</v>
+        <v>0.10564994</v>
       </c>
       <c r="H30">
-        <v>0.15494223</v>
+        <v>0.10819405</v>
       </c>
       <c r="I30">
-        <v>0.00481573</v>
+        <v>0.00278888</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B31">
-        <v>0.17071074</v>
+        <v>0.17493497</v>
       </c>
       <c r="C31">
-        <v>0.00319185</v>
+        <v>0.00265133</v>
       </c>
       <c r="D31">
-        <v>0.33106613</v>
+        <v>0.46346131</v>
       </c>
       <c r="E31">
-        <v>0.0040919</v>
+        <v>0.0054994</v>
       </c>
       <c r="F31">
-        <v>7.79119396</v>
+        <v>11.17781162</v>
       </c>
       <c r="G31">
-        <v>0.14631231</v>
+        <v>0.17249794</v>
       </c>
       <c r="H31">
-        <v>0.07913195000000001</v>
+        <v>0.11932084</v>
       </c>
       <c r="I31">
-        <v>0.00272143</v>
+        <v>0.00290802</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B32">
-        <v>0.05991508</v>
+        <v>0.06117366</v>
       </c>
       <c r="C32">
-        <v>0.00127101</v>
+        <v>0.00142755</v>
       </c>
       <c r="D32">
-        <v>0.09794469</v>
+        <v>0.0703655</v>
       </c>
       <c r="E32">
-        <v>0.00123767</v>
+        <v>0.00093133</v>
       </c>
       <c r="F32">
-        <v>0.80903924</v>
+        <v>0.59342778</v>
       </c>
       <c r="G32">
-        <v>0.01698432</v>
+        <v>0.01362257</v>
       </c>
       <c r="H32">
-        <v>0.03175987</v>
+        <v>0.0242704</v>
       </c>
       <c r="I32">
-        <v>0.00127495</v>
+        <v>0.00068381</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B33">
-        <v>0.06031692</v>
+        <v>0.05962247</v>
       </c>
       <c r="C33">
-        <v>0.00129249</v>
+        <v>0.00132273</v>
       </c>
       <c r="D33">
-        <v>0.09735291</v>
+        <v>0.07970360999999999</v>
       </c>
       <c r="E33">
-        <v>0.00123456</v>
+        <v>0.00102589</v>
       </c>
       <c r="F33">
-        <v>0.8095541000000001</v>
+        <v>0.65515471</v>
       </c>
       <c r="G33">
-        <v>0.0171609</v>
+        <v>0.01432324</v>
       </c>
       <c r="H33">
-        <v>0.0299046</v>
+        <v>0.0248712</v>
       </c>
       <c r="I33">
-        <v>0.00123094</v>
+        <v>0.0006717</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B34">
-        <v>0.05963452</v>
+        <v>0.11680959</v>
       </c>
       <c r="C34">
-        <v>0.00107101</v>
+        <v>0.00271675</v>
       </c>
       <c r="D34">
-        <v>0.09795207</v>
+        <v>0.33444476</v>
       </c>
       <c r="E34">
-        <v>0.00118215</v>
+        <v>0.00468941</v>
       </c>
       <c r="F34">
-        <v>0.80527788</v>
+        <v>5.38571978</v>
       </c>
       <c r="G34">
-        <v>0.01450291</v>
+        <v>0.12358516</v>
       </c>
       <c r="H34">
-        <v>0.03159827</v>
+        <v>0.0851449</v>
       </c>
       <c r="I34">
-        <v>0.00101091</v>
+        <v>0.00339514</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B35">
-        <v>0.06020008</v>
+        <v>0.07178279</v>
       </c>
       <c r="C35">
-        <v>0.00105454</v>
+        <v>0.0017252</v>
       </c>
       <c r="D35">
-        <v>0.09724117</v>
+        <v>0.0747181</v>
       </c>
       <c r="E35">
-        <v>0.00116506</v>
+        <v>0.00104357</v>
       </c>
       <c r="F35">
-        <v>0.8070664400000001</v>
+        <v>0.73946917</v>
       </c>
       <c r="G35">
-        <v>0.01419273</v>
+        <v>0.01756333</v>
       </c>
       <c r="H35">
-        <v>0.02995238</v>
+        <v>0.02106762</v>
       </c>
       <c r="I35">
-        <v>0.0009481099999999999</v>
+        <v>0.00074356</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B36">
-        <v>0.16330543</v>
+        <v>0.11659816</v>
       </c>
       <c r="C36">
-        <v>0.00231793</v>
+        <v>0.00198302</v>
       </c>
       <c r="D36">
-        <v>0.44766384</v>
+        <v>0.3374851</v>
       </c>
       <c r="E36">
-        <v>0.0052936</v>
+        <v>0.00409315</v>
       </c>
       <c r="F36">
-        <v>10.07809448</v>
+        <v>5.42515659</v>
       </c>
       <c r="G36">
-        <v>0.14951037</v>
+        <v>0.09269689</v>
       </c>
       <c r="H36">
-        <v>0.12633729</v>
+        <v>0.09958141</v>
       </c>
       <c r="I36">
-        <v>0.0030079</v>
+        <v>0.00281751</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B37">
-        <v>0.12058843</v>
+        <v>0.11466347</v>
       </c>
       <c r="C37">
-        <v>0.00254442</v>
+        <v>0.00258814</v>
       </c>
       <c r="D37">
-        <v>0.37480021</v>
+        <v>0.32545274</v>
       </c>
       <c r="E37">
-        <v>0.00523004</v>
+        <v>0.00454564</v>
       </c>
       <c r="F37">
-        <v>6.23340034</v>
+        <v>5.14422464</v>
       </c>
       <c r="G37">
-        <v>0.13236764</v>
+        <v>0.11600349</v>
       </c>
       <c r="H37">
-        <v>0.10360395</v>
+        <v>0.08539285000000001</v>
       </c>
       <c r="I37">
-        <v>0.00359562</v>
+        <v>0.00350633</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B38">
-        <v>0.12883869</v>
+        <v>0.09473076</v>
       </c>
       <c r="C38">
-        <v>0.00307945</v>
+        <v>0.00321679</v>
       </c>
       <c r="D38">
-        <v>0.2142458</v>
+        <v>0.07798088</v>
       </c>
       <c r="E38">
-        <v>0.00301393</v>
+        <v>0.0013203</v>
       </c>
       <c r="F38">
-        <v>3.80529809</v>
+        <v>1.01842105</v>
       </c>
       <c r="G38">
-        <v>0.08994521</v>
+        <v>0.03297507</v>
       </c>
       <c r="H38">
-        <v>0.03826614</v>
+        <v>0.02422056</v>
       </c>
       <c r="I38">
-        <v>0.0016692</v>
+        <v>0.0009775000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B39">
-        <v>0.12299637</v>
+        <v>0.06669851</v>
       </c>
       <c r="C39">
-        <v>0.00248782</v>
+        <v>0.00156113</v>
       </c>
       <c r="D39">
-        <v>0.32631573</v>
+        <v>0.13605298</v>
       </c>
       <c r="E39">
-        <v>0.00443783</v>
+        <v>0.00182421</v>
       </c>
       <c r="F39">
-        <v>5.53642273</v>
+        <v>1.25107896</v>
       </c>
       <c r="G39">
-        <v>0.11392299</v>
+        <v>0.02884082</v>
       </c>
       <c r="H39">
-        <v>0.06686316</v>
+        <v>0.04242052</v>
       </c>
       <c r="I39">
-        <v>0.00242398</v>
+        <v>0.0015424</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B40">
-        <v>0.13268897</v>
+        <v>0.05632528</v>
       </c>
       <c r="C40">
-        <v>0.00203862</v>
+        <v>0.00120608</v>
       </c>
       <c r="D40">
-        <v>0.36655265</v>
+        <v>0.08072696</v>
       </c>
       <c r="E40">
-        <v>0.00436533</v>
+        <v>0.00103923</v>
       </c>
       <c r="F40">
-        <v>6.70519447</v>
+        <v>0.62688375</v>
       </c>
       <c r="G40">
-        <v>0.10564994</v>
+        <v>0.0133345</v>
       </c>
       <c r="H40">
-        <v>0.10819405</v>
+        <v>0.02558704</v>
       </c>
       <c r="I40">
-        <v>0.00278888</v>
+        <v>0.00091409</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>0.17493497</v>
+        <v>0.05591814</v>
       </c>
       <c r="C41">
-        <v>0.00265133</v>
+        <v>0.00136867</v>
       </c>
       <c r="D41">
-        <v>0.46346131</v>
+        <v>0.06089099</v>
       </c>
       <c r="E41">
-        <v>0.0054994</v>
+        <v>0.00081047</v>
       </c>
       <c r="F41">
-        <v>11.17781162</v>
+        <v>0.46942955</v>
       </c>
       <c r="G41">
-        <v>0.17249794</v>
+        <v>0.01127488</v>
       </c>
       <c r="H41">
-        <v>0.11932084</v>
+        <v>0.02044878</v>
       </c>
       <c r="I41">
-        <v>0.00290802</v>
+        <v>0.00053818</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B42">
-        <v>0.06117366</v>
+        <v>0.11247832</v>
       </c>
       <c r="C42">
-        <v>0.00142755</v>
+        <v>0.00166892</v>
       </c>
       <c r="D42">
-        <v>0.0703655</v>
+        <v>0.3338429</v>
       </c>
       <c r="E42">
-        <v>0.00093133</v>
+        <v>0.00393533</v>
       </c>
       <c r="F42">
-        <v>0.59342778</v>
+        <v>5.17700768</v>
       </c>
       <c r="G42">
-        <v>0.01362257</v>
+        <v>0.07851086</v>
       </c>
       <c r="H42">
-        <v>0.0242704</v>
+        <v>0.09503457999999999</v>
       </c>
       <c r="I42">
-        <v>0.00068381</v>
+        <v>0.00214415</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B43">
-        <v>0.05962247</v>
+        <v>0.11168011</v>
       </c>
       <c r="C43">
-        <v>0.00132273</v>
+        <v>0.00363021</v>
       </c>
       <c r="D43">
-        <v>0.07970360999999999</v>
+        <v>0.33359912</v>
       </c>
       <c r="E43">
-        <v>0.00102589</v>
+        <v>0.00609949</v>
       </c>
       <c r="F43">
-        <v>0.65515471</v>
+        <v>5.13700056</v>
       </c>
       <c r="G43">
-        <v>0.01432324</v>
+        <v>0.16063486</v>
       </c>
       <c r="H43">
-        <v>0.0248712</v>
+        <v>0.08542246000000001</v>
       </c>
       <c r="I43">
-        <v>0.0006717</v>
+        <v>0.00349935</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B44">
-        <v>0.11680959</v>
+        <v>0.18385829</v>
       </c>
       <c r="C44">
-        <v>0.00271675</v>
+        <v>0.00458575</v>
       </c>
       <c r="D44">
-        <v>0.33444476</v>
+        <v>0.51385707</v>
       </c>
       <c r="E44">
-        <v>0.00468941</v>
+        <v>0.0081776</v>
       </c>
       <c r="F44">
-        <v>5.38571978</v>
+        <v>13.02418423</v>
       </c>
       <c r="G44">
-        <v>0.12358516</v>
+        <v>0.31324014</v>
       </c>
       <c r="H44">
-        <v>0.0851449</v>
+        <v>0.13973019</v>
       </c>
       <c r="I44">
-        <v>0.00339514</v>
+        <v>0.00498043</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B45">
-        <v>0.07178279</v>
+        <v>0.11540873</v>
       </c>
       <c r="C45">
-        <v>0.0017252</v>
+        <v>0.00188057</v>
       </c>
       <c r="D45">
-        <v>0.0747181</v>
+        <v>0.33280069</v>
       </c>
       <c r="E45">
-        <v>0.00104357</v>
+        <v>0.00405957</v>
       </c>
       <c r="F45">
-        <v>0.73946917</v>
+        <v>5.2953105</v>
       </c>
       <c r="G45">
-        <v>0.01756333</v>
+        <v>0.08701488</v>
       </c>
       <c r="H45">
-        <v>0.02106762</v>
+        <v>0.09952312000000001</v>
       </c>
       <c r="I45">
-        <v>0.00074356</v>
+        <v>0.0023465</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B46">
-        <v>0.11659816</v>
+        <v>0.05713838</v>
       </c>
       <c r="C46">
-        <v>0.00198302</v>
+        <v>0.00162037</v>
       </c>
       <c r="D46">
-        <v>0.3374851</v>
+        <v>0.08036897</v>
       </c>
       <c r="E46">
-        <v>0.00409315</v>
+        <v>0.00113167</v>
       </c>
       <c r="F46">
-        <v>5.42515659</v>
+        <v>0.63304847</v>
       </c>
       <c r="G46">
-        <v>0.09269689</v>
+        <v>0.01747628</v>
       </c>
       <c r="H46">
-        <v>0.09958141</v>
+        <v>0.0264909</v>
       </c>
       <c r="I46">
-        <v>0.00281751</v>
+        <v>0.00113653</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B47">
-        <v>0.11466347</v>
+        <v>0.11511456</v>
       </c>
       <c r="C47">
-        <v>0.00258814</v>
+        <v>0.00178306</v>
       </c>
       <c r="D47">
-        <v>0.32545274</v>
+        <v>0.33271149</v>
       </c>
       <c r="E47">
-        <v>0.00454564</v>
+        <v>0.00394848</v>
       </c>
       <c r="F47">
-        <v>5.14422464</v>
+        <v>5.28034306</v>
       </c>
       <c r="G47">
-        <v>0.11600349</v>
+        <v>0.08356901999999999</v>
       </c>
       <c r="H47">
-        <v>0.08539285000000001</v>
+        <v>0.09435288</v>
       </c>
       <c r="I47">
-        <v>0.00350633</v>
+        <v>0.00243705</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B48">
-        <v>0.09473076</v>
+        <v>0.1514342</v>
       </c>
       <c r="C48">
-        <v>0.00321679</v>
+        <v>0.00421755</v>
       </c>
       <c r="D48">
-        <v>0.07798088</v>
+        <v>0.42633954</v>
       </c>
       <c r="E48">
-        <v>0.0013203</v>
+        <v>0.00659065</v>
       </c>
       <c r="F48">
-        <v>1.01842105</v>
+        <v>8.9004879</v>
       </c>
       <c r="G48">
-        <v>0.03297507</v>
+        <v>0.24280446</v>
       </c>
       <c r="H48">
-        <v>0.02422056</v>
+        <v>0.10002673</v>
       </c>
       <c r="I48">
-        <v>0.0009775000000000001</v>
+        <v>0.00511662</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B49">
-        <v>0.06669851</v>
+        <v>0.06818251</v>
       </c>
       <c r="C49">
-        <v>0.00156113</v>
+        <v>0.00187624</v>
       </c>
       <c r="D49">
-        <v>0.13605298</v>
+        <v>0.09997316000000001</v>
       </c>
       <c r="E49">
-        <v>0.00182421</v>
+        <v>0.0014835</v>
       </c>
       <c r="F49">
-        <v>1.25107896</v>
+        <v>0.93976551</v>
       </c>
       <c r="G49">
-        <v>0.02884082</v>
+        <v>0.02525483</v>
       </c>
       <c r="H49">
-        <v>0.04242052</v>
+        <v>0.02738062</v>
       </c>
       <c r="I49">
-        <v>0.0015424</v>
+        <v>0.00115137</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B50">
-        <v>0.05632528</v>
+        <v>0.05497244</v>
       </c>
       <c r="C50">
-        <v>0.00120608</v>
+        <v>0.00209712</v>
       </c>
       <c r="D50">
-        <v>0.08072696</v>
+        <v>0.05948197</v>
       </c>
       <c r="E50">
-        <v>0.00103923</v>
+        <v>0.00100209</v>
       </c>
       <c r="F50">
-        <v>0.62688375</v>
+        <v>0.45080668</v>
       </c>
       <c r="G50">
-        <v>0.0133345</v>
+        <v>0.01659399</v>
       </c>
       <c r="H50">
-        <v>0.02558704</v>
+        <v>0.01779495</v>
       </c>
       <c r="I50">
-        <v>0.00091409</v>
+        <v>0.0007722300000000001</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B51">
-        <v>0.06006344</v>
+        <v>0.05383626</v>
       </c>
       <c r="C51">
-        <v>0.00127474</v>
+        <v>0.00190171</v>
       </c>
       <c r="D51">
-        <v>0.0977174</v>
+        <v>0.0563283</v>
       </c>
       <c r="E51">
-        <v>0.00124027</v>
+        <v>0.00090754</v>
       </c>
       <c r="F51">
-        <v>0.8091839</v>
+        <v>0.41807088</v>
       </c>
       <c r="G51">
-        <v>0.01696362</v>
+        <v>0.01427143</v>
       </c>
       <c r="H51">
-        <v>0.03195508</v>
+        <v>0.01376718</v>
       </c>
       <c r="I51">
-        <v>0.00129572</v>
+        <v>0.00061244</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B52">
-        <v>0.06023676</v>
+        <v>0.17937024</v>
       </c>
       <c r="C52">
-        <v>0.00129172</v>
+        <v>0.00437771</v>
       </c>
       <c r="D52">
-        <v>0.09751479</v>
+        <v>0.48978382</v>
       </c>
       <c r="E52">
-        <v>0.00124158</v>
+        <v>0.00712275</v>
       </c>
       <c r="F52">
-        <v>0.80983448</v>
+        <v>12.11128712</v>
       </c>
       <c r="G52">
-        <v>0.01714048</v>
+        <v>0.28901926</v>
       </c>
       <c r="H52">
-        <v>0.02978652</v>
+        <v>0.12799101</v>
       </c>
       <c r="I52">
-        <v>0.00123464</v>
+        <v>0.00559951</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B53">
-        <v>0.06023009</v>
+        <v>0.12159556</v>
       </c>
       <c r="C53">
-        <v>0.001083</v>
+        <v>0.00269646</v>
       </c>
       <c r="D53">
-        <v>0.09768652</v>
+        <v>0.34821829</v>
       </c>
       <c r="E53">
-        <v>0.001179</v>
+        <v>0.00468153</v>
       </c>
       <c r="F53">
-        <v>0.81117648</v>
+        <v>5.83740377</v>
       </c>
       <c r="G53">
-        <v>0.01459117</v>
+        <v>0.12754891</v>
       </c>
       <c r="H53">
-        <v>0.0319346</v>
+        <v>0.1039528</v>
       </c>
       <c r="I53">
-        <v>0.00104124</v>
+        <v>0.00412887</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B54">
-        <v>0.06023022</v>
+        <v>0.05693299</v>
       </c>
       <c r="C54">
-        <v>0.00106811</v>
+        <v>0.00162462</v>
       </c>
       <c r="D54">
-        <v>0.09756062</v>
+        <v>0.08152818000000001</v>
       </c>
       <c r="E54">
-        <v>0.00117632</v>
+        <v>0.00115814</v>
       </c>
       <c r="F54">
-        <v>0.81013072</v>
+        <v>0.63992387</v>
       </c>
       <c r="G54">
-        <v>0.01440507</v>
+        <v>0.01776151</v>
       </c>
       <c r="H54">
-        <v>0.02963333</v>
+        <v>0.0265804</v>
       </c>
       <c r="I54">
-        <v>0.00096207</v>
+        <v>0.00100172</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B55">
-        <v>0.05591814</v>
+        <v>0.1159955</v>
       </c>
       <c r="C55">
-        <v>0.00136867</v>
+        <v>0.00269918</v>
       </c>
       <c r="D55">
-        <v>0.06089099</v>
+        <v>0.34151149</v>
       </c>
       <c r="E55">
-        <v>0.00081047</v>
+        <v>0.00478169</v>
       </c>
       <c r="F55">
-        <v>0.46942955</v>
+        <v>5.46056604</v>
       </c>
       <c r="G55">
-        <v>0.01127488</v>
+        <v>0.12470795</v>
       </c>
       <c r="H55">
-        <v>0.02044878</v>
+        <v>0.09774176</v>
       </c>
       <c r="I55">
-        <v>0.00053818</v>
+        <v>0.00396447</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56">
-        <v>0.05950226</v>
+        <v>0.11538436</v>
       </c>
       <c r="C56">
-        <v>0.00126124</v>
+        <v>0.00216822</v>
       </c>
       <c r="D56">
-        <v>0.09753357999999999</v>
+        <v>0.3123807</v>
       </c>
       <c r="E56">
-        <v>0.00124167</v>
+        <v>0.00395944</v>
       </c>
       <c r="F56">
-        <v>0.80012286</v>
+        <v>4.96930408</v>
       </c>
       <c r="G56">
-        <v>0.01676968</v>
+        <v>0.09317321000000001</v>
       </c>
       <c r="H56">
-        <v>0.03057252</v>
+        <v>0.09330571</v>
       </c>
       <c r="I56">
-        <v>0.00121863</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57">
-        <v>0.06070474</v>
-      </c>
-      <c r="C57">
-        <v>0.00129115</v>
-      </c>
-      <c r="D57">
-        <v>0.09767724999999999</v>
-      </c>
-      <c r="E57">
-        <v>0.00124608</v>
-      </c>
-      <c r="F57">
-        <v>0.81749368</v>
-      </c>
-      <c r="G57">
-        <v>0.01718672</v>
-      </c>
-      <c r="H57">
-        <v>0.03096477</v>
-      </c>
-      <c r="I57">
-        <v>0.00124138</v>
+        <v>0.00292294</v>
       </c>
     </row>
   </sheetData>
@@ -11736,7 +11707,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11773,495 +11744,640 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.06426057</v>
+        <v>0.05925549</v>
       </c>
       <c r="C2">
-        <v>0.0012023</v>
+        <v>0.00095706</v>
       </c>
       <c r="D2">
-        <v>0.11813725</v>
+        <v>0.09762741</v>
       </c>
       <c r="E2">
-        <v>0.00147579</v>
+        <v>0.00115974</v>
       </c>
       <c r="F2">
-        <v>1.04662633</v>
+        <v>0.79753673</v>
       </c>
       <c r="G2">
-        <v>0.0195741</v>
+        <v>0.01305311</v>
       </c>
       <c r="H2">
-        <v>0.03630736</v>
+        <v>0.02956459</v>
       </c>
       <c r="I2">
-        <v>0.00076258</v>
+        <v>0.0008474999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06362816</v>
+        <v>0.06102176</v>
       </c>
       <c r="C3">
-        <v>0.00215729</v>
+        <v>0.00102202</v>
       </c>
       <c r="D3">
-        <v>0.12061665</v>
+        <v>0.09776538</v>
       </c>
       <c r="E3">
-        <v>0.00183151</v>
+        <v>0.00114977</v>
       </c>
       <c r="F3">
-        <v>1.05854285</v>
+        <v>0.82252294</v>
       </c>
       <c r="G3">
-        <v>0.03457375</v>
+        <v>0.01379256</v>
       </c>
       <c r="H3">
-        <v>0.03562337</v>
+        <v>0.03230873</v>
       </c>
       <c r="I3">
-        <v>0.00130316</v>
+        <v>0.00096777</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.11247832</v>
+        <v>0.07356002</v>
       </c>
       <c r="C4">
-        <v>0.00166892</v>
+        <v>0.00129452</v>
       </c>
       <c r="D4">
-        <v>0.3338429</v>
+        <v>0.1761913</v>
       </c>
       <c r="E4">
-        <v>0.00393533</v>
+        <v>0.00213131</v>
       </c>
       <c r="F4">
-        <v>5.17700768</v>
+        <v>1.78690434</v>
       </c>
       <c r="G4">
-        <v>0.07851086</v>
+        <v>0.03128593</v>
       </c>
       <c r="H4">
-        <v>0.09503457999999999</v>
+        <v>0.054222</v>
       </c>
       <c r="I4">
-        <v>0.00214415</v>
+        <v>0.00124256</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0.11168011</v>
+        <v>0.06426057</v>
       </c>
       <c r="C5">
-        <v>0.00363021</v>
+        <v>0.0012023</v>
       </c>
       <c r="D5">
-        <v>0.33359912</v>
+        <v>0.11813725</v>
       </c>
       <c r="E5">
-        <v>0.00609949</v>
+        <v>0.00147579</v>
       </c>
       <c r="F5">
-        <v>5.13700056</v>
+        <v>1.04662633</v>
       </c>
       <c r="G5">
-        <v>0.16063486</v>
+        <v>0.0195741</v>
       </c>
       <c r="H5">
-        <v>0.08542246000000001</v>
+        <v>0.03630736</v>
       </c>
       <c r="I5">
-        <v>0.00349935</v>
+        <v>0.00076258</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>0.18385829</v>
+        <v>0.06037111</v>
       </c>
       <c r="C6">
-        <v>0.00458575</v>
+        <v>0.0012294</v>
       </c>
       <c r="D6">
-        <v>0.51385707</v>
+        <v>0.09778125</v>
       </c>
       <c r="E6">
-        <v>0.0081776</v>
+        <v>0.00121853</v>
       </c>
       <c r="F6">
-        <v>13.02418423</v>
+        <v>0.81387657</v>
       </c>
       <c r="G6">
-        <v>0.31324014</v>
+        <v>0.01635747</v>
       </c>
       <c r="H6">
-        <v>0.13973019</v>
+        <v>0.03283451</v>
       </c>
       <c r="I6">
-        <v>0.00498043</v>
+        <v>0.00123317</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>0.11540873</v>
+        <v>0.05983654</v>
       </c>
       <c r="C7">
-        <v>0.00188057</v>
+        <v>0.00123614</v>
       </c>
       <c r="D7">
-        <v>0.33280069</v>
+        <v>0.0974489</v>
       </c>
       <c r="E7">
-        <v>0.00405957</v>
+        <v>0.00121967</v>
       </c>
       <c r="F7">
-        <v>5.2953105</v>
+        <v>0.80392814</v>
       </c>
       <c r="G7">
-        <v>0.08701488</v>
+        <v>0.01638236</v>
       </c>
       <c r="H7">
-        <v>0.09952312000000001</v>
+        <v>0.02899833</v>
       </c>
       <c r="I7">
-        <v>0.0023465</v>
+        <v>0.00112888</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>0.05713838</v>
+        <v>0.06028967</v>
       </c>
       <c r="C8">
-        <v>0.00162037</v>
+        <v>0.00103829</v>
       </c>
       <c r="D8">
-        <v>0.08036897</v>
+        <v>0.09783884</v>
       </c>
       <c r="E8">
-        <v>0.00113167</v>
+        <v>0.00117964</v>
       </c>
       <c r="F8">
-        <v>0.63304847</v>
+        <v>0.8132582900000001</v>
       </c>
       <c r="G8">
-        <v>0.01747628</v>
+        <v>0.01407914</v>
       </c>
       <c r="H8">
-        <v>0.0264909</v>
+        <v>0.03248931</v>
       </c>
       <c r="I8">
-        <v>0.00113653</v>
+        <v>0.0009927499999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>0.11511456</v>
+        <v>0.05991495</v>
       </c>
       <c r="C9">
-        <v>0.00178306</v>
+        <v>0.00103784</v>
       </c>
       <c r="D9">
-        <v>0.33271149</v>
+        <v>0.09724594</v>
       </c>
       <c r="E9">
-        <v>0.00394848</v>
+        <v>0.00115992</v>
       </c>
       <c r="F9">
-        <v>5.28034306</v>
+        <v>0.80331069</v>
       </c>
       <c r="G9">
-        <v>0.08356901999999999</v>
+        <v>0.01392749</v>
       </c>
       <c r="H9">
-        <v>0.09435288</v>
+        <v>0.02901073</v>
       </c>
       <c r="I9">
-        <v>0.00243705</v>
+        <v>0.00091216</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>0.1514342</v>
+        <v>0.07490122</v>
       </c>
       <c r="C10">
-        <v>0.00421755</v>
+        <v>0.00160574</v>
       </c>
       <c r="D10">
-        <v>0.42633954</v>
+        <v>0.17836133</v>
       </c>
       <c r="E10">
-        <v>0.00659065</v>
+        <v>0.00230771</v>
       </c>
       <c r="F10">
-        <v>8.9004879</v>
+        <v>1.84209335</v>
       </c>
       <c r="G10">
-        <v>0.24280446</v>
+        <v>0.03862256</v>
       </c>
       <c r="H10">
-        <v>0.10002673</v>
+        <v>0.05490848</v>
       </c>
       <c r="I10">
-        <v>0.00511662</v>
+        <v>0.0015696</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>0.06818251</v>
+        <v>0.06362816</v>
       </c>
       <c r="C11">
-        <v>0.00187624</v>
+        <v>0.00215729</v>
       </c>
       <c r="D11">
-        <v>0.09997316000000001</v>
+        <v>0.12061665</v>
       </c>
       <c r="E11">
-        <v>0.0014835</v>
+        <v>0.00183151</v>
       </c>
       <c r="F11">
-        <v>0.93976551</v>
+        <v>1.05854285</v>
       </c>
       <c r="G11">
-        <v>0.02525483</v>
+        <v>0.03457375</v>
       </c>
       <c r="H11">
-        <v>0.02738062</v>
+        <v>0.03562337</v>
       </c>
       <c r="I11">
-        <v>0.00115137</v>
+        <v>0.00130316</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>0.05497244</v>
+        <v>0.05991508</v>
       </c>
       <c r="C12">
-        <v>0.00209712</v>
+        <v>0.00127101</v>
       </c>
       <c r="D12">
-        <v>0.05948197</v>
+        <v>0.09794469</v>
       </c>
       <c r="E12">
-        <v>0.00100209</v>
+        <v>0.00123767</v>
       </c>
       <c r="F12">
-        <v>0.45080668</v>
+        <v>0.80903924</v>
       </c>
       <c r="G12">
-        <v>0.01659399</v>
+        <v>0.01698432</v>
       </c>
       <c r="H12">
-        <v>0.01779495</v>
+        <v>0.03175987</v>
       </c>
       <c r="I12">
-        <v>0.0007722300000000001</v>
+        <v>0.00127495</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>0.05383626</v>
+        <v>0.06031692</v>
       </c>
       <c r="C13">
-        <v>0.00190171</v>
+        <v>0.00129249</v>
       </c>
       <c r="D13">
-        <v>0.0563283</v>
+        <v>0.09735291</v>
       </c>
       <c r="E13">
-        <v>0.00090754</v>
+        <v>0.00123456</v>
       </c>
       <c r="F13">
-        <v>0.41807088</v>
+        <v>0.8095541000000001</v>
       </c>
       <c r="G13">
-        <v>0.01427143</v>
+        <v>0.0171609</v>
       </c>
       <c r="H13">
-        <v>0.01376718</v>
+        <v>0.0299046</v>
       </c>
       <c r="I13">
-        <v>0.00061244</v>
+        <v>0.00123094</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>0.17937024</v>
+        <v>0.05963452</v>
       </c>
       <c r="C14">
-        <v>0.00437771</v>
+        <v>0.00107101</v>
       </c>
       <c r="D14">
-        <v>0.48978382</v>
+        <v>0.09795207</v>
       </c>
       <c r="E14">
-        <v>0.00712275</v>
+        <v>0.00118215</v>
       </c>
       <c r="F14">
-        <v>12.11128712</v>
+        <v>0.80527788</v>
       </c>
       <c r="G14">
-        <v>0.28901926</v>
+        <v>0.01450291</v>
       </c>
       <c r="H14">
-        <v>0.12799101</v>
+        <v>0.03159827</v>
       </c>
       <c r="I14">
-        <v>0.00559951</v>
+        <v>0.00101091</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B15">
-        <v>0.12159556</v>
+        <v>0.06020008</v>
       </c>
       <c r="C15">
-        <v>0.00269646</v>
+        <v>0.00105454</v>
       </c>
       <c r="D15">
-        <v>0.34821829</v>
+        <v>0.09724117</v>
       </c>
       <c r="E15">
-        <v>0.00468153</v>
+        <v>0.00116506</v>
       </c>
       <c r="F15">
-        <v>5.83740377</v>
+        <v>0.8070664400000001</v>
       </c>
       <c r="G15">
-        <v>0.12754891</v>
+        <v>0.01419273</v>
       </c>
       <c r="H15">
-        <v>0.1039528</v>
+        <v>0.02995238</v>
       </c>
       <c r="I15">
-        <v>0.00412887</v>
+        <v>0.0009481099999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>0.05693299</v>
+        <v>0.07681286</v>
       </c>
       <c r="C16">
-        <v>0.00162462</v>
+        <v>0.0014987</v>
       </c>
       <c r="D16">
-        <v>0.08152818000000001</v>
+        <v>0.1784407</v>
       </c>
       <c r="E16">
-        <v>0.00115814</v>
+        <v>0.00227169</v>
       </c>
       <c r="F16">
-        <v>0.63992387</v>
+        <v>1.88966274</v>
       </c>
       <c r="G16">
-        <v>0.01776151</v>
+        <v>0.03664477</v>
       </c>
       <c r="H16">
-        <v>0.0265804</v>
+        <v>0.05469348</v>
       </c>
       <c r="I16">
-        <v>0.00100172</v>
+        <v>0.00142417</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>0.1159955</v>
+        <v>0.06006344</v>
       </c>
       <c r="C17">
-        <v>0.00269918</v>
+        <v>0.00127474</v>
       </c>
       <c r="D17">
-        <v>0.34151149</v>
+        <v>0.0977174</v>
       </c>
       <c r="E17">
-        <v>0.00478169</v>
+        <v>0.00124027</v>
       </c>
       <c r="F17">
-        <v>5.46056604</v>
+        <v>0.8091839</v>
       </c>
       <c r="G17">
-        <v>0.12470795</v>
+        <v>0.01696362</v>
       </c>
       <c r="H17">
-        <v>0.09774176</v>
+        <v>0.03195508</v>
       </c>
       <c r="I17">
-        <v>0.00396447</v>
+        <v>0.00129572</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>0.11538436</v>
+        <v>0.06023676</v>
       </c>
       <c r="C18">
-        <v>0.00216822</v>
+        <v>0.00129172</v>
       </c>
       <c r="D18">
-        <v>0.3123807</v>
+        <v>0.09751479</v>
       </c>
       <c r="E18">
-        <v>0.00395944</v>
+        <v>0.00124158</v>
       </c>
       <c r="F18">
-        <v>4.96930408</v>
+        <v>0.80983448</v>
       </c>
       <c r="G18">
-        <v>0.09317321000000001</v>
+        <v>0.01714048</v>
       </c>
       <c r="H18">
-        <v>0.09330571</v>
+        <v>0.02978652</v>
       </c>
       <c r="I18">
-        <v>0.00292294</v>
+        <v>0.00123464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>0.06023009</v>
+      </c>
+      <c r="C19">
+        <v>0.001083</v>
+      </c>
+      <c r="D19">
+        <v>0.09768652</v>
+      </c>
+      <c r="E19">
+        <v>0.001179</v>
+      </c>
+      <c r="F19">
+        <v>0.81117648</v>
+      </c>
+      <c r="G19">
+        <v>0.01459117</v>
+      </c>
+      <c r="H19">
+        <v>0.0319346</v>
+      </c>
+      <c r="I19">
+        <v>0.00104124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>0.06023022</v>
+      </c>
+      <c r="C20">
+        <v>0.00106811</v>
+      </c>
+      <c r="D20">
+        <v>0.09756062</v>
+      </c>
+      <c r="E20">
+        <v>0.00117632</v>
+      </c>
+      <c r="F20">
+        <v>0.81013072</v>
+      </c>
+      <c r="G20">
+        <v>0.01440507</v>
+      </c>
+      <c r="H20">
+        <v>0.02963333</v>
+      </c>
+      <c r="I20">
+        <v>0.00096207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>0.07588055</v>
+      </c>
+      <c r="C21">
+        <v>0.00151692</v>
+      </c>
+      <c r="D21">
+        <v>0.17756175</v>
+      </c>
+      <c r="E21">
+        <v>0.0022882</v>
+      </c>
+      <c r="F21">
+        <v>1.85756671</v>
+      </c>
+      <c r="G21">
+        <v>0.03684847</v>
+      </c>
+      <c r="H21">
+        <v>0.05509407</v>
+      </c>
+      <c r="I21">
+        <v>0.00147119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>0.05950226</v>
+      </c>
+      <c r="C22">
+        <v>0.00126124</v>
+      </c>
+      <c r="D22">
+        <v>0.09753357999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.00124167</v>
+      </c>
+      <c r="F22">
+        <v>0.80012286</v>
+      </c>
+      <c r="G22">
+        <v>0.01676968</v>
+      </c>
+      <c r="H22">
+        <v>0.03057252</v>
+      </c>
+      <c r="I22">
+        <v>0.00121863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>0.06070474</v>
+      </c>
+      <c r="C23">
+        <v>0.00129115</v>
+      </c>
+      <c r="D23">
+        <v>0.09767724999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.00124608</v>
+      </c>
+      <c r="F23">
+        <v>0.81749368</v>
+      </c>
+      <c r="G23">
+        <v>0.01718672</v>
+      </c>
+      <c r="H23">
+        <v>0.03096477</v>
+      </c>
+      <c r="I23">
+        <v>0.00124138</v>
       </c>
     </row>
   </sheetData>
